--- a/results/time-series-100-99-percent-energy-preserved.xlsx
+++ b/results/time-series-100-99-percent-energy-preserved.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\time-series-machine-leaning\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BDBEF8-4284-4848-A6FC-DA6E0067F2B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D7CB8-827A-48CC-883F-AC967F362AB4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8412" activeTab="3" xr2:uid="{99A84B33-02FC-4241-9637-4ED1B9116C8D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8412" xr2:uid="{99A84B33-02FC-4241-9637-4ED1B9116C8D}"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="1" r:id="rId1"/>
-    <sheet name="mnist" sheetId="8" r:id="rId2"/>
-    <sheet name="gpu2" sheetId="6" r:id="rId3"/>
-    <sheet name="100-90" sheetId="7" r:id="rId4"/>
-    <sheet name="p100" sheetId="5" r:id="rId5"/>
-    <sheet name="gpu3" sheetId="2" r:id="rId6"/>
-    <sheet name="50wordsGPU3" sheetId="3" r:id="rId7"/>
+    <sheet name="100-90" sheetId="7" r:id="rId1"/>
+    <sheet name="results" sheetId="1" r:id="rId2"/>
+    <sheet name="mnist" sheetId="8" r:id="rId3"/>
+    <sheet name="gpu2" sheetId="6" r:id="rId4"/>
+    <sheet name="skr-compute1" sheetId="9" r:id="rId5"/>
+    <sheet name="p100" sheetId="5" r:id="rId6"/>
+    <sheet name="gpu3" sheetId="2" r:id="rId7"/>
+    <sheet name="50wordsGPU3" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="344">
   <si>
     <t>Dataset</t>
   </si>
@@ -974,6 +975,102 @@
   </si>
   <si>
     <t>preserve energies: 100</t>
+  </si>
+  <si>
+    <t>ady@skr-compute1:~/code/time-series-ml-experiments/time-series-ml/cnns/nnlib/pytorch_experiments/results$ cat 2018-11-25-00-11-19-843173-ucr</t>
+  </si>
+  <si>
+    <t>preserve energies: 90</t>
+  </si>
+  <si>
+    <t>debug2</t>
+  </si>
+  <si>
+    <t>skr-compute1</t>
+  </si>
+  <si>
+    <t>2018-11-25-00-11-19-843467</t>
+  </si>
+  <si>
+    <t>lr:0.0</t>
+  </si>
+  <si>
+    <t>scheduler_type:SchedulerType.Redu</t>
+  </si>
+  <si>
+    <t>ceLROnPlateau</t>
+  </si>
+  <si>
+    <t>dataset:</t>
+  </si>
+  <si>
+    <t>FT1D</t>
+  </si>
+  <si>
+    <t>visualize:FA</t>
+  </si>
+  <si>
+    <t>LSE</t>
+  </si>
+  <si>
+    <t>parsed_args:Namespace(comp</t>
+  </si>
+  <si>
+    <t>ress_type='STANDARD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dataset='debug2'</t>
+  </si>
+  <si>
+    <t>memory_type='STANDARD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> optimizer_</t>
+  </si>
+  <si>
+    <t>type='ADAM'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preserve_energies=[90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stride_type='ST</t>
+  </si>
+  <si>
+    <t>ANDARD'</t>
+  </si>
+  <si>
+    <t>ady@skr-compute1:~/code/time-series-ml-experiments/time-series-ml/cnns/nnlib/pytorch_experiments/results$ cat 2018-11-25-00-10-59-444233-ucr</t>
+  </si>
+  <si>
+    <t>2018-11-25-00-10-59-444561</t>
+  </si>
+  <si>
+    <t>conv_type:ConvType.</t>
+  </si>
+  <si>
+    <t>visualize:F</t>
+  </si>
+  <si>
+    <t>ALSE</t>
+  </si>
+  <si>
+    <t>parsed_args:Namespace(com</t>
+  </si>
+  <si>
+    <t>press_type='STANDARD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> optimizer</t>
+  </si>
+  <si>
+    <t>_type='ADAM'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stride_type='</t>
+  </si>
+  <si>
+    <t>STANDARD'</t>
   </si>
 </sst>
 </file>
@@ -1347,6 +1444,668 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175C4BF1-3807-41C7-9FD0-915C0522E87E}">
+  <dimension ref="A1:C87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="29.15625" customWidth="1"/>
+    <col min="2" max="2" width="14.83984375" customWidth="1"/>
+    <col min="3" max="3" width="14.9453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="str">
+        <f>'gpu3'!A6</f>
+        <v>50words</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(results!B3:C3)</f>
+        <v>63.626373626373592</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(results!N3:R3)</f>
+        <v>59.780219780219724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="str">
+        <f>'gpu3'!A12</f>
+        <v>Adiac</v>
+      </c>
+      <c r="B4">
+        <f>AVERAGE(results!B4:C4)</f>
+        <v>80.946291560102253</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(results!N4:R4)</f>
+        <v>26.035805626598421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="str">
+        <f>'gpu3'!A18</f>
+        <v>ArrowHead</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(results!B5:C5)</f>
+        <v>83.428571428571402</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(results!N5:R5)</f>
+        <v>72.228571428571371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="str">
+        <f>'gpu3'!A24</f>
+        <v>Beef</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(results!B6:C6)</f>
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(results!N6:R6)</f>
+        <v>49.333333333333321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="str">
+        <f>'gpu3'!A30</f>
+        <v>BeetleFly</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(results!B7:C7)</f>
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(results!N7:R7)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="str">
+        <f>'gpu3'!A36</f>
+        <v>BirdChicken</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(results!B8:C8)</f>
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(results!N8:R8)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="str">
+        <f>'gpu3'!A45</f>
+        <v>Car</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(results!B9:C9)</f>
+        <v>91.6666666666666</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(results!N9:R9)</f>
+        <v>60.999999999999979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="str">
+        <f>'gpu3'!A48</f>
+        <v>CBF</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(results!B10:C10)</f>
+        <v>99.1111111111111</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE(results!N10:R10)</f>
+        <v>99.466666666666612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="str">
+        <f>'gpu3'!A57</f>
+        <v>ChlorineConcentration</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(results!B11:C11)</f>
+        <v>70.8333333333333</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(results!N11:R11)</f>
+        <v>57.546874999999957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="str">
+        <f>'gpu3'!A60</f>
+        <v>CinC_ECG_torso</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(results!B12:C12)</f>
+        <v>77.246376811594203</v>
+      </c>
+      <c r="C12">
+        <f>'gpu2'!E114</f>
+        <v>54.492753623188399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="str">
+        <f>'gpu3'!A66</f>
+        <v>Coffee</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(results!B13:C13)</f>
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f>'gpu2'!E115</f>
+        <v>96.428571428571402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <f>'gpu3'!E365</f>
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <f>'gpu2'!E116</f>
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <f>'gpu3'!E366</f>
+        <v>77.435897435897402</v>
+      </c>
+      <c r="C15">
+        <f>'gpu2'!E117</f>
+        <v>66.153846153846104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16">
+        <f>'gpu3'!E367</f>
+        <v>77.948717948717899</v>
+      </c>
+      <c r="C16">
+        <f>'gpu2'!E118</f>
+        <v>63.846153846153797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17">
+        <f>'gpu2'!E119</f>
+        <v>67.179487179487097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40">
+        <f>'skr-compute1'!E36</f>
+        <v>95.918367346938695</v>
+      </c>
+      <c r="C40">
+        <f>'skr-compute1'!E16</f>
+        <v>94.557823129251702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41">
+        <f>'skr-compute1'!E37</f>
+        <v>89.066666666666606</v>
+      </c>
+      <c r="C41">
+        <f>'skr-compute1'!E17</f>
+        <v>85.3333333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42">
+        <f>'skr-compute1'!E38</f>
+        <v>70.491803278688494</v>
+      </c>
+      <c r="C42">
+        <f>'skr-compute1'!E18</f>
+        <v>75.4098360655737</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43">
+        <f>'skr-compute1'!E39</f>
+        <v>80.821917808219098</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="str">
+        <f>'gpu3'!A81</f>
+        <v>SwedishLeaf</v>
+      </c>
+      <c r="C70">
+        <v>83.68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="str">
+        <f>'gpu3'!A80</f>
+        <v>Symbols</v>
+      </c>
+      <c r="C71">
+        <v>88.040201005025096</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="str">
+        <f>'gpu3'!A79</f>
+        <v>synthetic_control</v>
+      </c>
+      <c r="C72">
+        <v>99.3333333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="str">
+        <f>'gpu3'!A78</f>
+        <v>ToeSegmentation1</v>
+      </c>
+      <c r="C73">
+        <v>94.298245614034997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="str">
+        <f>'gpu3'!A77</f>
+        <v>ToeSegmentation2</v>
+      </c>
+      <c r="C74">
+        <v>75.384615384615302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="str">
+        <f>'gpu3'!A84</f>
+        <v>Wine</v>
+      </c>
+      <c r="B83">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="C83">
+        <v>79.629629629629605</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="str">
+        <f>'gpu3'!A85</f>
+        <v>WordsSynonyms</v>
+      </c>
+      <c r="B84">
+        <v>52.351097178683297</v>
+      </c>
+      <c r="C84">
+        <v>52.5078369905956</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85">
+        <v>43.093922651933703</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86">
+        <v>74.033149171270694</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87">
+        <v>76.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B88DE2-C050-4555-8254-CCDB84255E3C}">
   <dimension ref="A1:T87"/>
   <sheetViews>
@@ -2912,7 +3671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D571190-9540-45BF-981E-76340F9D56B5}">
   <dimension ref="A1:AN4"/>
   <sheetViews>
@@ -3094,7 +3853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB494C27-D3E5-405E-A38D-EBA7334189A1}">
   <dimension ref="A1:AP137"/>
   <sheetViews>
@@ -4871,633 +5630,750 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175C4BF1-3807-41C7-9FD0-915C0522E87E}">
-  <dimension ref="A1:C87"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB4BAC0-5711-4815-AA2C-74B11E670551}">
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="29.15625" customWidth="1"/>
-    <col min="2" max="2" width="14.83984375" customWidth="1"/>
-    <col min="3" max="3" width="14.9453125" customWidth="1"/>
+    <col min="1" max="1" width="17.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="str">
-        <f>'gpu3'!A6</f>
-        <v>50words</v>
-      </c>
-      <c r="B3">
-        <f>AVERAGE(results!B3:C3)</f>
-        <v>63.626373626373592</v>
-      </c>
-      <c r="C3">
-        <f>AVERAGE(results!N3:R3)</f>
-        <v>59.780219780219724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="str">
-        <f>'gpu3'!A12</f>
-        <v>Adiac</v>
-      </c>
-      <c r="B4">
-        <f>AVERAGE(results!B4:C4)</f>
-        <v>80.946291560102253</v>
-      </c>
-      <c r="C4">
-        <f>AVERAGE(results!N4:R4)</f>
-        <v>26.035805626598421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="str">
-        <f>'gpu3'!A18</f>
-        <v>ArrowHead</v>
-      </c>
-      <c r="B5">
-        <f>AVERAGE(results!B5:C5)</f>
-        <v>83.428571428571402</v>
-      </c>
-      <c r="C5">
-        <f>AVERAGE(results!N5:R5)</f>
-        <v>72.228571428571371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="str">
-        <f>'gpu3'!A24</f>
-        <v>Beef</v>
-      </c>
-      <c r="B6">
-        <f>AVERAGE(results!B6:C6)</f>
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <f>AVERAGE(results!N6:R6)</f>
-        <v>49.333333333333321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="str">
-        <f>'gpu3'!A30</f>
-        <v>BeetleFly</v>
-      </c>
-      <c r="B7">
-        <f>AVERAGE(results!B7:C7)</f>
-        <v>80</v>
-      </c>
-      <c r="C7">
-        <f>AVERAGE(results!N7:R7)</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="str">
-        <f>'gpu3'!A36</f>
-        <v>BirdChicken</v>
-      </c>
-      <c r="B8">
-        <f>AVERAGE(results!B8:C8)</f>
-        <v>90</v>
-      </c>
-      <c r="C8">
-        <f>AVERAGE(results!N8:R8)</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="str">
-        <f>'gpu3'!A45</f>
-        <v>Car</v>
-      </c>
-      <c r="B9">
-        <f>AVERAGE(results!B9:C9)</f>
-        <v>91.6666666666666</v>
-      </c>
-      <c r="C9">
-        <f>AVERAGE(results!N9:R9)</f>
-        <v>60.999999999999979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="str">
-        <f>'gpu3'!A48</f>
-        <v>CBF</v>
-      </c>
-      <c r="B10">
-        <f>AVERAGE(results!B10:C10)</f>
-        <v>99.1111111111111</v>
-      </c>
-      <c r="C10">
-        <f>AVERAGE(results!N10:R10)</f>
-        <v>99.466666666666612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="str">
-        <f>'gpu3'!A57</f>
-        <v>ChlorineConcentration</v>
-      </c>
-      <c r="B11">
-        <f>AVERAGE(results!B11:C11)</f>
-        <v>70.8333333333333</v>
-      </c>
-      <c r="C11">
-        <f>AVERAGE(results!N11:R11)</f>
-        <v>57.546874999999957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="str">
-        <f>'gpu3'!A60</f>
-        <v>CinC_ECG_torso</v>
-      </c>
-      <c r="B12">
-        <f>AVERAGE(results!B12:C12)</f>
-        <v>77.246376811594203</v>
-      </c>
-      <c r="C12">
-        <f>'gpu2'!E114</f>
-        <v>54.492753623188399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="str">
-        <f>'gpu3'!A66</f>
-        <v>Coffee</v>
-      </c>
-      <c r="B13">
-        <f>AVERAGE(results!B13:C13)</f>
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <f>'gpu2'!E115</f>
-        <v>96.428571428571402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="e">
+        <f>-fcnn.log</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14">
-        <f>'gpu3'!E365</f>
-        <v>84</v>
-      </c>
-      <c r="C14">
-        <f>'gpu2'!E116</f>
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15">
-        <f>'gpu3'!E366</f>
-        <v>77.435897435897402</v>
-      </c>
-      <c r="C15">
-        <f>'gpu2'!E117</f>
-        <v>66.153846153846104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B16">
-        <f>'gpu3'!E367</f>
-        <v>77.948717948717899</v>
+        <v>3.9761442746689003E-2</v>
       </c>
       <c r="C16">
-        <f>'gpu2'!E118</f>
-        <v>63.846153846153797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>98.507462686567095</v>
+      </c>
+      <c r="D16">
+        <v>0.15565164322060601</v>
+      </c>
+      <c r="E16">
+        <v>94.557823129251702</v>
+      </c>
+      <c r="F16">
+        <v>6116.3665866851798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>120</v>
+      </c>
+      <c r="B17">
+        <v>0.27755719407399398</v>
       </c>
       <c r="C17">
-        <f>'gpu2'!E119</f>
-        <v>67.179487179487097</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>92.533333333333303</v>
+      </c>
+      <c r="D17">
+        <v>0.42822000885009698</v>
+      </c>
+      <c r="E17">
+        <v>85.3333333333333</v>
+      </c>
+      <c r="F17">
+        <v>35191.678550004901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>121</v>
+      </c>
+      <c r="B18">
+        <v>0.170057128866513</v>
+      </c>
+      <c r="C18">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="D18">
+        <v>0.491844661900254</v>
+      </c>
+      <c r="E18">
+        <v>75.4098360655737</v>
+      </c>
+      <c r="F18">
+        <v>17221.068518877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="e">
+        <f>-fcnn.log</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>258</v>
+      </c>
+      <c r="H24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>319</v>
+      </c>
+      <c r="B25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>314</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>201</v>
+      </c>
+      <c r="B27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" t="s">
+        <v>269</v>
+      </c>
+      <c r="E27" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>337</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>339</v>
+      </c>
+      <c r="B29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" t="s">
+        <v>281</v>
+      </c>
+      <c r="G29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" t="s">
+        <v>285</v>
+      </c>
+      <c r="E30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>288</v>
+      </c>
+      <c r="H30" t="s">
+        <v>289</v>
+      </c>
+      <c r="I30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>291</v>
+      </c>
+      <c r="B31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" t="s">
+        <v>295</v>
+      </c>
+      <c r="F31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>341</v>
+      </c>
+      <c r="B32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D32" t="s">
+        <v>300</v>
+      </c>
+      <c r="E32" t="s">
+        <v>301</v>
+      </c>
+      <c r="F32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>343</v>
+      </c>
+      <c r="B33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" t="s">
+        <v>306</v>
+      </c>
+      <c r="E33" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" t="s">
+        <v>309</v>
+      </c>
+      <c r="H33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+      <c r="B36">
+        <v>4.4163981480384897E-3</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>0.13384296039103</v>
+      </c>
+      <c r="E36">
+        <v>95.918367346938695</v>
+      </c>
+      <c r="F36">
+        <v>4280.9576525688099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>120</v>
+      </c>
+      <c r="B37">
+        <v>5.4362257798512698E-2</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>0.43035120312372799</v>
+      </c>
+      <c r="E37">
+        <v>89.066666666666606</v>
+      </c>
+      <c r="F37">
+        <v>28117.696531772599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>121</v>
+      </c>
+      <c r="B38">
+        <v>4.3596070011456801E-2</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>0.68265456840640204</v>
+      </c>
+      <c r="E38">
+        <v>70.491803278688494</v>
+      </c>
+      <c r="F38">
+        <v>4814.0373995304099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" t="str">
-        <f>'gpu3'!A81</f>
-        <v>SwedishLeaf</v>
-      </c>
-      <c r="C70">
-        <v>83.68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" t="str">
-        <f>'gpu3'!A80</f>
-        <v>Symbols</v>
-      </c>
-      <c r="C71">
-        <v>88.040201005025096</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" t="str">
-        <f>'gpu3'!A79</f>
-        <v>synthetic_control</v>
-      </c>
-      <c r="C72">
-        <v>99.3333333333333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" t="str">
-        <f>'gpu3'!A78</f>
-        <v>ToeSegmentation1</v>
-      </c>
-      <c r="C73">
-        <v>94.298245614034997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" t="str">
-        <f>'gpu3'!A77</f>
-        <v>ToeSegmentation2</v>
-      </c>
-      <c r="C74">
-        <v>75.384615384615302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" t="str">
-        <f>'gpu3'!A84</f>
-        <v>Wine</v>
-      </c>
-      <c r="B83">
-        <v>66.6666666666666</v>
-      </c>
-      <c r="C83">
-        <v>79.629629629629605</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" t="str">
-        <f>'gpu3'!A85</f>
-        <v>WordsSynonyms</v>
-      </c>
-      <c r="B84">
-        <v>52.351097178683297</v>
-      </c>
-      <c r="C84">
-        <v>52.5078369905956</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85">
-        <v>43.093922651933703</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86">
-        <v>74.033149171270694</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" t="s">
-        <v>159</v>
-      </c>
-      <c r="C87">
-        <v>76.3</v>
+      <c r="B39">
+        <v>7.9881526742662703E-2</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>0.62935330116585497</v>
+      </c>
+      <c r="E39">
+        <v>80.821917808219098</v>
+      </c>
+      <c r="F39">
+        <v>4267.4638450145703</v>
       </c>
     </row>
   </sheetData>
@@ -5505,7 +6381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1274BA09-BD96-435E-A9A6-03CD9E173600}">
   <dimension ref="A1:L72"/>
   <sheetViews>
@@ -6733,7 +7609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC8A15-5897-4C81-BEB9-7876A1902672}">
   <dimension ref="A1:BW367"/>
   <sheetViews>
@@ -13827,7 +14703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEE2090-E0BD-4F84-B877-D58086A9F27D}">
   <dimension ref="A1:AP25"/>
   <sheetViews>

--- a/results/time-series-100-99-percent-energy-preserved.xlsx
+++ b/results/time-series-100-99-percent-energy-preserved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\time-series-machine-leaning\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D7CB8-827A-48CC-883F-AC967F362AB4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B262EB1-5E5C-4783-BFC4-946D407ECBD6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8412" xr2:uid="{99A84B33-02FC-4241-9637-4ED1B9116C8D}"/>
   </bookViews>
@@ -1447,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175C4BF1-3807-41C7-9FD0-915C0522E87E}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/results/time-series-100-99-percent-energy-preserved.xlsx
+++ b/results/time-series-100-99-percent-energy-preserved.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\time-series-machine-leaning\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B262EB1-5E5C-4783-BFC4-946D407ECBD6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CEEE39-FBDE-4520-94C2-134C40ECEA27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8412" xr2:uid="{99A84B33-02FC-4241-9637-4ED1B9116C8D}"/>
   </bookViews>
   <sheets>
     <sheet name="100-90" sheetId="7" r:id="rId1"/>
-    <sheet name="results" sheetId="1" r:id="rId2"/>
-    <sheet name="mnist" sheetId="8" r:id="rId3"/>
-    <sheet name="gpu2" sheetId="6" r:id="rId4"/>
-    <sheet name="skr-compute1" sheetId="9" r:id="rId5"/>
-    <sheet name="p100" sheetId="5" r:id="rId6"/>
-    <sheet name="gpu3" sheetId="2" r:id="rId7"/>
-    <sheet name="50wordsGPU3" sheetId="3" r:id="rId8"/>
+    <sheet name="athena" sheetId="10" r:id="rId2"/>
+    <sheet name="results" sheetId="1" r:id="rId3"/>
+    <sheet name="mnist" sheetId="8" r:id="rId4"/>
+    <sheet name="gpu2" sheetId="6" r:id="rId5"/>
+    <sheet name="skr-compute1" sheetId="9" r:id="rId6"/>
+    <sheet name="p100" sheetId="5" r:id="rId7"/>
+    <sheet name="gpu3" sheetId="2" r:id="rId8"/>
+    <sheet name="50wordsGPU3" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="408">
   <si>
     <t>Dataset</t>
   </si>
@@ -1071,6 +1072,198 @@
   </si>
   <si>
     <t>STANDARD'</t>
+  </si>
+  <si>
+    <t>ady@gpu2:~/code/time-series-ml/cnns/nnlib/pytorch_experiments/results$ cat 2018-11-24-13-55-46-919936-ucr-fcnn.log</t>
+  </si>
+  <si>
+    <t>2018-11-24-13-55-46-920125</t>
+  </si>
+  <si>
+    <t>weigh</t>
+  </si>
+  <si>
+    <t>t_decay:0.0005</t>
+  </si>
+  <si>
+    <t>scheduler_type:SchedulerType.ReduceLROnPl</t>
+  </si>
+  <si>
+    <t>ateau</t>
+  </si>
+  <si>
+    <t>dataset:debug1</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ndex_back:0</t>
+  </si>
+  <si>
+    <t>preserve_energies:[90]</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>press_type:CompressType.STANDARD</t>
+  </si>
+  <si>
+    <t>stat</t>
+  </si>
+  <si>
+    <t>ic_loss_scale:1</t>
+  </si>
+  <si>
+    <t>parsed_args:Namespace(compress_typ</t>
+  </si>
+  <si>
+    <t>e='STANDARD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dataset='debug1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is_debu</t>
+  </si>
+  <si>
+    <t>g='FALSE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> memory_t</t>
+  </si>
+  <si>
+    <t>ype='STANDARD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> optimizer_type='AD</t>
+  </si>
+  <si>
+    <t>AM'</t>
+  </si>
+  <si>
+    <t>2018-11-24-13-54-45-248056</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>mpress_type:CompressType.STANDARD</t>
+  </si>
+  <si>
+    <t>sta</t>
+  </si>
+  <si>
+    <t>tic_loss_scale:1</t>
+  </si>
+  <si>
+    <t>parsed_args:Namespace(compress_ty</t>
+  </si>
+  <si>
+    <t>pe='STANDARD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is_deb</t>
+  </si>
+  <si>
+    <t>ug='FALSE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> memory_</t>
+  </si>
+  <si>
+    <t>type='STANDARD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> optimizer_type='A</t>
+  </si>
+  <si>
+    <t>DAM'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stride_type='STANDARD</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>ady@gpu3:~/code/time-series-ml/cnns/nnlib/pytorch_experiments/results$ cat 2018-11-24-13-45-08-374716-ucr-fcnn.log</t>
+  </si>
+  <si>
+    <t>2018-11-24-13-45-08-374933</t>
+  </si>
+  <si>
+    <t>energy preserved 90% gpu3</t>
+  </si>
+  <si>
+    <t>athena</t>
+  </si>
+  <si>
+    <t>2018-11-25-08-17-41-917707</t>
+  </si>
+  <si>
+    <t>min_batch_size:1</t>
+  </si>
+  <si>
+    <t>weig</t>
+  </si>
+  <si>
+    <t>ht_decay:0.0005</t>
+  </si>
+  <si>
+    <t>use_cuda:False</t>
+  </si>
+  <si>
+    <t>scheduler_type:SchedulerType.ReduceLROn</t>
+  </si>
+  <si>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>dataset:debug3</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ompress_type:CompressType.STANDARD</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>atic_loss_scale:1</t>
+  </si>
+  <si>
+    <t>mem_size:25</t>
+  </si>
+  <si>
+    <t>parsed_args:Namespace(compress_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dataset='debug3'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is_de</t>
+  </si>
+  <si>
+    <t>bug='FALSE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mem_size=25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> memory</t>
+  </si>
+  <si>
+    <t>_type='STANDARD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> min_batch_size=1</t>
+  </si>
+  <si>
+    <t>conv_type:ConvType.F</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175C4BF1-3807-41C7-9FD0-915C0522E87E}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1487,7 +1680,7 @@
         <v>63.626373626373592</v>
       </c>
       <c r="C3">
-        <f>AVERAGE(results!N3:R3)</f>
+        <f>AVERAGE(results!O3:S3)</f>
         <v>59.780219780219724</v>
       </c>
     </row>
@@ -1501,7 +1694,7 @@
         <v>80.946291560102253</v>
       </c>
       <c r="C4">
-        <f>AVERAGE(results!N4:R4)</f>
+        <f>AVERAGE(results!O4:S4)</f>
         <v>26.035805626598421</v>
       </c>
     </row>
@@ -1515,7 +1708,7 @@
         <v>83.428571428571402</v>
       </c>
       <c r="C5">
-        <f>AVERAGE(results!N5:R5)</f>
+        <f>AVERAGE(results!O5:S5)</f>
         <v>72.228571428571371</v>
       </c>
     </row>
@@ -1529,7 +1722,7 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <f>AVERAGE(results!N6:R6)</f>
+        <f>AVERAGE(results!O6:S6)</f>
         <v>49.333333333333321</v>
       </c>
     </row>
@@ -1543,7 +1736,7 @@
         <v>80</v>
       </c>
       <c r="C7">
-        <f>AVERAGE(results!N7:R7)</f>
+        <f>AVERAGE(results!O7:S7)</f>
         <v>94</v>
       </c>
     </row>
@@ -1557,7 +1750,7 @@
         <v>90</v>
       </c>
       <c r="C8">
-        <f>AVERAGE(results!N8:R8)</f>
+        <f>AVERAGE(results!O8:S8)</f>
         <v>79</v>
       </c>
     </row>
@@ -1571,7 +1764,7 @@
         <v>91.6666666666666</v>
       </c>
       <c r="C9">
-        <f>AVERAGE(results!N9:R9)</f>
+        <f>AVERAGE(results!O9:S9)</f>
         <v>60.999999999999979</v>
       </c>
     </row>
@@ -1585,7 +1778,7 @@
         <v>99.1111111111111</v>
       </c>
       <c r="C10">
-        <f>AVERAGE(results!N10:R10)</f>
+        <f>AVERAGE(results!O10:S10)</f>
         <v>99.466666666666612</v>
       </c>
     </row>
@@ -1599,7 +1792,7 @@
         <v>70.8333333333333</v>
       </c>
       <c r="C11">
-        <f>AVERAGE(results!N11:R11)</f>
+        <f>AVERAGE(results!O11:S11)</f>
         <v>57.546874999999957</v>
       </c>
     </row>
@@ -1636,12 +1829,12 @@
         <v>93</v>
       </c>
       <c r="B14">
-        <f>'gpu3'!E365</f>
+        <f>'gpu3'!E433</f>
         <v>84</v>
       </c>
       <c r="C14">
-        <f>'gpu2'!E116</f>
-        <v>62.8</v>
+        <f>AVERAGE(results!$M14:$N14)</f>
+        <v>66.199999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1649,12 +1842,12 @@
         <v>94</v>
       </c>
       <c r="B15">
-        <f>'gpu3'!E366</f>
+        <f>'gpu3'!E434</f>
         <v>77.435897435897402</v>
       </c>
       <c r="C15">
-        <f>'gpu2'!E117</f>
-        <v>66.153846153846104</v>
+        <f>AVERAGE(results!$M15:$N15)</f>
+        <v>66.410256410256352</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1662,62 +1855,130 @@
         <v>95</v>
       </c>
       <c r="B16">
-        <f>'gpu3'!E367</f>
+        <f>'gpu3'!E435</f>
         <v>77.948717948717899</v>
       </c>
       <c r="C16">
-        <f>'gpu2'!E118</f>
-        <v>63.846153846153797</v>
+        <f>AVERAGE(results!$M16:$N16)</f>
+        <v>61.923076923076898</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>96</v>
       </c>
+      <c r="B17">
+        <f>'gpu3'!E436</f>
+        <v>78.461538461538396</v>
+      </c>
       <c r="C17">
-        <f>'gpu2'!E119</f>
-        <v>67.179487179487097</v>
+        <f>AVERAGE(results!$M17:$N17)</f>
+        <v>67.692307692307651</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>97</v>
       </c>
+      <c r="B18">
+        <f>'gpu3'!E437</f>
+        <v>91.176470588235205</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(results!$M18:$N18)</f>
+        <v>66.6666666666666</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>98</v>
       </c>
+      <c r="B19">
+        <f>'gpu3'!E438</f>
+        <v>84.75</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE(results!$M19:$N19)</f>
+        <v>79.75</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>99</v>
       </c>
+      <c r="B20">
+        <f>'gpu3'!E439</f>
+        <v>81.1666666666666</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(results!$M20:$N20)</f>
+        <v>75.3333333333333</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>100</v>
+      </c>
+      <c r="B21">
+        <f>'gpu3'!E440</f>
+        <v>79.5</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(results!$M21:$N21)</f>
+        <v>74.25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>101</v>
       </c>
+      <c r="B22">
+        <f>'gpu3'!E441</f>
+        <v>77.950310559006198</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(results!$M22:$N22)</f>
+        <v>75.776397515527904</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>102</v>
       </c>
+      <c r="B23">
+        <f>'gpu3'!E442</f>
+        <v>88</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(results!$M23:$N23)</f>
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>103</v>
       </c>
+      <c r="B24">
+        <f>'gpu3'!E443</f>
+        <v>93.911111111111097</v>
+      </c>
+      <c r="C24">
+        <f>AVERAGE(results!$M24:$N24)</f>
+        <v>94.288888888888806</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>104</v>
       </c>
+      <c r="B25">
+        <f>'gpu3'!E444</f>
+        <v>97.677119628339099</v>
+      </c>
+      <c r="C25">
+        <f>AVERAGE(results!$M25:$N25)</f>
+        <v>98.7224157955865</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
@@ -1733,36 +1994,80 @@
       <c r="A28" t="s">
         <v>107</v>
       </c>
+      <c r="B28">
+        <f>'gpu3'!E384</f>
+        <v>92.045454545454504</v>
+      </c>
+      <c r="C28">
+        <f>'gpu2'!E156</f>
+        <v>90.909090909090907</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>108</v>
       </c>
+      <c r="B29">
+        <f>'gpu3'!E385</f>
+        <v>92.390243902438996</v>
+      </c>
+      <c r="C29">
+        <f>'gpu2'!E157</f>
+        <v>92.975609756097498</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>109</v>
       </c>
+      <c r="B30">
+        <f>'gpu3'!E386</f>
+        <v>96.571428571428498</v>
+      </c>
+      <c r="C30">
+        <f>'gpu2'!E158</f>
+        <v>59.428571428571402</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>110</v>
       </c>
+      <c r="B31">
+        <f>'gpu3'!E387</f>
+        <v>91.113579561232996</v>
+      </c>
+      <c r="C31">
+        <f>'gpu2'!E159</f>
+        <v>84.587614551513397</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>111</v>
       </c>
+      <c r="C32">
+        <f>'gpu2'!E160</f>
+        <v>77.722772277227705</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>112</v>
       </c>
+      <c r="C33">
+        <f>'gpu2'!E161</f>
+        <v>85.3333333333333</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>113</v>
       </c>
+      <c r="C34">
+        <f>'gpu2'!E162</f>
+        <v>76.190476190476105</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
@@ -1794,11 +2099,11 @@
         <v>119</v>
       </c>
       <c r="B40">
-        <f>'skr-compute1'!E36</f>
+        <f>'skr-compute1'!E79</f>
         <v>95.918367346938695</v>
       </c>
       <c r="C40">
-        <f>'skr-compute1'!E16</f>
+        <f>'skr-compute1'!E56</f>
         <v>94.557823129251702</v>
       </c>
     </row>
@@ -1807,11 +2112,11 @@
         <v>120</v>
       </c>
       <c r="B41">
-        <f>'skr-compute1'!E37</f>
+        <f>'skr-compute1'!E80</f>
         <v>89.066666666666606</v>
       </c>
       <c r="C41">
-        <f>'skr-compute1'!E17</f>
+        <f>'skr-compute1'!E57</f>
         <v>85.3333333333333</v>
       </c>
     </row>
@@ -1820,11 +2125,11 @@
         <v>121</v>
       </c>
       <c r="B42">
-        <f>'skr-compute1'!E38</f>
+        <f>'skr-compute1'!E81</f>
         <v>70.491803278688494</v>
       </c>
       <c r="C42">
-        <f>'skr-compute1'!E18</f>
+        <f>'skr-compute1'!E58</f>
         <v>75.4098360655737</v>
       </c>
     </row>
@@ -1833,19 +2138,39 @@
         <v>122</v>
       </c>
       <c r="B43">
-        <f>'skr-compute1'!E39</f>
+        <f>'skr-compute1'!E82</f>
         <v>80.821917808219098</v>
+      </c>
+      <c r="C43">
+        <f>'skr-compute1'!E59</f>
+        <v>79.452054794520507</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>123</v>
       </c>
+      <c r="B44">
+        <f>'skr-compute1'!E83</f>
+        <v>90.149253731343194</v>
+      </c>
+      <c r="C44">
+        <f>'skr-compute1'!E60</f>
+        <v>92.537313432835802</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>124</v>
       </c>
+      <c r="B45">
+        <f>'skr-compute1'!E84</f>
+        <v>65</v>
+      </c>
+      <c r="C45">
+        <f>'skr-compute1'!E61</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
@@ -1862,82 +2187,86 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53">
+        <f>athena!E14</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -2106,11 +2435,342 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95BE316-36BD-47EC-961C-DEF7A408A4C5}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" t="s">
+        <v>403</v>
+      </c>
+      <c r="H8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14">
+        <v>1.2821595807870201</v>
+      </c>
+      <c r="C14">
+        <v>43.3333333333333</v>
+      </c>
+      <c r="D14">
+        <v>1.29848424792289</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>83496.685634374604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B88DE2-C050-4555-8254-CCDB84255E3C}">
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2120,7 +2780,7 @@
     <col min="5" max="10" width="14.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>234</v>
       </c>
@@ -2158,10 +2818,10 @@
         <v>233</v>
       </c>
       <c r="N1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O1" t="s">
         <v>233</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -2173,13 +2833,16 @@
         <v>1</v>
       </c>
       <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
         <v>225</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2219,9 +2882,6 @@
       <c r="M2">
         <v>90</v>
       </c>
-      <c r="N2">
-        <v>90</v>
-      </c>
       <c r="O2">
         <v>90</v>
       </c>
@@ -2235,13 +2895,16 @@
         <v>90</v>
       </c>
       <c r="S2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="T2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="U2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
         <f>'gpu3'!A6</f>
         <v>50words</v>
@@ -2294,36 +2957,36 @@
         <f>'gpu2'!E5</f>
         <v>60.6593406593406</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <f>'gpu2'!E5</f>
         <v>60.6593406593406</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <f>'50wordsGPU3'!E4</f>
         <v>64.175824175824104</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <f>'gpu3'!E217</f>
         <v>56.703296703296701</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <f>'gpu3'!E232</f>
         <v>58.681318681318601</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <f>'gpu3'!E331</f>
         <v>58.681318681318601</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <f>'p100'!E4</f>
         <v>61.9780219780219</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <f>'p100'!E41</f>
         <v>64.175824175824104</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
         <f>'gpu3'!A12</f>
         <v>Adiac</v>
@@ -2372,36 +3035,36 @@
         <f>'gpu2'!E17</f>
         <v>32.480818414322201</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f>'gpu2'!E17</f>
         <v>32.480818414322201</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f>'gpu3'!E166</f>
         <v>28.644501278772299</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f>'gpu3'!E218</f>
         <v>23.017902813299202</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f>'gpu3'!E233</f>
         <v>23.017902813299202</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f>'gpu3'!E332</f>
         <v>23.017902813299202</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f>'p100'!E5</f>
         <v>69.309462915601003</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f>'p100'!E42</f>
         <v>77.749360613810694</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
         <f>'gpu3'!A18</f>
         <v>ArrowHead</v>
@@ -2450,36 +3113,36 @@
         <f>'gpu2'!E29</f>
         <v>73.142857142857096</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f>'gpu2'!E29</f>
         <v>73.142857142857096</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f>'gpu3'!E167</f>
         <v>74.857142857142804</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f>'gpu3'!E219</f>
         <v>71.428571428571402</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f>'gpu3'!E234</f>
         <v>70.857142857142804</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f>'gpu3'!E333</f>
         <v>70.857142857142804</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f>'p100'!E6</f>
         <v>87.428571428571402</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f>'p100'!E43</f>
         <v>82.857142857142804</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
         <f>'gpu3'!A24</f>
         <v>Beef</v>
@@ -2528,36 +3191,36 @@
         <f>'gpu2'!E108</f>
         <v>56.6666666666666</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f>'gpu2'!E41</f>
         <v>50</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f>'gpu3'!E168</f>
         <v>56.6666666666666</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f>'gpu3'!E220</f>
         <v>60</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f>'gpu3'!E235</f>
         <v>40</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f>'gpu3'!E334</f>
         <v>40</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f>'p100'!E7</f>
         <v>63.3333333333333</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f>'p100'!E44</f>
         <v>53.3333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
         <f>'gpu3'!A30</f>
         <v>BeetleFly</v>
@@ -2606,36 +3269,36 @@
         <f>'gpu2'!E109</f>
         <v>100</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f>'gpu2'!E53</f>
         <v>95</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <f>'gpu3'!E169</f>
         <v>100</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f>'gpu3'!E221</f>
         <v>95</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f>'gpu3'!E236</f>
         <v>90</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f>'gpu3'!E335</f>
         <v>90</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f>'p100'!E8</f>
         <v>85</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f>'p100'!E45</f>
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
         <f>'gpu3'!A36</f>
         <v>BirdChicken</v>
@@ -2684,36 +3347,36 @@
         <f>'gpu2'!E110</f>
         <v>75</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f>'gpu2'!E65</f>
         <v>80</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f>'gpu3'!E170</f>
         <v>75</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f>'gpu3'!E222</f>
         <v>80</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f>'gpu3'!E237</f>
         <v>80</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f>'gpu3'!E336</f>
         <v>80</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f>'p100'!E9</f>
         <v>90</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f>'p100'!E46</f>
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
         <f>'gpu3'!A45</f>
         <v>Car</v>
@@ -2758,36 +3421,36 @@
         <f>'gpu2'!E111</f>
         <v>63.3333333333333</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f>'gpu2'!E77</f>
         <v>58.3333333333333</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f>'gpu3'!E171</f>
         <v>63.3333333333333</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f>'gpu3'!E223</f>
         <v>43.3333333333333</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f>'gpu3'!E238</f>
         <v>70</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f>'gpu3'!E337</f>
         <v>70</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f>'p100'!E10</f>
         <v>60</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f>'p100'!E47</f>
         <v>83.3333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="str">
         <f>'gpu3'!A48</f>
         <v>CBF</v>
@@ -2832,36 +3495,36 @@
         <f>'gpu2'!E112</f>
         <v>99.5555555555555</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f>'gpu2'!E89</f>
         <v>99.2222222222222</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f>'gpu3'!E172</f>
         <v>99.5555555555555</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f>'gpu3'!E224</f>
         <v>99.4444444444444</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f>'gpu3'!E239</f>
         <v>99.5555555555555</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f>'gpu3'!E338</f>
         <v>99.5555555555555</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f>'p100'!E11</f>
         <v>99.7777777777777</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f>'p100'!E48</f>
         <v>99.3333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
         <f>'gpu3'!A57</f>
         <v>ChlorineConcentration</v>
@@ -2898,10 +3561,6 @@
         <f>'gpu2'!E113</f>
         <v>60.7552083333333</v>
       </c>
-      <c r="N11">
-        <f>'gpu2'!E101</f>
-        <v>55.8072916666666</v>
-      </c>
       <c r="O11">
         <f>'gpu2'!E101</f>
         <v>55.8072916666666</v>
@@ -2911,23 +3570,27 @@
         <v>55.8072916666666</v>
       </c>
       <c r="Q11">
+        <f>'gpu2'!E101</f>
+        <v>55.8072916666666</v>
+      </c>
+      <c r="R11">
         <f>'gpu3'!E240</f>
         <v>60.15625</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f>'gpu3'!E339</f>
         <v>60.15625</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f>'p100'!E12</f>
         <v>50.5729166666666</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f>'p100'!E49</f>
         <v>56.171875</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
         <f>'gpu3'!A60</f>
         <v>CinC_ECG_torso</v>
@@ -2960,16 +3623,16 @@
         <f>'gpu2'!E114</f>
         <v>54.492753623188399</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f>'p100'!E13</f>
         <v>72.971014492753596</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f>'p100'!E50</f>
         <v>65.434782608695599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
         <f>'gpu3'!A66</f>
         <v>Coffee</v>
@@ -3002,16 +3665,16 @@
         <f>'gpu2'!E115</f>
         <v>96.428571428571402</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f>'p100'!E14</f>
         <v>100</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f>'p100'!E51</f>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -3031,16 +3694,20 @@
         <f>'gpu2'!E116</f>
         <v>62.8</v>
       </c>
-      <c r="S14">
+      <c r="N14">
+        <f>'gpu3'!E462</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="T14">
         <f>'p100'!E15</f>
         <v>77.2</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f>'p100'!E52</f>
         <v>66.8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -3052,16 +3719,20 @@
         <f>'gpu2'!E117</f>
         <v>66.153846153846104</v>
       </c>
-      <c r="S15">
+      <c r="N15">
+        <f>'gpu3'!E463</f>
+        <v>66.6666666666666</v>
+      </c>
+      <c r="T15">
         <f>'p100'!E16</f>
         <v>74.358974358974294</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f>'p100'!E53</f>
         <v>73.846153846153797</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -3073,16 +3744,20 @@
         <f>'gpu2'!E118</f>
         <v>63.846153846153797</v>
       </c>
-      <c r="S16">
+      <c r="N16">
+        <f>'gpu3'!E464</f>
+        <v>60</v>
+      </c>
+      <c r="T16">
         <f>'p100'!E17</f>
         <v>75.897435897435898</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f>'p100'!E54</f>
         <v>67.692307692307693</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -3090,305 +3765,341 @@
         <f>'gpu2'!E119</f>
         <v>67.179487179487097</v>
       </c>
-      <c r="S17">
+      <c r="N17">
+        <f>'gpu3'!E465</f>
+        <v>68.205128205128204</v>
+      </c>
+      <c r="T17">
         <f>'p100'!E18</f>
         <v>73.076923076922995</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f>'p100'!E55</f>
         <v>68.717948717948701</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>97</v>
       </c>
-      <c r="S18">
+      <c r="N18">
+        <f>'gpu3'!E466</f>
+        <v>66.6666666666666</v>
+      </c>
+      <c r="T18">
         <f>'p100'!E19</f>
         <v>17.973856209150298</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f>'p100'!E56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>98</v>
       </c>
-      <c r="S19">
+      <c r="N19">
+        <f>'gpu3'!E467</f>
+        <v>79.75</v>
+      </c>
+      <c r="T19">
         <f>'p100'!E20</f>
         <v>79.75</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f>'p100'!E57</f>
         <v>74.75</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>99</v>
       </c>
-      <c r="S20">
+      <c r="N20">
+        <f>'gpu3'!E468</f>
+        <v>75.3333333333333</v>
+      </c>
+      <c r="T20">
         <f>'p100'!E21</f>
         <v>80.5</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f>'p100'!E58</f>
         <v>79.3333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>100</v>
       </c>
-      <c r="S21">
+      <c r="N21">
+        <f>'gpu3'!E469</f>
+        <v>74.25</v>
+      </c>
+      <c r="T21">
         <f>'p100'!E22</f>
         <v>77.75</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f>'p100'!E59</f>
         <v>76.5</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>101</v>
       </c>
       <c r="I22" t="s">
         <v>235</v>
       </c>
-      <c r="S22">
+      <c r="N22">
+        <f>'gpu3'!E470</f>
+        <v>75.776397515527904</v>
+      </c>
+      <c r="T22">
         <f>'p100'!E23</f>
         <v>69.254658385093094</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f>'p100'!E60</f>
         <v>67.391304347826093</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>102</v>
       </c>
-      <c r="S23">
+      <c r="N23">
+        <f>'gpu3'!E471</f>
+        <v>88</v>
+      </c>
+      <c r="T23">
         <f>'p100'!E24</f>
         <v>91</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f>'p100'!E61</f>
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>103</v>
       </c>
-      <c r="S24">
+      <c r="N24">
+        <f>'gpu3'!E472</f>
+        <v>94.288888888888806</v>
+      </c>
+      <c r="T24">
         <f>'p100'!E25</f>
         <v>93.955555555555506</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f>'p100'!E62</f>
         <v>93.266666666666595</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>104</v>
       </c>
-      <c r="S25">
+      <c r="N25">
+        <f>'gpu3'!E473</f>
+        <v>98.7224157955865</v>
+      </c>
+      <c r="T25">
         <f>'p100'!E26</f>
         <v>98.8385598141695</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f>'p100'!E63</f>
         <v>99.7677119628339</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>105</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <f>'p100'!E27</f>
         <v>69.407340163402907</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f>'p100'!E64</f>
         <v>60.147840746984798</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>106</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f>'p100'!E28</f>
         <v>80.946745562130104</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f>'p100'!E65</f>
         <v>79.763313609467403</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>107</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <f>'p100'!E29</f>
         <v>94.318181818181799</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f>'p100'!E66</f>
         <v>78.409090909090907</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>108</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <f>'p100'!E30</f>
         <v>93.707317073170699</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f>'p100'!E67</f>
         <v>91.414634146341399</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>109</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <f>'p100'!E31</f>
         <v>84.571428571428498</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <f>'p100'!E68</f>
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>110</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f>'p100'!E32</f>
         <v>86.114968064426506</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f>'p100'!E69</f>
         <v>83.587892252152102</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>111</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <f>'p100'!E33</f>
         <v>84.075907590759002</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f>'p100'!E70</f>
         <v>82.343234323432299</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>112</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <f>'p100'!E34</f>
         <v>94.6666666666666</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f>'p100'!E71</f>
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>113</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <f>'p100'!E35</f>
         <v>67.619047619047606</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <f>'p100'!E72</f>
         <v>71.428571428571402</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>127</v>
       </c>
@@ -3473,122 +4184,122 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="str">
         <f>'gpu3'!A81</f>
         <v>SwedishLeaf</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <f>'gpu3'!E81</f>
         <v>83.68</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="str">
         <f>'gpu3'!A80</f>
         <v>Symbols</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <f>'gpu3'!E80</f>
         <v>88.040201005025096</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="str">
         <f>'gpu3'!A79</f>
         <v>synthetic_control</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <f>'gpu3'!E79</f>
         <v>99.3333333333333</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="str">
         <f>'gpu3'!A78</f>
         <v>ToeSegmentation1</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <f>'gpu3'!E78</f>
         <v>94.298245614034997</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="str">
         <f>'gpu3'!A77</f>
         <v>ToeSegmentation2</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <f>'gpu3'!E77</f>
         <v>75.384615384615302</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="str">
         <f>'gpu3'!A84</f>
         <v>Wine</v>
@@ -3601,12 +4312,12 @@
         <f>'gpu3'!E89</f>
         <v>72.2222222222222</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <f>'gpu3'!E107</f>
         <v>79.629629629629605</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="str">
         <f>'gpu3'!A85</f>
         <v>WordsSynonyms</v>
@@ -3619,12 +4330,12 @@
         <f>'gpu3'!E90</f>
         <v>49.686520376175501</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <f>'gpu3'!E106</f>
         <v>52.5078369905956</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>157</v>
       </c>
@@ -3632,12 +4343,12 @@
         <f>'gpu3'!E123</f>
         <v>53.591160220994396</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <f>'gpu3'!E154</f>
         <v>43.093922651933703</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>158</v>
       </c>
@@ -3645,12 +4356,12 @@
         <f>'gpu3'!E124</f>
         <v>71.270718232044203</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <f>'gpu3'!E155</f>
         <v>74.033149171270694</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>159</v>
       </c>
@@ -3658,20 +4369,20 @@
         <f>'gpu3'!E125</f>
         <v>75.533333333333303</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <f>'gpu3'!E156</f>
         <v>76.3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A94:P98">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A94:Q98">
     <sortCondition ref="A94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D571190-9540-45BF-981E-76340F9D56B5}">
   <dimension ref="A1:AN4"/>
   <sheetViews>
@@ -3853,12 +4564,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB494C27-D3E5-405E-A38D-EBA7334189A1}">
-  <dimension ref="A1:AP137"/>
+  <dimension ref="A1:AP162"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5472,7 +6183,7 @@
         <v>84.910485933503793</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>59</v>
       </c>
@@ -5489,7 +6200,7 @@
         <v>80.571428571428498</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -5506,7 +6217,7 @@
         <v>86.6666666666666</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>61</v>
       </c>
@@ -5523,7 +6234,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>62</v>
       </c>
@@ -5540,7 +6251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>63</v>
       </c>
@@ -5557,7 +6268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>64</v>
       </c>
@@ -5574,7 +6285,7 @@
         <v>99.4444444444444</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>65</v>
       </c>
@@ -5591,7 +6302,7 @@
         <v>82.1875</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>66</v>
       </c>
@@ -5608,7 +6319,7 @@
         <v>83.913043478260803</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>67</v>
       </c>
@@ -5623,6 +6334,450 @@
       </c>
       <c r="E137">
         <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" t="s">
+        <v>231</v>
+      </c>
+      <c r="E143" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" t="s">
+        <v>345</v>
+      </c>
+      <c r="G143" t="s">
+        <v>23</v>
+      </c>
+      <c r="H143" t="s">
+        <v>24</v>
+      </c>
+      <c r="I143" t="s">
+        <v>25</v>
+      </c>
+      <c r="J143" t="s">
+        <v>26</v>
+      </c>
+      <c r="K143" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" t="s">
+        <v>347</v>
+      </c>
+      <c r="B144" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" t="s">
+        <v>257</v>
+      </c>
+      <c r="D144" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" t="s">
+        <v>258</v>
+      </c>
+      <c r="G144" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="s">
+        <v>349</v>
+      </c>
+      <c r="B145" t="s">
+        <v>260</v>
+      </c>
+      <c r="C145" t="s">
+        <v>261</v>
+      </c>
+      <c r="D145" t="s">
+        <v>262</v>
+      </c>
+      <c r="E145" t="s">
+        <v>33</v>
+      </c>
+      <c r="F145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G145" t="s">
+        <v>350</v>
+      </c>
+      <c r="H145" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="s">
+        <v>352</v>
+      </c>
+      <c r="B146" t="s">
+        <v>353</v>
+      </c>
+      <c r="C146" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" t="s">
+        <v>265</v>
+      </c>
+      <c r="F146" t="s">
+        <v>43</v>
+      </c>
+      <c r="G146" t="s">
+        <v>266</v>
+      </c>
+      <c r="H146" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" t="s">
+        <v>355</v>
+      </c>
+      <c r="B147" t="s">
+        <v>268</v>
+      </c>
+      <c r="C147" t="s">
+        <v>269</v>
+      </c>
+      <c r="D147" t="s">
+        <v>270</v>
+      </c>
+      <c r="E147" t="s">
+        <v>271</v>
+      </c>
+      <c r="F147" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" t="s">
+        <v>357</v>
+      </c>
+      <c r="B148" t="s">
+        <v>272</v>
+      </c>
+      <c r="C148" t="s">
+        <v>273</v>
+      </c>
+      <c r="D148" t="s">
+        <v>274</v>
+      </c>
+      <c r="E148" t="s">
+        <v>275</v>
+      </c>
+      <c r="F148" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" t="s">
+        <v>359</v>
+      </c>
+      <c r="B149" t="s">
+        <v>277</v>
+      </c>
+      <c r="C149" t="s">
+        <v>360</v>
+      </c>
+      <c r="D149" t="s">
+        <v>279</v>
+      </c>
+      <c r="E149" t="s">
+        <v>280</v>
+      </c>
+      <c r="F149" t="s">
+        <v>281</v>
+      </c>
+      <c r="G149" t="s">
+        <v>282</v>
+      </c>
+      <c r="H149" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="s">
+        <v>362</v>
+      </c>
+      <c r="B150" t="s">
+        <v>284</v>
+      </c>
+      <c r="C150" t="s">
+        <v>285</v>
+      </c>
+      <c r="D150" t="s">
+        <v>286</v>
+      </c>
+      <c r="E150" t="s">
+        <v>287</v>
+      </c>
+      <c r="F150" t="s">
+        <v>288</v>
+      </c>
+      <c r="G150" t="s">
+        <v>289</v>
+      </c>
+      <c r="H150" t="s">
+        <v>290</v>
+      </c>
+      <c r="I150" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="s">
+        <v>364</v>
+      </c>
+      <c r="B151" t="s">
+        <v>292</v>
+      </c>
+      <c r="C151" t="s">
+        <v>293</v>
+      </c>
+      <c r="D151" t="s">
+        <v>294</v>
+      </c>
+      <c r="E151" t="s">
+        <v>295</v>
+      </c>
+      <c r="F151" t="s">
+        <v>296</v>
+      </c>
+      <c r="G151" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="s">
+        <v>366</v>
+      </c>
+      <c r="B152" t="s">
+        <v>330</v>
+      </c>
+      <c r="C152" t="s">
+        <v>299</v>
+      </c>
+      <c r="D152" t="s">
+        <v>300</v>
+      </c>
+      <c r="E152" t="s">
+        <v>301</v>
+      </c>
+      <c r="F152" t="s">
+        <v>302</v>
+      </c>
+      <c r="G152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+      <c r="C153" t="s">
+        <v>306</v>
+      </c>
+      <c r="D153" t="s">
+        <v>307</v>
+      </c>
+      <c r="E153" t="s">
+        <v>308</v>
+      </c>
+      <c r="F153" t="s">
+        <v>309</v>
+      </c>
+      <c r="G153" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="s">
+        <v>73</v>
+      </c>
+      <c r="B155" t="s">
+        <v>52</v>
+      </c>
+      <c r="C155" t="s">
+        <v>53</v>
+      </c>
+      <c r="D155" t="s">
+        <v>54</v>
+      </c>
+      <c r="E155" t="s">
+        <v>55</v>
+      </c>
+      <c r="F155" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
+        <v>107</v>
+      </c>
+      <c r="B156">
+        <v>1.21167004108428E-2</v>
+      </c>
+      <c r="C156">
+        <v>100</v>
+      </c>
+      <c r="D156">
+        <v>0.33998528935692501</v>
+      </c>
+      <c r="E156">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="F156">
+        <v>902.81773328781105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" t="s">
+        <v>108</v>
+      </c>
+      <c r="B157">
+        <v>1.49033910036087E-2</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+      <c r="D157">
+        <v>0.29286477506160702</v>
+      </c>
+      <c r="E157">
+        <v>92.975609756097498</v>
+      </c>
+      <c r="F157">
+        <v>8383.3583843708002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
+        <v>109</v>
+      </c>
+      <c r="B158">
+        <v>0.47370579583304201</v>
+      </c>
+      <c r="C158">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="D158">
+        <v>1.2945707484654001</v>
+      </c>
+      <c r="E158">
+        <v>59.428571428571402</v>
+      </c>
+      <c r="F158">
+        <v>3224.6326465606599</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
+        <v>110</v>
+      </c>
+      <c r="B159">
+        <v>0.28882434991272998</v>
+      </c>
+      <c r="C159">
+        <v>88.787878787878697</v>
+      </c>
+      <c r="D159">
+        <v>0.37679580124640699</v>
+      </c>
+      <c r="E159">
+        <v>84.587614551513397</v>
+      </c>
+      <c r="F159">
+        <v>62886.737529992999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" t="s">
+        <v>111</v>
+      </c>
+      <c r="B160">
+        <v>0.45122430353988802</v>
+      </c>
+      <c r="C160">
+        <v>77.160493827160494</v>
+      </c>
+      <c r="D160">
+        <v>0.51055525143285496</v>
+      </c>
+      <c r="E160">
+        <v>77.722772277227705</v>
+      </c>
+      <c r="F160">
+        <v>49850.824925422603</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161">
+        <v>0.10948582887649499</v>
+      </c>
+      <c r="C161">
+        <v>96</v>
+      </c>
+      <c r="D161">
+        <v>0.29787520249684601</v>
+      </c>
+      <c r="E161">
+        <v>85.3333333333333</v>
+      </c>
+      <c r="F161">
+        <v>1048.8599536418899</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="s">
+        <v>113</v>
+      </c>
+      <c r="B162">
+        <v>0.106334785802648</v>
+      </c>
+      <c r="C162">
+        <v>98.165137614678898</v>
+      </c>
+      <c r="D162">
+        <v>0.62567229270934999</v>
+      </c>
+      <c r="E162">
+        <v>76.190476190476105</v>
+      </c>
+      <c r="F162">
+        <v>2307.3399050235698</v>
       </c>
     </row>
   </sheetData>
@@ -5630,12 +6785,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB4BAC0-5711-4815-AA2C-74B11E670551}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6245,7 +7400,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>343</v>
       </c>
@@ -6271,12 +7426,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -6296,7 +7451,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6316,7 +7471,7 @@
         <v>4280.9576525688099</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -6336,7 +7491,7 @@
         <v>28117.696531772599</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -6356,7 +7511,7 @@
         <v>4814.0373995304099</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -6374,6 +7529,849 @@
       </c>
       <c r="F39">
         <v>4267.4638450145703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>315</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>316</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" t="s">
+        <v>257</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>319</v>
+      </c>
+      <c r="B45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>314</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>353</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s">
+        <v>265</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" t="s">
+        <v>275</v>
+      </c>
+      <c r="G48" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>325</v>
+      </c>
+      <c r="B49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" t="s">
+        <v>326</v>
+      </c>
+      <c r="D49" t="s">
+        <v>279</v>
+      </c>
+      <c r="E49" t="s">
+        <v>280</v>
+      </c>
+      <c r="F49" t="s">
+        <v>281</v>
+      </c>
+      <c r="G49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>283</v>
+      </c>
+      <c r="B50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" t="s">
+        <v>287</v>
+      </c>
+      <c r="F50" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" t="s">
+        <v>289</v>
+      </c>
+      <c r="H50" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>327</v>
+      </c>
+      <c r="B51" t="s">
+        <v>292</v>
+      </c>
+      <c r="C51" t="s">
+        <v>293</v>
+      </c>
+      <c r="D51" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" t="s">
+        <v>295</v>
+      </c>
+      <c r="F51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>329</v>
+      </c>
+      <c r="B52" t="s">
+        <v>330</v>
+      </c>
+      <c r="C52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" t="s">
+        <v>300</v>
+      </c>
+      <c r="E52" t="s">
+        <v>301</v>
+      </c>
+      <c r="F52" t="s">
+        <v>302</v>
+      </c>
+      <c r="G52" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>332</v>
+      </c>
+      <c r="B53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D53" t="s">
+        <v>306</v>
+      </c>
+      <c r="E53" t="s">
+        <v>307</v>
+      </c>
+      <c r="F53" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" t="s">
+        <v>309</v>
+      </c>
+      <c r="H53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56">
+        <v>3.9761442746689003E-2</v>
+      </c>
+      <c r="C56">
+        <v>98.507462686567095</v>
+      </c>
+      <c r="D56">
+        <v>0.15565164322060601</v>
+      </c>
+      <c r="E56">
+        <v>94.557823129251702</v>
+      </c>
+      <c r="F56">
+        <v>6116.3665866851798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57">
+        <v>0.27755719407399398</v>
+      </c>
+      <c r="C57">
+        <v>92.533333333333303</v>
+      </c>
+      <c r="D57">
+        <v>0.42822000885009698</v>
+      </c>
+      <c r="E57">
+        <v>85.3333333333333</v>
+      </c>
+      <c r="F57">
+        <v>35191.678550004901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58">
+        <v>0.170057128866513</v>
+      </c>
+      <c r="C58">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="D58">
+        <v>0.491844661900254</v>
+      </c>
+      <c r="E58">
+        <v>75.4098360655737</v>
+      </c>
+      <c r="F58">
+        <v>17221.068518877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59">
+        <v>6.52388981410435E-2</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <v>0.51959508085904005</v>
+      </c>
+      <c r="E59">
+        <v>79.452054794520507</v>
+      </c>
+      <c r="F59">
+        <v>20201.283951520902</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60">
+        <v>5.8173327012495502E-2</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>0.23898354756044099</v>
+      </c>
+      <c r="E60">
+        <v>92.537313432835802</v>
+      </c>
+      <c r="F60">
+        <v>50380.643836736599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61">
+        <v>0.46347763538360598</v>
+      </c>
+      <c r="C61">
+        <v>76.6666666666666</v>
+      </c>
+      <c r="D61">
+        <v>0.78129863739013605</v>
+      </c>
+      <c r="E61">
+        <v>60</v>
+      </c>
+      <c r="F61">
+        <v>2615.2434394359502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="e">
+        <f>-fcnn.log</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>315</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>334</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" t="s">
+        <v>257</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
+        <v>258</v>
+      </c>
+      <c r="H67" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>319</v>
+      </c>
+      <c r="B68" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" t="s">
+        <v>262</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>314</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s">
+        <v>265</v>
+      </c>
+      <c r="G69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>337</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71" t="s">
+        <v>274</v>
+      </c>
+      <c r="F71" t="s">
+        <v>275</v>
+      </c>
+      <c r="G71" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>339</v>
+      </c>
+      <c r="B72" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" t="s">
+        <v>326</v>
+      </c>
+      <c r="D72" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" t="s">
+        <v>281</v>
+      </c>
+      <c r="G72" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" t="s">
+        <v>285</v>
+      </c>
+      <c r="E73" t="s">
+        <v>286</v>
+      </c>
+      <c r="F73" t="s">
+        <v>287</v>
+      </c>
+      <c r="G73" t="s">
+        <v>288</v>
+      </c>
+      <c r="H73" t="s">
+        <v>289</v>
+      </c>
+      <c r="I73" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>291</v>
+      </c>
+      <c r="B74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" t="s">
+        <v>294</v>
+      </c>
+      <c r="E74" t="s">
+        <v>295</v>
+      </c>
+      <c r="F74" t="s">
+        <v>296</v>
+      </c>
+      <c r="G74" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>341</v>
+      </c>
+      <c r="B75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" t="s">
+        <v>300</v>
+      </c>
+      <c r="E75" t="s">
+        <v>301</v>
+      </c>
+      <c r="F75" t="s">
+        <v>302</v>
+      </c>
+      <c r="G75" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" t="s">
+        <v>305</v>
+      </c>
+      <c r="D76" t="s">
+        <v>306</v>
+      </c>
+      <c r="E76" t="s">
+        <v>307</v>
+      </c>
+      <c r="F76" t="s">
+        <v>308</v>
+      </c>
+      <c r="G76" t="s">
+        <v>309</v>
+      </c>
+      <c r="H76" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79">
+        <v>4.4163981480384897E-3</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <v>0.13384296039103</v>
+      </c>
+      <c r="E79">
+        <v>95.918367346938695</v>
+      </c>
+      <c r="F79">
+        <v>4280.9576525688099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80">
+        <v>5.4362257798512698E-2</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <v>0.43035120312372799</v>
+      </c>
+      <c r="E80">
+        <v>89.066666666666606</v>
+      </c>
+      <c r="F80">
+        <v>28117.696531772599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81">
+        <v>4.3596070011456801E-2</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="D81">
+        <v>0.68265456840640204</v>
+      </c>
+      <c r="E81">
+        <v>70.491803278688494</v>
+      </c>
+      <c r="F81">
+        <v>4814.0373995304099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82">
+        <v>7.9881526742662703E-2</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <v>0.62935330116585497</v>
+      </c>
+      <c r="E82">
+        <v>80.821917808219098</v>
+      </c>
+      <c r="F82">
+        <v>4267.4638450145703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83">
+        <v>0.17161466858603699</v>
+      </c>
+      <c r="C83">
+        <v>98.181818181818102</v>
+      </c>
+      <c r="D83">
+        <v>0.37079796709739798</v>
+      </c>
+      <c r="E83">
+        <v>90.149253731343194</v>
+      </c>
+      <c r="F83">
+        <v>71498.6205353736</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84">
+        <v>0.54094808101654002</v>
+      </c>
+      <c r="C84">
+        <v>76.6666666666666</v>
+      </c>
+      <c r="D84">
+        <v>0.63414417902628495</v>
+      </c>
+      <c r="E84">
+        <v>65</v>
+      </c>
+      <c r="F84">
+        <v>5941.5437765121396</v>
       </c>
     </row>
   </sheetData>
@@ -6381,7 +8379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1274BA09-BD96-435E-A9A6-03CD9E173600}">
   <dimension ref="A1:L72"/>
   <sheetViews>
@@ -7609,12 +9607,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC8A15-5897-4C81-BEB9-7876A1902672}">
-  <dimension ref="A1:BW367"/>
+  <dimension ref="A1:BW473"/>
   <sheetViews>
-    <sheetView topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="E365" sqref="E365"/>
+    <sheetView topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="E462" sqref="E462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14690,6 +16688,2026 @@
         <v>11361.359750747601</v>
       </c>
     </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A371" t="s">
+        <v>17</v>
+      </c>
+      <c r="B371" t="s">
+        <v>18</v>
+      </c>
+      <c r="C371" t="s">
+        <v>19</v>
+      </c>
+      <c r="D371" t="s">
+        <v>20</v>
+      </c>
+      <c r="E371" t="s">
+        <v>21</v>
+      </c>
+      <c r="F371" t="s">
+        <v>367</v>
+      </c>
+      <c r="G371" t="s">
+        <v>23</v>
+      </c>
+      <c r="H371" t="s">
+        <v>24</v>
+      </c>
+      <c r="I371" t="s">
+        <v>25</v>
+      </c>
+      <c r="J371" t="s">
+        <v>26</v>
+      </c>
+      <c r="K371" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A372" t="s">
+        <v>347</v>
+      </c>
+      <c r="B372" t="s">
+        <v>81</v>
+      </c>
+      <c r="C372" t="s">
+        <v>257</v>
+      </c>
+      <c r="D372" t="s">
+        <v>29</v>
+      </c>
+      <c r="E372" t="s">
+        <v>30</v>
+      </c>
+      <c r="F372" t="s">
+        <v>258</v>
+      </c>
+      <c r="G372" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A373" t="s">
+        <v>349</v>
+      </c>
+      <c r="B373" t="s">
+        <v>260</v>
+      </c>
+      <c r="C373" t="s">
+        <v>261</v>
+      </c>
+      <c r="D373" t="s">
+        <v>262</v>
+      </c>
+      <c r="E373" t="s">
+        <v>33</v>
+      </c>
+      <c r="F373" t="s">
+        <v>35</v>
+      </c>
+      <c r="G373" t="s">
+        <v>350</v>
+      </c>
+      <c r="H373" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A374" t="s">
+        <v>352</v>
+      </c>
+      <c r="B374" t="s">
+        <v>264</v>
+      </c>
+      <c r="C374" t="s">
+        <v>40</v>
+      </c>
+      <c r="D374" t="s">
+        <v>41</v>
+      </c>
+      <c r="E374" t="s">
+        <v>265</v>
+      </c>
+      <c r="F374" t="s">
+        <v>43</v>
+      </c>
+      <c r="G374" t="s">
+        <v>266</v>
+      </c>
+      <c r="H374" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A375" t="s">
+        <v>369</v>
+      </c>
+      <c r="B375" t="s">
+        <v>268</v>
+      </c>
+      <c r="C375" t="s">
+        <v>269</v>
+      </c>
+      <c r="D375" t="s">
+        <v>270</v>
+      </c>
+      <c r="E375" t="s">
+        <v>271</v>
+      </c>
+      <c r="F375" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A376" t="s">
+        <v>371</v>
+      </c>
+      <c r="B376" t="s">
+        <v>272</v>
+      </c>
+      <c r="C376" t="s">
+        <v>273</v>
+      </c>
+      <c r="D376" t="s">
+        <v>274</v>
+      </c>
+      <c r="E376" t="s">
+        <v>275</v>
+      </c>
+      <c r="F376" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A377" t="s">
+        <v>373</v>
+      </c>
+      <c r="B377" t="s">
+        <v>277</v>
+      </c>
+      <c r="C377" t="s">
+        <v>360</v>
+      </c>
+      <c r="D377" t="s">
+        <v>279</v>
+      </c>
+      <c r="E377" t="s">
+        <v>280</v>
+      </c>
+      <c r="F377" t="s">
+        <v>281</v>
+      </c>
+      <c r="G377" t="s">
+        <v>282</v>
+      </c>
+      <c r="H377" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378" t="s">
+        <v>375</v>
+      </c>
+      <c r="B378" t="s">
+        <v>284</v>
+      </c>
+      <c r="C378" t="s">
+        <v>285</v>
+      </c>
+      <c r="D378" t="s">
+        <v>286</v>
+      </c>
+      <c r="E378" t="s">
+        <v>287</v>
+      </c>
+      <c r="F378" t="s">
+        <v>288</v>
+      </c>
+      <c r="G378" t="s">
+        <v>289</v>
+      </c>
+      <c r="H378" t="s">
+        <v>290</v>
+      </c>
+      <c r="I378" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A379" t="s">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>292</v>
+      </c>
+      <c r="C379" t="s">
+        <v>293</v>
+      </c>
+      <c r="D379" t="s">
+        <v>294</v>
+      </c>
+      <c r="E379" t="s">
+        <v>295</v>
+      </c>
+      <c r="F379" t="s">
+        <v>296</v>
+      </c>
+      <c r="G379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>298</v>
+      </c>
+      <c r="C380" t="s">
+        <v>299</v>
+      </c>
+      <c r="D380" t="s">
+        <v>300</v>
+      </c>
+      <c r="E380" t="s">
+        <v>301</v>
+      </c>
+      <c r="F380" t="s">
+        <v>302</v>
+      </c>
+      <c r="G380" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" t="s">
+        <v>304</v>
+      </c>
+      <c r="C381" t="s">
+        <v>305</v>
+      </c>
+      <c r="D381" t="s">
+        <v>306</v>
+      </c>
+      <c r="E381" t="s">
+        <v>307</v>
+      </c>
+      <c r="F381" t="s">
+        <v>308</v>
+      </c>
+      <c r="G381" t="s">
+        <v>309</v>
+      </c>
+      <c r="H381" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A382" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A383" t="s">
+        <v>73</v>
+      </c>
+      <c r="B383" t="s">
+        <v>52</v>
+      </c>
+      <c r="C383" t="s">
+        <v>53</v>
+      </c>
+      <c r="D383" t="s">
+        <v>54</v>
+      </c>
+      <c r="E383" t="s">
+        <v>55</v>
+      </c>
+      <c r="F383" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A384" t="s">
+        <v>107</v>
+      </c>
+      <c r="B384">
+        <v>4.1678239901860502E-2</v>
+      </c>
+      <c r="C384">
+        <v>100</v>
+      </c>
+      <c r="D384">
+        <v>0.35339089144359898</v>
+      </c>
+      <c r="E384">
+        <v>92.045454545454504</v>
+      </c>
+      <c r="F384">
+        <v>1223.55209732055</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A385" t="s">
+        <v>108</v>
+      </c>
+      <c r="B385">
+        <v>5.54969131946563E-3</v>
+      </c>
+      <c r="C385">
+        <v>100</v>
+      </c>
+      <c r="D385">
+        <v>0.284486005277168</v>
+      </c>
+      <c r="E385">
+        <v>92.390243902438996</v>
+      </c>
+      <c r="F385">
+        <v>9861.4590342044794</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A386" t="s">
+        <v>109</v>
+      </c>
+      <c r="B386">
+        <v>0.140314002037048</v>
+      </c>
+      <c r="C386">
+        <v>99.428571428571402</v>
+      </c>
+      <c r="D386">
+        <v>0.204700948170253</v>
+      </c>
+      <c r="E386">
+        <v>96.571428571428498</v>
+      </c>
+      <c r="F386">
+        <v>5165.7473273277201</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A387" t="s">
+        <v>110</v>
+      </c>
+      <c r="B387">
+        <v>0.205719153492739</v>
+      </c>
+      <c r="C387">
+        <v>92.121212121212096</v>
+      </c>
+      <c r="D387">
+        <v>0.219170050815025</v>
+      </c>
+      <c r="E387">
+        <v>91.113579561232996</v>
+      </c>
+      <c r="F387">
+        <v>94434.098687410296</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A390" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A391" t="s">
+        <v>17</v>
+      </c>
+      <c r="B391" t="s">
+        <v>18</v>
+      </c>
+      <c r="C391" t="s">
+        <v>19</v>
+      </c>
+      <c r="D391" t="s">
+        <v>20</v>
+      </c>
+      <c r="E391" t="s">
+        <v>21</v>
+      </c>
+      <c r="F391" t="s">
+        <v>255</v>
+      </c>
+      <c r="G391" t="s">
+        <v>23</v>
+      </c>
+      <c r="H391" t="s">
+        <v>24</v>
+      </c>
+      <c r="I391" t="s">
+        <v>25</v>
+      </c>
+      <c r="J391" t="s">
+        <v>26</v>
+      </c>
+      <c r="K391" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A392" t="s">
+        <v>347</v>
+      </c>
+      <c r="B392" t="s">
+        <v>81</v>
+      </c>
+      <c r="C392" t="s">
+        <v>257</v>
+      </c>
+      <c r="D392" t="s">
+        <v>29</v>
+      </c>
+      <c r="E392" t="s">
+        <v>30</v>
+      </c>
+      <c r="F392" t="s">
+        <v>258</v>
+      </c>
+      <c r="G392" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A393" t="s">
+        <v>349</v>
+      </c>
+      <c r="B393" t="s">
+        <v>260</v>
+      </c>
+      <c r="C393" t="s">
+        <v>261</v>
+      </c>
+      <c r="D393" t="s">
+        <v>262</v>
+      </c>
+      <c r="E393" t="s">
+        <v>33</v>
+      </c>
+      <c r="F393" t="s">
+        <v>35</v>
+      </c>
+      <c r="G393" t="s">
+        <v>263</v>
+      </c>
+      <c r="H393" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A394" t="s">
+        <v>352</v>
+      </c>
+      <c r="B394" t="s">
+        <v>264</v>
+      </c>
+      <c r="C394" t="s">
+        <v>40</v>
+      </c>
+      <c r="D394" t="s">
+        <v>41</v>
+      </c>
+      <c r="E394" t="s">
+        <v>265</v>
+      </c>
+      <c r="F394" t="s">
+        <v>43</v>
+      </c>
+      <c r="G394" t="s">
+        <v>266</v>
+      </c>
+      <c r="H394" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A395" t="s">
+        <v>369</v>
+      </c>
+      <c r="B395" t="s">
+        <v>268</v>
+      </c>
+      <c r="C395" t="s">
+        <v>269</v>
+      </c>
+      <c r="D395" t="s">
+        <v>270</v>
+      </c>
+      <c r="E395" t="s">
+        <v>271</v>
+      </c>
+      <c r="F395" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A396" t="s">
+        <v>371</v>
+      </c>
+      <c r="B396" t="s">
+        <v>272</v>
+      </c>
+      <c r="C396" t="s">
+        <v>273</v>
+      </c>
+      <c r="D396" t="s">
+        <v>274</v>
+      </c>
+      <c r="E396" t="s">
+        <v>275</v>
+      </c>
+      <c r="F396" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A397" t="s">
+        <v>373</v>
+      </c>
+      <c r="B397" t="s">
+        <v>277</v>
+      </c>
+      <c r="C397" t="s">
+        <v>278</v>
+      </c>
+      <c r="D397" t="s">
+        <v>279</v>
+      </c>
+      <c r="E397" t="s">
+        <v>280</v>
+      </c>
+      <c r="F397" t="s">
+        <v>281</v>
+      </c>
+      <c r="G397" t="s">
+        <v>282</v>
+      </c>
+      <c r="H397" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A398" t="s">
+        <v>375</v>
+      </c>
+      <c r="B398" t="s">
+        <v>284</v>
+      </c>
+      <c r="C398" t="s">
+        <v>285</v>
+      </c>
+      <c r="D398" t="s">
+        <v>286</v>
+      </c>
+      <c r="E398" t="s">
+        <v>287</v>
+      </c>
+      <c r="F398" t="s">
+        <v>288</v>
+      </c>
+      <c r="G398" t="s">
+        <v>289</v>
+      </c>
+      <c r="H398" t="s">
+        <v>290</v>
+      </c>
+      <c r="I398" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A399" t="s">
+        <v>377</v>
+      </c>
+      <c r="B399" t="s">
+        <v>292</v>
+      </c>
+      <c r="C399" t="s">
+        <v>293</v>
+      </c>
+      <c r="D399" t="s">
+        <v>294</v>
+      </c>
+      <c r="E399" t="s">
+        <v>295</v>
+      </c>
+      <c r="F399" t="s">
+        <v>296</v>
+      </c>
+      <c r="G399" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A400" t="s">
+        <v>379</v>
+      </c>
+      <c r="B400" t="s">
+        <v>298</v>
+      </c>
+      <c r="C400" t="s">
+        <v>299</v>
+      </c>
+      <c r="D400" t="s">
+        <v>300</v>
+      </c>
+      <c r="E400" t="s">
+        <v>301</v>
+      </c>
+      <c r="F400" t="s">
+        <v>302</v>
+      </c>
+      <c r="G400" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A401" t="s">
+        <v>381</v>
+      </c>
+      <c r="B401" t="s">
+        <v>304</v>
+      </c>
+      <c r="C401" t="s">
+        <v>305</v>
+      </c>
+      <c r="D401" t="s">
+        <v>306</v>
+      </c>
+      <c r="E401" t="s">
+        <v>307</v>
+      </c>
+      <c r="F401" t="s">
+        <v>308</v>
+      </c>
+      <c r="G401" t="s">
+        <v>309</v>
+      </c>
+      <c r="H401" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A402" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A403" t="s">
+        <v>73</v>
+      </c>
+      <c r="B403" t="s">
+        <v>52</v>
+      </c>
+      <c r="C403" t="s">
+        <v>53</v>
+      </c>
+      <c r="D403" t="s">
+        <v>54</v>
+      </c>
+      <c r="E403" t="s">
+        <v>55</v>
+      </c>
+      <c r="F403" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A404" t="s">
+        <v>93</v>
+      </c>
+      <c r="B404">
+        <v>0.17021882009506201</v>
+      </c>
+      <c r="C404">
+        <v>94.8</v>
+      </c>
+      <c r="D404">
+        <v>0.47205463790893498</v>
+      </c>
+      <c r="E404">
+        <v>84</v>
+      </c>
+      <c r="F404">
+        <v>12793.399927616099</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A405" t="s">
+        <v>94</v>
+      </c>
+      <c r="B405">
+        <v>1.1252047197941E-2</v>
+      </c>
+      <c r="C405">
+        <v>100</v>
+      </c>
+      <c r="D405">
+        <v>0.75064669083326196</v>
+      </c>
+      <c r="E405">
+        <v>77.435897435897402</v>
+      </c>
+      <c r="F405">
+        <v>11343.2988829612</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" t="s">
+        <v>95</v>
+      </c>
+      <c r="B406">
+        <v>1.91209041537382E-2</v>
+      </c>
+      <c r="C406">
+        <v>100</v>
+      </c>
+      <c r="D406">
+        <v>0.599682309077336</v>
+      </c>
+      <c r="E406">
+        <v>77.948717948717899</v>
+      </c>
+      <c r="F406">
+        <v>11361.359750747601</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A407" t="s">
+        <v>96</v>
+      </c>
+      <c r="B407">
+        <v>1.9317248310798198E-2</v>
+      </c>
+      <c r="C407">
+        <v>100</v>
+      </c>
+      <c r="D407">
+        <v>0.62462355356949995</v>
+      </c>
+      <c r="E407">
+        <v>78.461538461538396</v>
+      </c>
+      <c r="F407">
+        <v>11375.512082815099</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A408" t="s">
+        <v>97</v>
+      </c>
+      <c r="B408">
+        <v>2.4693995714187601E-2</v>
+      </c>
+      <c r="C408">
+        <v>100</v>
+      </c>
+      <c r="D408">
+        <v>0.24782592993156499</v>
+      </c>
+      <c r="E408">
+        <v>91.176470588235205</v>
+      </c>
+      <c r="F408">
+        <v>2413.72780227661</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A409" t="s">
+        <v>98</v>
+      </c>
+      <c r="B409">
+        <v>0.236274310153165</v>
+      </c>
+      <c r="C409">
+        <v>94.964028776978395</v>
+      </c>
+      <c r="D409">
+        <v>0.388732044398784</v>
+      </c>
+      <c r="E409">
+        <v>84.75</v>
+      </c>
+      <c r="F409">
+        <v>2476.4609763622202</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A410" t="s">
+        <v>99</v>
+      </c>
+      <c r="B410">
+        <v>0.34664952927741399</v>
+      </c>
+      <c r="C410">
+        <v>85.507246376811594</v>
+      </c>
+      <c r="D410">
+        <v>0.42850869059562602</v>
+      </c>
+      <c r="E410">
+        <v>81.1666666666666</v>
+      </c>
+      <c r="F410">
+        <v>4381.8328940868296</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A411" t="s">
+        <v>100</v>
+      </c>
+      <c r="B411">
+        <v>0.49470139921997902</v>
+      </c>
+      <c r="C411">
+        <v>84.8920863309352</v>
+      </c>
+      <c r="D411">
+        <v>0.51742002308368595</v>
+      </c>
+      <c r="E411">
+        <v>79.5</v>
+      </c>
+      <c r="F411">
+        <v>2475.9929261207499</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A412" t="s">
+        <v>101</v>
+      </c>
+      <c r="B412">
+        <v>7.3789796812071207E-2</v>
+      </c>
+      <c r="C412">
+        <v>100</v>
+      </c>
+      <c r="D412">
+        <v>0.54855967798958605</v>
+      </c>
+      <c r="E412">
+        <v>77.950310559006198</v>
+      </c>
+      <c r="F412">
+        <v>9435.2126441001892</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A413" t="s">
+        <v>102</v>
+      </c>
+      <c r="B413">
+        <v>2.2370759844779899E-2</v>
+      </c>
+      <c r="C413">
+        <v>100</v>
+      </c>
+      <c r="D413">
+        <v>0.33510474205016999</v>
+      </c>
+      <c r="E413">
+        <v>88</v>
+      </c>
+      <c r="F413">
+        <v>1525.1534202098801</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A414" t="s">
+        <v>103</v>
+      </c>
+      <c r="B414">
+        <v>5.2767364382743799E-2</v>
+      </c>
+      <c r="C414">
+        <v>98.2</v>
+      </c>
+      <c r="D414">
+        <v>0.29047248784701002</v>
+      </c>
+      <c r="E414">
+        <v>93.911111111111097</v>
+      </c>
+      <c r="F414">
+        <v>22471.015595436002</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A415" t="s">
+        <v>104</v>
+      </c>
+      <c r="B415">
+        <v>2.66831283983976E-2</v>
+      </c>
+      <c r="C415">
+        <v>100</v>
+      </c>
+      <c r="D415">
+        <v>0.133629341643307</v>
+      </c>
+      <c r="E415">
+        <v>97.677119628339099</v>
+      </c>
+      <c r="F415">
+        <v>3430.7620277404699</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A419" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A420" t="s">
+        <v>17</v>
+      </c>
+      <c r="B420" t="s">
+        <v>18</v>
+      </c>
+      <c r="C420" t="s">
+        <v>19</v>
+      </c>
+      <c r="D420" t="s">
+        <v>20</v>
+      </c>
+      <c r="E420" t="s">
+        <v>21</v>
+      </c>
+      <c r="F420" t="s">
+        <v>255</v>
+      </c>
+      <c r="G420" t="s">
+        <v>23</v>
+      </c>
+      <c r="H420" t="s">
+        <v>24</v>
+      </c>
+      <c r="I420" t="s">
+        <v>25</v>
+      </c>
+      <c r="J420" t="s">
+        <v>26</v>
+      </c>
+      <c r="K420" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A421" t="s">
+        <v>347</v>
+      </c>
+      <c r="B421" t="s">
+        <v>81</v>
+      </c>
+      <c r="C421" t="s">
+        <v>257</v>
+      </c>
+      <c r="D421" t="s">
+        <v>29</v>
+      </c>
+      <c r="E421" t="s">
+        <v>30</v>
+      </c>
+      <c r="F421" t="s">
+        <v>258</v>
+      </c>
+      <c r="G421" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A422" t="s">
+        <v>349</v>
+      </c>
+      <c r="B422" t="s">
+        <v>260</v>
+      </c>
+      <c r="C422" t="s">
+        <v>261</v>
+      </c>
+      <c r="D422" t="s">
+        <v>262</v>
+      </c>
+      <c r="E422" t="s">
+        <v>33</v>
+      </c>
+      <c r="F422" t="s">
+        <v>35</v>
+      </c>
+      <c r="G422" t="s">
+        <v>263</v>
+      </c>
+      <c r="H422" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A423" t="s">
+        <v>352</v>
+      </c>
+      <c r="B423" t="s">
+        <v>264</v>
+      </c>
+      <c r="C423" t="s">
+        <v>40</v>
+      </c>
+      <c r="D423" t="s">
+        <v>41</v>
+      </c>
+      <c r="E423" t="s">
+        <v>265</v>
+      </c>
+      <c r="F423" t="s">
+        <v>43</v>
+      </c>
+      <c r="G423" t="s">
+        <v>266</v>
+      </c>
+      <c r="H423" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A424" t="s">
+        <v>369</v>
+      </c>
+      <c r="B424" t="s">
+        <v>268</v>
+      </c>
+      <c r="C424" t="s">
+        <v>269</v>
+      </c>
+      <c r="D424" t="s">
+        <v>270</v>
+      </c>
+      <c r="E424" t="s">
+        <v>271</v>
+      </c>
+      <c r="F424" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A425" t="s">
+        <v>371</v>
+      </c>
+      <c r="B425" t="s">
+        <v>272</v>
+      </c>
+      <c r="C425" t="s">
+        <v>273</v>
+      </c>
+      <c r="D425" t="s">
+        <v>274</v>
+      </c>
+      <c r="E425" t="s">
+        <v>275</v>
+      </c>
+      <c r="F425" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A426" t="s">
+        <v>373</v>
+      </c>
+      <c r="B426" t="s">
+        <v>277</v>
+      </c>
+      <c r="C426" t="s">
+        <v>278</v>
+      </c>
+      <c r="D426" t="s">
+        <v>279</v>
+      </c>
+      <c r="E426" t="s">
+        <v>280</v>
+      </c>
+      <c r="F426" t="s">
+        <v>281</v>
+      </c>
+      <c r="G426" t="s">
+        <v>282</v>
+      </c>
+      <c r="H426" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A427" t="s">
+        <v>375</v>
+      </c>
+      <c r="B427" t="s">
+        <v>284</v>
+      </c>
+      <c r="C427" t="s">
+        <v>285</v>
+      </c>
+      <c r="D427" t="s">
+        <v>286</v>
+      </c>
+      <c r="E427" t="s">
+        <v>287</v>
+      </c>
+      <c r="F427" t="s">
+        <v>288</v>
+      </c>
+      <c r="G427" t="s">
+        <v>289</v>
+      </c>
+      <c r="H427" t="s">
+        <v>290</v>
+      </c>
+      <c r="I427" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A428" t="s">
+        <v>377</v>
+      </c>
+      <c r="B428" t="s">
+        <v>292</v>
+      </c>
+      <c r="C428" t="s">
+        <v>293</v>
+      </c>
+      <c r="D428" t="s">
+        <v>294</v>
+      </c>
+      <c r="E428" t="s">
+        <v>295</v>
+      </c>
+      <c r="F428" t="s">
+        <v>296</v>
+      </c>
+      <c r="G428" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A429" t="s">
+        <v>379</v>
+      </c>
+      <c r="B429" t="s">
+        <v>298</v>
+      </c>
+      <c r="C429" t="s">
+        <v>299</v>
+      </c>
+      <c r="D429" t="s">
+        <v>300</v>
+      </c>
+      <c r="E429" t="s">
+        <v>301</v>
+      </c>
+      <c r="F429" t="s">
+        <v>302</v>
+      </c>
+      <c r="G429" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A430" t="s">
+        <v>381</v>
+      </c>
+      <c r="B430" t="s">
+        <v>304</v>
+      </c>
+      <c r="C430" t="s">
+        <v>305</v>
+      </c>
+      <c r="D430" t="s">
+        <v>306</v>
+      </c>
+      <c r="E430" t="s">
+        <v>307</v>
+      </c>
+      <c r="F430" t="s">
+        <v>308</v>
+      </c>
+      <c r="G430" t="s">
+        <v>309</v>
+      </c>
+      <c r="H430" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A431" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A432" t="s">
+        <v>73</v>
+      </c>
+      <c r="B432" t="s">
+        <v>52</v>
+      </c>
+      <c r="C432" t="s">
+        <v>53</v>
+      </c>
+      <c r="D432" t="s">
+        <v>54</v>
+      </c>
+      <c r="E432" t="s">
+        <v>55</v>
+      </c>
+      <c r="F432" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A433" t="s">
+        <v>93</v>
+      </c>
+      <c r="B433">
+        <v>0.17021882009506201</v>
+      </c>
+      <c r="C433">
+        <v>94.8</v>
+      </c>
+      <c r="D433">
+        <v>0.47205463790893498</v>
+      </c>
+      <c r="E433">
+        <v>84</v>
+      </c>
+      <c r="F433">
+        <v>12793.399927616099</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A434" t="s">
+        <v>94</v>
+      </c>
+      <c r="B434">
+        <v>1.1252047197941E-2</v>
+      </c>
+      <c r="C434">
+        <v>100</v>
+      </c>
+      <c r="D434">
+        <v>0.75064669083326196</v>
+      </c>
+      <c r="E434">
+        <v>77.435897435897402</v>
+      </c>
+      <c r="F434">
+        <v>11343.2988829612</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A435" t="s">
+        <v>95</v>
+      </c>
+      <c r="B435">
+        <v>1.91209041537382E-2</v>
+      </c>
+      <c r="C435">
+        <v>100</v>
+      </c>
+      <c r="D435">
+        <v>0.599682309077336</v>
+      </c>
+      <c r="E435">
+        <v>77.948717948717899</v>
+      </c>
+      <c r="F435">
+        <v>11361.359750747601</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A436" t="s">
+        <v>96</v>
+      </c>
+      <c r="B436">
+        <v>1.9317248310798198E-2</v>
+      </c>
+      <c r="C436">
+        <v>100</v>
+      </c>
+      <c r="D436">
+        <v>0.62462355356949995</v>
+      </c>
+      <c r="E436">
+        <v>78.461538461538396</v>
+      </c>
+      <c r="F436">
+        <v>11375.512082815099</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A437" t="s">
+        <v>97</v>
+      </c>
+      <c r="B437">
+        <v>2.4693995714187601E-2</v>
+      </c>
+      <c r="C437">
+        <v>100</v>
+      </c>
+      <c r="D437">
+        <v>0.24782592993156499</v>
+      </c>
+      <c r="E437">
+        <v>91.176470588235205</v>
+      </c>
+      <c r="F437">
+        <v>2413.72780227661</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A438" t="s">
+        <v>98</v>
+      </c>
+      <c r="B438">
+        <v>0.236274310153165</v>
+      </c>
+      <c r="C438">
+        <v>94.964028776978395</v>
+      </c>
+      <c r="D438">
+        <v>0.388732044398784</v>
+      </c>
+      <c r="E438">
+        <v>84.75</v>
+      </c>
+      <c r="F438">
+        <v>2476.4609763622202</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A439" t="s">
+        <v>99</v>
+      </c>
+      <c r="B439">
+        <v>0.34664952927741399</v>
+      </c>
+      <c r="C439">
+        <v>85.507246376811594</v>
+      </c>
+      <c r="D439">
+        <v>0.42850869059562602</v>
+      </c>
+      <c r="E439">
+        <v>81.1666666666666</v>
+      </c>
+      <c r="F439">
+        <v>4381.8328940868296</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A440" t="s">
+        <v>100</v>
+      </c>
+      <c r="B440">
+        <v>0.49470139921997902</v>
+      </c>
+      <c r="C440">
+        <v>84.8920863309352</v>
+      </c>
+      <c r="D440">
+        <v>0.51742002308368595</v>
+      </c>
+      <c r="E440">
+        <v>79.5</v>
+      </c>
+      <c r="F440">
+        <v>2475.9929261207499</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A441" t="s">
+        <v>101</v>
+      </c>
+      <c r="B441">
+        <v>7.3789796812071207E-2</v>
+      </c>
+      <c r="C441">
+        <v>100</v>
+      </c>
+      <c r="D441">
+        <v>0.54855967798958605</v>
+      </c>
+      <c r="E441">
+        <v>77.950310559006198</v>
+      </c>
+      <c r="F441">
+        <v>9435.2126441001892</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A442" t="s">
+        <v>102</v>
+      </c>
+      <c r="B442">
+        <v>2.2370759844779899E-2</v>
+      </c>
+      <c r="C442">
+        <v>100</v>
+      </c>
+      <c r="D442">
+        <v>0.33510474205016999</v>
+      </c>
+      <c r="E442">
+        <v>88</v>
+      </c>
+      <c r="F442">
+        <v>1525.1534202098801</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A443" t="s">
+        <v>103</v>
+      </c>
+      <c r="B443">
+        <v>5.2767364382743799E-2</v>
+      </c>
+      <c r="C443">
+        <v>98.2</v>
+      </c>
+      <c r="D443">
+        <v>0.29047248784701002</v>
+      </c>
+      <c r="E443">
+        <v>93.911111111111097</v>
+      </c>
+      <c r="F443">
+        <v>22471.015595436002</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A444" t="s">
+        <v>104</v>
+      </c>
+      <c r="B444">
+        <v>2.66831283983976E-2</v>
+      </c>
+      <c r="C444">
+        <v>100</v>
+      </c>
+      <c r="D444">
+        <v>0.133629341643307</v>
+      </c>
+      <c r="E444">
+        <v>97.677119628339099</v>
+      </c>
+      <c r="F444">
+        <v>3430.7620277404699</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A448" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A449" t="s">
+        <v>17</v>
+      </c>
+      <c r="B449" t="s">
+        <v>18</v>
+      </c>
+      <c r="C449" t="s">
+        <v>19</v>
+      </c>
+      <c r="D449" t="s">
+        <v>20</v>
+      </c>
+      <c r="E449" t="s">
+        <v>21</v>
+      </c>
+      <c r="F449" t="s">
+        <v>383</v>
+      </c>
+      <c r="G449" t="s">
+        <v>23</v>
+      </c>
+      <c r="H449" t="s">
+        <v>24</v>
+      </c>
+      <c r="I449" t="s">
+        <v>25</v>
+      </c>
+      <c r="J449" t="s">
+        <v>26</v>
+      </c>
+      <c r="K449" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A450" t="s">
+        <v>347</v>
+      </c>
+      <c r="B450" t="s">
+        <v>81</v>
+      </c>
+      <c r="C450" t="s">
+        <v>257</v>
+      </c>
+      <c r="D450" t="s">
+        <v>29</v>
+      </c>
+      <c r="E450" t="s">
+        <v>30</v>
+      </c>
+      <c r="F450" t="s">
+        <v>258</v>
+      </c>
+      <c r="G450" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A451" t="s">
+        <v>349</v>
+      </c>
+      <c r="B451" t="s">
+        <v>260</v>
+      </c>
+      <c r="C451" t="s">
+        <v>261</v>
+      </c>
+      <c r="D451" t="s">
+        <v>262</v>
+      </c>
+      <c r="E451" t="s">
+        <v>33</v>
+      </c>
+      <c r="F451" t="s">
+        <v>35</v>
+      </c>
+      <c r="G451" t="s">
+        <v>263</v>
+      </c>
+      <c r="H451" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A452" t="s">
+        <v>352</v>
+      </c>
+      <c r="B452" t="s">
+        <v>353</v>
+      </c>
+      <c r="C452" t="s">
+        <v>40</v>
+      </c>
+      <c r="D452" t="s">
+        <v>41</v>
+      </c>
+      <c r="E452" t="s">
+        <v>265</v>
+      </c>
+      <c r="F452" t="s">
+        <v>43</v>
+      </c>
+      <c r="G452" t="s">
+        <v>266</v>
+      </c>
+      <c r="H452" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A453" t="s">
+        <v>355</v>
+      </c>
+      <c r="B453" t="s">
+        <v>268</v>
+      </c>
+      <c r="C453" t="s">
+        <v>269</v>
+      </c>
+      <c r="D453" t="s">
+        <v>270</v>
+      </c>
+      <c r="E453" t="s">
+        <v>271</v>
+      </c>
+      <c r="F453" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A454" t="s">
+        <v>357</v>
+      </c>
+      <c r="B454" t="s">
+        <v>272</v>
+      </c>
+      <c r="C454" t="s">
+        <v>273</v>
+      </c>
+      <c r="D454" t="s">
+        <v>274</v>
+      </c>
+      <c r="E454" t="s">
+        <v>275</v>
+      </c>
+      <c r="F454" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A455" t="s">
+        <v>359</v>
+      </c>
+      <c r="B455" t="s">
+        <v>277</v>
+      </c>
+      <c r="C455" t="s">
+        <v>278</v>
+      </c>
+      <c r="D455" t="s">
+        <v>279</v>
+      </c>
+      <c r="E455" t="s">
+        <v>280</v>
+      </c>
+      <c r="F455" t="s">
+        <v>281</v>
+      </c>
+      <c r="G455" t="s">
+        <v>282</v>
+      </c>
+      <c r="H455" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A456" t="s">
+        <v>362</v>
+      </c>
+      <c r="B456" t="s">
+        <v>284</v>
+      </c>
+      <c r="C456" t="s">
+        <v>285</v>
+      </c>
+      <c r="D456" t="s">
+        <v>286</v>
+      </c>
+      <c r="E456" t="s">
+        <v>287</v>
+      </c>
+      <c r="F456" t="s">
+        <v>288</v>
+      </c>
+      <c r="G456" t="s">
+        <v>289</v>
+      </c>
+      <c r="H456" t="s">
+        <v>290</v>
+      </c>
+      <c r="I456" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A457" t="s">
+        <v>364</v>
+      </c>
+      <c r="B457" t="s">
+        <v>292</v>
+      </c>
+      <c r="C457" t="s">
+        <v>293</v>
+      </c>
+      <c r="D457" t="s">
+        <v>294</v>
+      </c>
+      <c r="E457" t="s">
+        <v>295</v>
+      </c>
+      <c r="F457" t="s">
+        <v>296</v>
+      </c>
+      <c r="G457" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A458" t="s">
+        <v>366</v>
+      </c>
+      <c r="B458" t="s">
+        <v>330</v>
+      </c>
+      <c r="C458" t="s">
+        <v>299</v>
+      </c>
+      <c r="D458" t="s">
+        <v>300</v>
+      </c>
+      <c r="E458" t="s">
+        <v>301</v>
+      </c>
+      <c r="F458" t="s">
+        <v>302</v>
+      </c>
+      <c r="G458" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A459" t="s">
+        <v>304</v>
+      </c>
+      <c r="B459" t="s">
+        <v>305</v>
+      </c>
+      <c r="C459" t="s">
+        <v>306</v>
+      </c>
+      <c r="D459" t="s">
+        <v>307</v>
+      </c>
+      <c r="E459" t="s">
+        <v>308</v>
+      </c>
+      <c r="F459" t="s">
+        <v>309</v>
+      </c>
+      <c r="G459" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A460" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A461" t="s">
+        <v>73</v>
+      </c>
+      <c r="B461" t="s">
+        <v>52</v>
+      </c>
+      <c r="C461" t="s">
+        <v>53</v>
+      </c>
+      <c r="D461" t="s">
+        <v>54</v>
+      </c>
+      <c r="E461" t="s">
+        <v>55</v>
+      </c>
+      <c r="F461" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A462" t="s">
+        <v>93</v>
+      </c>
+      <c r="B462">
+        <v>0.42455623435974099</v>
+      </c>
+      <c r="C462">
+        <v>78.8</v>
+      </c>
+      <c r="D462">
+        <v>0.56140876388549799</v>
+      </c>
+      <c r="E462">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="F462">
+        <v>7630.1146566867801</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A463" t="s">
+        <v>94</v>
+      </c>
+      <c r="B463">
+        <v>0.22335431636908101</v>
+      </c>
+      <c r="C463">
+        <v>96.153846153846104</v>
+      </c>
+      <c r="D463">
+        <v>0.90623907431577999</v>
+      </c>
+      <c r="E463">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="F463">
+        <v>7795.2064054012299</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A464" t="s">
+        <v>95</v>
+      </c>
+      <c r="B464">
+        <v>0.50206561088561996</v>
+      </c>
+      <c r="C464">
+        <v>85.128205128205096</v>
+      </c>
+      <c r="D464">
+        <v>1.06872552480453</v>
+      </c>
+      <c r="E464">
+        <v>60</v>
+      </c>
+      <c r="F464">
+        <v>7373.0986478328696</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A465" t="s">
+        <v>96</v>
+      </c>
+      <c r="B465">
+        <v>0.44507317909827598</v>
+      </c>
+      <c r="C465">
+        <v>88.717948717948701</v>
+      </c>
+      <c r="D465">
+        <v>0.86346799654838302</v>
+      </c>
+      <c r="E465">
+        <v>68.205128205128204</v>
+      </c>
+      <c r="F465">
+        <v>7765.3431975841504</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A466" t="s">
+        <v>97</v>
+      </c>
+      <c r="B466">
+        <v>4.1489899158477696E-3</v>
+      </c>
+      <c r="C466">
+        <v>100</v>
+      </c>
+      <c r="D466">
+        <v>2.9144863973256001</v>
+      </c>
+      <c r="E466">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="F466">
+        <v>1191.39493632316</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A467" t="s">
+        <v>98</v>
+      </c>
+      <c r="B467">
+        <v>0.53179535076772499</v>
+      </c>
+      <c r="C467">
+        <v>74.820143884892005</v>
+      </c>
+      <c r="D467">
+        <v>0.49904928803443899</v>
+      </c>
+      <c r="E467">
+        <v>79.75</v>
+      </c>
+      <c r="F467">
+        <v>2118.1126980781501</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A468" t="s">
+        <v>99</v>
+      </c>
+      <c r="B468">
+        <v>0.50607946212740895</v>
+      </c>
+      <c r="C468">
+        <v>76.449275362318801</v>
+      </c>
+      <c r="D468">
+        <v>0.57081275224685601</v>
+      </c>
+      <c r="E468">
+        <v>75.3333333333333</v>
+      </c>
+      <c r="F468">
+        <v>3825.3396534919698</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A469" t="s">
+        <v>100</v>
+      </c>
+      <c r="B469">
+        <v>0.71445879490255404</v>
+      </c>
+      <c r="C469">
+        <v>71.223021582733793</v>
+      </c>
+      <c r="D469">
+        <v>0.67760660409927298</v>
+      </c>
+      <c r="E469">
+        <v>74.25</v>
+      </c>
+      <c r="F469">
+        <v>2114.93947768211</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A470" t="s">
+        <v>101</v>
+      </c>
+      <c r="B470">
+        <v>4.6658202469777699E-2</v>
+      </c>
+      <c r="C470">
+        <v>100</v>
+      </c>
+      <c r="D470">
+        <v>0.61952778678503095</v>
+      </c>
+      <c r="E470">
+        <v>75.776397515527904</v>
+      </c>
+      <c r="F470">
+        <v>9951.6520264148694</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A471" t="s">
+        <v>102</v>
+      </c>
+      <c r="B471">
+        <v>0.118793870210647</v>
+      </c>
+      <c r="C471">
+        <v>98</v>
+      </c>
+      <c r="D471">
+        <v>0.31449222207069399</v>
+      </c>
+      <c r="E471">
+        <v>88</v>
+      </c>
+      <c r="F471">
+        <v>1401.67712211608</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A472" t="s">
+        <v>103</v>
+      </c>
+      <c r="B472">
+        <v>6.4777758717536896E-2</v>
+      </c>
+      <c r="C472">
+        <v>97.8</v>
+      </c>
+      <c r="D472">
+        <v>0.259347943842411</v>
+      </c>
+      <c r="E472">
+        <v>94.288888888888806</v>
+      </c>
+      <c r="F472">
+        <v>15940.236242532699</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A473" t="s">
+        <v>104</v>
+      </c>
+      <c r="B473">
+        <v>1.62293340848839E-2</v>
+      </c>
+      <c r="C473">
+        <v>100</v>
+      </c>
+      <c r="D473">
+        <v>0.106445676704455</v>
+      </c>
+      <c r="E473">
+        <v>98.7224157955865</v>
+      </c>
+      <c r="F473">
+        <v>2508.4689853191298</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A135:F141">
     <sortCondition ref="A135"/>
@@ -14703,7 +18721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEE2090-E0BD-4F84-B877-D58086A9F27D}">
   <dimension ref="A1:AP25"/>
   <sheetViews>

--- a/results/time-series-100-99-percent-energy-preserved.xlsx
+++ b/results/time-series-100-99-percent-energy-preserved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\time-series-machine-leaning\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB318B0E-E94B-4B4C-BC2D-1287756104AF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FE35CB-D5EA-4B72-ACE8-BEAB658147B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8412" xr2:uid="{99A84B33-02FC-4241-9637-4ED1B9116C8D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3996" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="690">
   <si>
     <t>Dataset</t>
   </si>
@@ -2052,6 +2052,66 @@
   </si>
   <si>
     <t>2018-11-24-13-45-08-374716-ucr-fcnn.log                              2018-11-24-13-45-08-375171-dataset-Computers-preserve-energy-90.log</t>
+  </si>
+  <si>
+    <t>2018-11-27-08-44-58-962873</t>
+  </si>
+  <si>
+    <t>epochs:2000</t>
+  </si>
+  <si>
+    <t>learning_rate:0.001</t>
+  </si>
+  <si>
+    <t>weight_decay:0</t>
+  </si>
+  <si>
+    <t>loss_reduction:LossReduction.ELEMENTWISE_MEAN</t>
+  </si>
+  <si>
+    <t>workers:6</t>
+  </si>
+  <si>
+    <t>conv_type:ConvType.STANDARD</t>
+  </si>
+  <si>
+    <t>is_dev_dataset:False</t>
+  </si>
+  <si>
+    <t>dev_percent:100</t>
+  </si>
+  <si>
+    <t>adam_beta1:0.9</t>
+  </si>
+  <si>
+    <t>adam_beta2:0.999</t>
+  </si>
+  <si>
+    <t>parsed_args:Namespace(adam_beta1=0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adam_beta2=0.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> compress_type='STANDARD'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dev_percent=100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> epochs=2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> learning_rate=0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> loss_reduction='ELEMENTWISE_MEAN'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> weight_decay=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> workers=6)</t>
   </si>
 </sst>
 </file>
@@ -3980,8 +4040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175C4BF1-3807-41C7-9FD0-915C0522E87E}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8963,10 +9023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC8A15-5897-4C81-BEB9-7876A1902672}">
-  <dimension ref="A1:BW834"/>
+  <dimension ref="A1:CE840"/>
   <sheetViews>
-    <sheetView topLeftCell="A812" workbookViewId="0">
-      <selection activeCell="E823" sqref="E823"/>
+    <sheetView topLeftCell="A824" workbookViewId="0">
+      <selection activeCell="A844" sqref="A844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22578,7 +22638,7 @@
         <v>116085.394322872</v>
       </c>
     </row>
-    <row r="833" spans="1:6">
+    <row r="833" spans="1:83">
       <c r="A833" t="s">
         <v>106</v>
       </c>
@@ -22598,9 +22658,317 @@
         <v>13041.1693787574</v>
       </c>
     </row>
-    <row r="834" spans="1:6">
+    <row r="834" spans="1:83">
       <c r="A834" t="s">
         <v>606</v>
+      </c>
+    </row>
+    <row r="837" spans="1:83">
+      <c r="A837" t="s">
+        <v>17</v>
+      </c>
+      <c r="B837" t="s">
+        <v>18</v>
+      </c>
+      <c r="C837" t="s">
+        <v>19</v>
+      </c>
+      <c r="D837" t="s">
+        <v>20</v>
+      </c>
+      <c r="E837" t="s">
+        <v>21</v>
+      </c>
+      <c r="F837" t="s">
+        <v>670</v>
+      </c>
+      <c r="G837" t="s">
+        <v>23</v>
+      </c>
+      <c r="H837" t="s">
+        <v>24</v>
+      </c>
+      <c r="I837" t="s">
+        <v>671</v>
+      </c>
+      <c r="J837" t="s">
+        <v>672</v>
+      </c>
+      <c r="K837" t="s">
+        <v>673</v>
+      </c>
+      <c r="L837" t="s">
+        <v>81</v>
+      </c>
+      <c r="M837" t="s">
+        <v>257</v>
+      </c>
+      <c r="N837" t="s">
+        <v>29</v>
+      </c>
+      <c r="O837" t="s">
+        <v>30</v>
+      </c>
+      <c r="P837" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q837" t="s">
+        <v>259</v>
+      </c>
+      <c r="R837" t="s">
+        <v>611</v>
+      </c>
+      <c r="S837" t="s">
+        <v>674</v>
+      </c>
+      <c r="T837" t="s">
+        <v>262</v>
+      </c>
+      <c r="U837" t="s">
+        <v>675</v>
+      </c>
+      <c r="V837" t="s">
+        <v>35</v>
+      </c>
+      <c r="W837" t="s">
+        <v>614</v>
+      </c>
+      <c r="X837" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y837" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z837" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA837" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB837" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC837" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD837" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE837" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF837" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG837" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH837" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI837" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ837" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK837" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL837" t="s">
+        <v>618</v>
+      </c>
+      <c r="AM837" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN837" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO837" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP837" t="s">
+        <v>678</v>
+      </c>
+      <c r="AQ837" t="s">
+        <v>679</v>
+      </c>
+      <c r="AR837" t="s">
+        <v>680</v>
+      </c>
+      <c r="AS837" t="s">
+        <v>681</v>
+      </c>
+      <c r="AT837" t="s">
+        <v>682</v>
+      </c>
+      <c r="AU837" t="s">
+        <v>683</v>
+      </c>
+      <c r="AV837" t="s">
+        <v>622</v>
+      </c>
+      <c r="AW837" t="s">
+        <v>623</v>
+      </c>
+      <c r="AX837" t="s">
+        <v>684</v>
+      </c>
+      <c r="AY837" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ837" t="s">
+        <v>685</v>
+      </c>
+      <c r="BA837" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB837" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC837" t="s">
+        <v>283</v>
+      </c>
+      <c r="BD837" t="s">
+        <v>627</v>
+      </c>
+      <c r="BE837" t="s">
+        <v>284</v>
+      </c>
+      <c r="BF837" t="s">
+        <v>686</v>
+      </c>
+      <c r="BG837" t="s">
+        <v>285</v>
+      </c>
+      <c r="BH837" t="s">
+        <v>687</v>
+      </c>
+      <c r="BI837" t="s">
+        <v>630</v>
+      </c>
+      <c r="BJ837" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK837" t="s">
+        <v>631</v>
+      </c>
+      <c r="BL837" t="s">
+        <v>291</v>
+      </c>
+      <c r="BM837" t="s">
+        <v>292</v>
+      </c>
+      <c r="BN837" t="s">
+        <v>293</v>
+      </c>
+      <c r="BO837" t="s">
+        <v>294</v>
+      </c>
+      <c r="BP837" t="s">
+        <v>295</v>
+      </c>
+      <c r="BQ837" t="s">
+        <v>296</v>
+      </c>
+      <c r="BR837" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS837" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT837" t="s">
+        <v>299</v>
+      </c>
+      <c r="BU837" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV837" t="s">
+        <v>301</v>
+      </c>
+      <c r="BW837" t="s">
+        <v>302</v>
+      </c>
+      <c r="BX837" t="s">
+        <v>303</v>
+      </c>
+      <c r="BY837" t="s">
+        <v>304</v>
+      </c>
+      <c r="BZ837" t="s">
+        <v>305</v>
+      </c>
+      <c r="CA837" t="s">
+        <v>306</v>
+      </c>
+      <c r="CB837" t="s">
+        <v>307</v>
+      </c>
+      <c r="CC837" t="s">
+        <v>688</v>
+      </c>
+      <c r="CD837" t="s">
+        <v>689</v>
+      </c>
+      <c r="CE837" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="838" spans="1:83">
+      <c r="A838" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="839" spans="1:83">
+      <c r="A839" t="s">
+        <v>73</v>
+      </c>
+      <c r="B839" t="s">
+        <v>52</v>
+      </c>
+      <c r="C839" t="s">
+        <v>53</v>
+      </c>
+      <c r="D839" t="s">
+        <v>636</v>
+      </c>
+      <c r="E839" t="s">
+        <v>637</v>
+      </c>
+      <c r="F839" t="s">
+        <v>54</v>
+      </c>
+      <c r="G839" t="s">
+        <v>55</v>
+      </c>
+      <c r="H839" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="840" spans="1:83">
+      <c r="A840" t="s">
+        <v>57</v>
+      </c>
+      <c r="B840">
+        <v>2.0883617591526699E-2</v>
+      </c>
+      <c r="C840">
+        <v>94.4444444444444</v>
+      </c>
+      <c r="D840" t="s">
+        <v>638</v>
+      </c>
+      <c r="E840" t="s">
+        <v>638</v>
+      </c>
+      <c r="F840">
+        <v>8.3984635033450203E-2</v>
+      </c>
+      <c r="G840">
+        <v>63.736263736263702</v>
+      </c>
+      <c r="H840">
+        <v>2437.5520927906</v>
       </c>
     </row>
   </sheetData>

--- a/results/time-series-100-99-percent-energy-preserved.xlsx
+++ b/results/time-series-100-99-percent-energy-preserved.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\time-series-machine-leaning\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FE35CB-D5EA-4B72-ACE8-BEAB658147B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3AA84D-14D4-468B-A9DD-30905447CAD4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8412" xr2:uid="{99A84B33-02FC-4241-9637-4ED1B9116C8D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8412" activeTab="1" xr2:uid="{99A84B33-02FC-4241-9637-4ED1B9116C8D}"/>
   </bookViews>
   <sheets>
     <sheet name="100-90" sheetId="7" r:id="rId1"/>
-    <sheet name="results" sheetId="1" r:id="rId2"/>
-    <sheet name="gpu3" sheetId="2" r:id="rId3"/>
-    <sheet name="fcn-github" sheetId="12" r:id="rId4"/>
-    <sheet name="gpu2HandOutlines" sheetId="11" r:id="rId5"/>
-    <sheet name="athena" sheetId="10" r:id="rId6"/>
-    <sheet name="mnist" sheetId="8" r:id="rId7"/>
+    <sheet name="graph" sheetId="13" r:id="rId2"/>
+    <sheet name="results" sheetId="1" r:id="rId3"/>
+    <sheet name="gpu3" sheetId="2" r:id="rId4"/>
+    <sheet name="fcn-github" sheetId="12" r:id="rId5"/>
+    <sheet name="gpu2HandOutlines" sheetId="11" r:id="rId6"/>
+    <sheet name="athena" sheetId="10" r:id="rId7"/>
     <sheet name="gpu2" sheetId="6" r:id="rId8"/>
     <sheet name="skr-compute1" sheetId="9" r:id="rId9"/>
     <sheet name="p100" sheetId="5" r:id="rId10"/>
     <sheet name="50wordsGPU3" sheetId="3" r:id="rId11"/>
+    <sheet name="mnist" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4608" uniqueCount="703">
   <si>
     <t>Dataset</t>
   </si>
@@ -2112,6 +2113,45 @@
   </si>
   <si>
     <t xml:space="preserve"> workers=6)</t>
+  </si>
+  <si>
+    <t>ady@skr-compute1:~/code/time-series-ml-experiments/time-series-ml/cnns/nnlib/pytorch_experiments/results$ cat 2018-11-25-00-11-19-843173-ucr-fcnn.log</t>
+  </si>
+  <si>
+    <t>dataset:debug2</t>
+  </si>
+  <si>
+    <t>ady@skr-compute1:~/code/time-series-ml-experiments/time-series-ml/cnns/nnlib/pytorch_experiments/results$ cat 2018-11-25-00-10-59-444233-ucr-fcnn.log</t>
+  </si>
+  <si>
+    <t>2018-11-27-09-32-26-326577</t>
+  </si>
+  <si>
+    <t>FCN 2000 epoch</t>
+  </si>
+  <si>
+    <t>ady@gpu3:~/code/time-series-ml/cnns/nnlib/pytorch_experiments/results$ cat 2018-11-27-09-25-47-719621-ucr-fcnn.log</t>
+  </si>
+  <si>
+    <t>2018-11-27-09-25-47-719804</t>
+  </si>
+  <si>
+    <t>dataset:debug6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dataset='debug6'</t>
+  </si>
+  <si>
+    <t>2018-11-27-09-31-36-578299</t>
+  </si>
+  <si>
+    <t>dataset:debug5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dataset='debug5'</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -3144,7 +3184,3039 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>preserve energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>graph!$C$2:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.626373626373592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.946291560102253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.246376811594203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.435897435897402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.948717948717899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.461538461538396</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.176470588235205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.1666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77.950310559006198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.911111111111097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97.677119628339099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75.204253663597399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.899408284023593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92.045454545454504</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.390243902438996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.113579561232996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95.918367346938695</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>89.066666666666606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.491803278688494</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80.821917808219098</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90.149253731343194</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.157894736842096</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62.907268170426001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92.971246006389705</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93.859649122806999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91.538461538461505</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.351097178683297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>graph!$D$2:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.780219780219724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.035805626598421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.228571428571371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.466666666666612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.546874999999957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.492753623188399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.410256410256352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.923076923076898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.692307692307651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.776397515527904</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.288888888888806</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.7224157955865</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.049928673323805</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77.869822485207095</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.975609756097498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84.587614551513397</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>94.557823129251702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75.4098360655737</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79.452054794520507</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>92.537313432835802</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>73.552631578947299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64.661654135338296</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89.776357827476005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94.298245614034997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75.384615384615302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79.629629629629605</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.5078369905956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08AB-4C25-9EAA-603050570D00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="651999056"/>
+        <c:axId val="644201456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="651999056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644201456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="644201456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651999056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>graph!$C$1:$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>preserve energy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.62637363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.94629156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.42857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.66666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.11111111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.83333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77.24637681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.43589744</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77.94871795</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.46153846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91.17647059</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.16666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.95031056</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93.91111111</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.67711963</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75.20425366</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92.89940828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.04545455</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.3902439</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96.57142857</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91.11357956</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>95.91836735</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89.06666667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70.49180328</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80.82191781</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90.14925373</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78.15789474</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58.66666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62.90726817</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92.97124601</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>93.85964912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>91.53846154</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>66.66666667</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52.35109718</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>graph!$D$1:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.780219780219724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.035805626598421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.228571428571371</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.466666666666612</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.546874999999957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.492753623188399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.410256410256352</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.923076923076898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.692307692307651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75.776397515527904</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94.288888888888806</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98.7224157955865</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.049928673323805</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>77.869822485207095</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.975609756097498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>84.587614551513397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94.557823129251702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.4098360655737</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79.452054794520507</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92.537313432835802</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73.552631578947299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64.661654135338296</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89.776357827476005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94.298245614034997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75.384615384615302</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>79.629629629629605</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>52.5078369905956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D313-4F00-92F8-3B836D7DF97A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="639958640"/>
+        <c:axId val="881153296"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>graph!$C$1:$C$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="47"/>
+                      <c:pt idx="0">
+                        <c:v>preserve energy</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>63.62637363</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80.94629156</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>83.42857143</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>91.66666667</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>99.11111111</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>70.83333333</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>77.24637681</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>77.43589744</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>77.94871795</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>78.46153846</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>91.17647059</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>84.75</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>81.16666667</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>79.5</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>77.95031056</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>93.91111111</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>97.67711963</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>75.20425366</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>92.89940828</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>92.04545455</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>92.3902439</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>96.57142857</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>91.11357956</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>95.91836735</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>89.06666667</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>70.49180328</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>80.82191781</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>90.14925373</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>78.15789474</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>77.75</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>58.66666667</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>62.90726817</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>92.97124601</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>93.85964912</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>91.53846154</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>66.66666667</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>52.35109718</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>graph!$F$1:$F$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="47"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.4444444444444446</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.666666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.8888888888888893</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11.111111111111111</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13.333333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15.555555555555555</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>17.777777777777779</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22.222222222222221</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>24.444444444444443</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>26.666666666666668</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>28.888888888888886</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>31.111111111111111</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>33.333333333333329</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>35.555555555555557</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>37.777777777777779</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>42.222222222222221</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44.444444444444443</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>46.666666666666664</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>48.888888888888886</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>51.111111111111107</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>53.333333333333336</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>55.555555555555557</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>57.777777777777771</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>62.222222222222221</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>64.444444444444443</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>66.666666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>68.888888888888886</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>71.111111111111114</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>73.333333333333329</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>75.555555555555557</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>77.777777777777786</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>82.222222222222214</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>84.444444444444443</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>86.666666666666671</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>88.888888888888886</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>91.111111111111114</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>93.333333333333329</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>95.555555555555557</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>97.777777777777771</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-D313-4F00-92F8-3B836D7DF97A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>graph!$C$1:$C$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="47"/>
+                      <c:pt idx="0">
+                        <c:v>preserve energy</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>63.62637363</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80.94629156</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>83.42857143</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>91.66666667</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>99.11111111</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>70.83333333</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>77.24637681</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>77.43589744</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>77.94871795</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>78.46153846</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>91.17647059</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>84.75</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>81.16666667</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>79.5</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>77.95031056</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>93.91111111</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>97.67711963</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>75.20425366</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>92.89940828</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>92.04545455</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>92.3902439</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>96.57142857</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>91.11357956</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>95.91836735</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>89.06666667</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>70.49180328</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>80.82191781</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>90.14925373</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>78.15789474</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>77.75</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>58.66666667</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>62.90726817</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>92.97124601</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>93.85964912</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>91.53846154</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>66.66666667</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>52.35109718</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>graph!$G$1:$G$47</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="47"/>
+                      <c:pt idx="0">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.4444444444444446</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.666666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.8888888888888893</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11.111111111111111</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>13.333333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15.555555555555555</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>17.777777777777779</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22.222222222222221</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>24.444444444444443</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>26.666666666666668</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>28.888888888888886</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>31.111111111111111</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>33.333333333333329</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>35.555555555555557</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>37.777777777777779</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>42.222222222222221</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>44.444444444444443</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>46.666666666666664</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>48.888888888888886</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>51.111111111111107</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>53.333333333333336</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>55.555555555555557</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>57.777777777777771</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>62.222222222222221</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>64.444444444444443</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>66.666666666666657</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>68.888888888888886</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>71.111111111111114</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>73.333333333333329</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>75.555555555555557</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>77.777777777777786</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>82.222222222222214</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>84.444444444444443</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>86.666666666666671</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>88.888888888888886</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>91.111111111111114</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>93.333333333333329</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>95.555555555555557</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>97.777777777777771</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D313-4F00-92F8-3B836D7DF97A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="639958640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="881153296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="881153296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="639958640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Compare accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> between </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>100% vs 90% energy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> preserved </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>for Conv FFT 1D on 45 UCR datasets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>preserve energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>graph!$C$2:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.626373626373592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.946291560102253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.246376811594203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.435897435897402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.948717948717899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.461538461538396</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.176470588235205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.1666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77.950310559006198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.911111111111097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97.677119628339099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75.204253663597399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.899408284023593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92.045454545454504</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.390243902438996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.113579561232996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95.918367346938695</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>89.066666666666606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.491803278688494</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80.821917808219098</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90.149253731343194</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.157894736842096</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62.907268170426001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92.971246006389705</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93.859649122806999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91.538461538461505</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.351097178683297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>graph!$D$2:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.780219780219724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.035805626598421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.228571428571371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.333333333333321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.466666666666612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.546874999999957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.492753623188399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.410256410256352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.923076923076898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.692307692307651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.776397515527904</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.288888888888806</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.7224157955865</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.049928673323805</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77.869822485207095</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.975609756097498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84.587614551513397</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>94.557823129251702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75.4098360655737</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79.452054794520507</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>92.537313432835802</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>73.552631578947299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64.661654135338296</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89.776357827476005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94.298245614034997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75.384615384615302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79.629629629629605</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.5078369905956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6898-4EED-838E-DD21390A628E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>graph!$C$2:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.626373626373592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.946291560102253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.246376811594203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.435897435897402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.948717948717899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.461538461538396</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.176470588235205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.1666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77.950310559006198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.911111111111097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97.677119628339099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75.204253663597399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.899408284023593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92.045454545454504</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.390243902438996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.113579561232996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95.918367346938695</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>89.066666666666606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.491803278688494</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80.821917808219098</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90.149253731343194</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.157894736842096</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62.907268170426001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92.971246006389705</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93.859649122806999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91.538461538461505</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.351097178683297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>graph!$H$2:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="1">
+                  <c:v>63.626373626373592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.946291560102253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.246376811594203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.435897435897402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.948717948717899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.461538461538396</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.176470588235205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.1666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77.950310559006198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.911111111111097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97.677119628339099</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75.204253663597399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.899408284023593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92.045454545454504</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.390243902438996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91.113579561232996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95.918367346938695</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>89.066666666666606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.491803278688494</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80.821917808219098</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90.149253731343194</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.157894736842096</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62.907268170426001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92.971246006389705</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93.859649122806999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91.538461538461505</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.351097178683297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6898-4EED-838E-DD21390A628E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="885812976"/>
+        <c:axId val="881177008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="885812976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>100% energy preserved</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="881177008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="881177008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>90% energy preserved</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="885812976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3700,6 +6772,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3733,6 +8353,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B03CC67-4C38-40AB-A594-BFD4C882034D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F503CDBF-5562-461A-97E8-78694420CD45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13364666-82F3-4D35-A71D-86B01987C018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4038,10 +8771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175C4BF1-3807-41C7-9FD0-915C0522E87E}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4052,7 +8785,7 @@
     <col min="5" max="5" width="11.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>236</v>
       </c>
@@ -4065,8 +8798,11 @@
       <c r="F1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4083,7 +8819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>'gpu3'!A6</f>
         <v>50words</v>
@@ -4105,7 +8841,7 @@
         <v>65.494505494505404</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="str">
         <f>'gpu3'!A12</f>
         <v>Adiac</v>
@@ -4127,7 +8863,7 @@
         <v>78.260869565217305</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="str">
         <f>'gpu3'!A18</f>
         <v>ArrowHead</v>
@@ -4149,7 +8885,7 @@
         <v>79.428571428571402</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="str">
         <f>'gpu3'!A24</f>
         <v>Beef</v>
@@ -4171,7 +8907,7 @@
         <v>66.6666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="str">
         <f>'gpu3'!A30</f>
         <v>BeetleFly</v>
@@ -4193,7 +8929,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="str">
         <f>'gpu3'!A36</f>
         <v>BirdChicken</v>
@@ -4215,7 +8951,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="str">
         <f>'gpu3'!A45</f>
         <v>Car</v>
@@ -4237,7 +8973,7 @@
         <v>91.6666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="str">
         <f>'gpu3'!A48</f>
         <v>CBF</v>
@@ -4259,7 +8995,7 @@
         <v>98.3333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="str">
         <f>'gpu3'!A57</f>
         <v>ChlorineConcentration</v>
@@ -4281,7 +9017,7 @@
         <v>80.8072916666666</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="str">
         <f>'gpu3'!A60</f>
         <v>CinC_ECG_torso</v>
@@ -4303,7 +9039,7 @@
         <v>79.565217391304301</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="str">
         <f>'gpu3'!A66</f>
         <v>Coffee</v>
@@ -4325,7 +9061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -4346,7 +9082,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -4367,7 +9103,7 @@
         <v>78.461538461538396</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -4720,7 +9456,7 @@
         <v>89.631463146314601</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -4737,7 +9473,7 @@
         <v>99.3333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -4754,7 +9490,7 @@
         <v>75.238095238095198</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -4771,7 +9507,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -4784,7 +9520,7 @@
         <v>41.883116883116799</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -4797,7 +9533,7 @@
         <v>60.9375</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -4810,7 +9546,7 @@
         <v>35.818181818181799</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -4823,16 +9559,16 @@
         <v>42.7777777777777</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>119</v>
       </c>
       <c r="B40">
-        <f>'skr-compute1'!E79</f>
+        <f>'skr-compute1'!E108</f>
         <v>95.918367346938695</v>
       </c>
       <c r="C40">
-        <f>'skr-compute1'!E56</f>
+        <f>'skr-compute1'!E91</f>
         <v>94.557823129251702</v>
       </c>
       <c r="E40">
@@ -4843,17 +9579,21 @@
         <f>'gpu3'!G629</f>
         <v>95.33527696793</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <f>'skr-compute1'!G124</f>
+        <v>94.752186588921205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>120</v>
       </c>
       <c r="B41">
-        <f>'skr-compute1'!E80</f>
+        <f>'skr-compute1'!E109</f>
         <v>89.066666666666606</v>
       </c>
       <c r="C41">
-        <f>'skr-compute1'!E57</f>
+        <f>'skr-compute1'!E92</f>
         <v>85.3333333333333</v>
       </c>
       <c r="E41">
@@ -4865,16 +9605,16 @@
         <v>91.466666666666598</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>121</v>
       </c>
       <c r="B42">
-        <f>'skr-compute1'!E81</f>
+        <f>'skr-compute1'!E110</f>
         <v>70.491803278688494</v>
       </c>
       <c r="C42">
-        <f>'skr-compute1'!E58</f>
+        <f>'skr-compute1'!E93</f>
         <v>75.4098360655737</v>
       </c>
       <c r="E42">
@@ -4886,16 +9626,16 @@
         <v>72.131147540983605</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>122</v>
       </c>
       <c r="B43">
-        <f>'skr-compute1'!E82</f>
+        <f>'skr-compute1'!E111</f>
         <v>80.821917808219098</v>
       </c>
       <c r="C43">
-        <f>'skr-compute1'!E59</f>
+        <f>'skr-compute1'!E94</f>
         <v>79.452054794520507</v>
       </c>
       <c r="E43">
@@ -4907,16 +9647,16 @@
         <v>79.452054794520507</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>123</v>
       </c>
       <c r="B44">
-        <f>'skr-compute1'!E83</f>
+        <f>'skr-compute1'!E112</f>
         <v>90.149253731343194</v>
       </c>
       <c r="C44">
-        <f>'skr-compute1'!E60</f>
+        <f>'skr-compute1'!E95</f>
         <v>92.537313432835802</v>
       </c>
       <c r="E44">
@@ -4928,16 +9668,16 @@
         <v>93.091684434968002</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>124</v>
       </c>
       <c r="B45">
-        <f>'skr-compute1'!E84</f>
+        <f>'skr-compute1'!E113</f>
         <v>65</v>
       </c>
       <c r="C45">
-        <f>'skr-compute1'!E61</f>
+        <f>'skr-compute1'!E96</f>
         <v>60</v>
       </c>
       <c r="E45">
@@ -4949,9 +9689,17 @@
         <v>71.6666666666666</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>125</v>
+      </c>
+      <c r="B46">
+        <f>'skr-compute1'!E114</f>
+        <v>78.157894736842096</v>
+      </c>
+      <c r="C46">
+        <f>'skr-compute1'!E97</f>
+        <v>73.552631578947299</v>
       </c>
       <c r="E46">
         <f>'fcn-github'!L45*100</f>
@@ -4962,9 +9710,17 @@
         <v>78.947368421052602</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>126</v>
+      </c>
+      <c r="B47">
+        <f>'skr-compute1'!E115</f>
+        <v>77.75</v>
+      </c>
+      <c r="C47">
+        <f>'skr-compute1'!E98</f>
+        <v>72.5</v>
       </c>
       <c r="E47">
         <f>'fcn-github'!L46*100</f>
@@ -4975,9 +9731,17 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>127</v>
+      </c>
+      <c r="B48">
+        <f>'skr-compute1'!E116</f>
+        <v>58.6666666666666</v>
+      </c>
+      <c r="C48">
+        <f>'skr-compute1'!E99</f>
+        <v>51</v>
       </c>
       <c r="E48">
         <f>'fcn-github'!L47*100</f>
@@ -4992,6 +9756,14 @@
       <c r="A49" t="s">
         <v>128</v>
       </c>
+      <c r="B49">
+        <f>'skr-compute1'!E117</f>
+        <v>62.907268170426001</v>
+      </c>
+      <c r="C49">
+        <f>'skr-compute1'!E100</f>
+        <v>64.661654135338296</v>
+      </c>
       <c r="E49">
         <f>'fcn-github'!L48*100</f>
         <v>61.199999999999996</v>
@@ -5005,6 +9777,14 @@
       <c r="A50" t="s">
         <v>129</v>
       </c>
+      <c r="B50">
+        <f>'skr-compute1'!E118</f>
+        <v>92.971246006389705</v>
+      </c>
+      <c r="C50">
+        <f>'skr-compute1'!E101</f>
+        <v>89.776357827476005</v>
+      </c>
       <c r="E50">
         <f>'fcn-github'!L49*100</f>
         <v>95</v>
@@ -5044,6 +9824,10 @@
       <c r="A53" t="s">
         <v>132</v>
       </c>
+      <c r="B53">
+        <f>'gpu3'!G847</f>
+        <v>40</v>
+      </c>
       <c r="C53">
         <f>athena!E14</f>
         <v>40</v>
@@ -5060,6 +9844,10 @@
     <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>133</v>
+      </c>
+      <c r="B54">
+        <f>'gpu3'!G848</f>
+        <v>97.107438016528903</v>
       </c>
       <c r="E54">
         <f>'fcn-github'!L53*100</f>
@@ -5321,6 +10109,10 @@
         <f>'gpu3'!A78</f>
         <v>ToeSegmentation1</v>
       </c>
+      <c r="B73">
+        <f>'gpu3'!G854</f>
+        <v>93.859649122806999</v>
+      </c>
       <c r="C73">
         <v>94.298245614034997</v>
       </c>
@@ -5337,6 +10129,10 @@
       <c r="A74" t="str">
         <f>'gpu3'!A77</f>
         <v>ToeSegmentation2</v>
+      </c>
+      <c r="B74">
+        <f>'gpu3'!G855</f>
+        <v>91.538461538461505</v>
       </c>
       <c r="C74">
         <v>75.384615384615302</v>
@@ -7396,7 +12192,1678 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D571190-9540-45BF-981E-76340F9D56B5}">
+  <dimension ref="A1:AN4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2">
+        <v>98</v>
+      </c>
+      <c r="W2">
+        <v>99</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3">
+        <v>9.6285463710625904E-3</v>
+      </c>
+      <c r="C3">
+        <v>99.688333333333304</v>
+      </c>
+      <c r="D3">
+        <v>3.3287582468986499E-2</v>
+      </c>
+      <c r="E3">
+        <v>99.06</v>
+      </c>
+      <c r="F3">
+        <v>69582.514134883793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4">
+        <v>9.2769006848335191E-3</v>
+      </c>
+      <c r="C4">
+        <v>99.71</v>
+      </c>
+      <c r="D4">
+        <v>2.8842801833152701E-2</v>
+      </c>
+      <c r="E4">
+        <v>99.25</v>
+      </c>
+      <c r="F4">
+        <v>62563.647188186602</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49CCEBB-01DF-47C4-87C2-AA54F760CF15}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="29.15625" customWidth="1"/>
+    <col min="3" max="3" width="14.83984375" customWidth="1"/>
+    <col min="4" max="4" width="14.9453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="C1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'gpu3'!A6</f>
+        <v>50words</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(results!B3:C3)</f>
+        <v>63.626373626373592</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(results!O3:S3)</f>
+        <v>59.780219780219724</v>
+      </c>
+      <c r="E3">
+        <f>$C3/$D3</f>
+        <v>1.064338235294118</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>$C3</f>
+        <v>63.626373626373592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'gpu3'!A12</f>
+        <v>Adiac</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(results!B4:C4)</f>
+        <v>80.946291560102253</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(results!O4:S4)</f>
+        <v>26.035805626598421</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E45" si="0">$C4/$D4</f>
+        <v>3.1090373280943058</v>
+      </c>
+      <c r="F4">
+        <f>$A4/$G$1*100</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="G4">
+        <f>$A4/$G$1*100</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H47" si="1">$C4</f>
+        <v>80.946291560102253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'gpu3'!A18</f>
+        <v>ArrowHead</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(results!B5:C5)</f>
+        <v>83.428571428571402</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(results!O5:S5)</f>
+        <v>72.228571428571371</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.1550632911392411</v>
+      </c>
+      <c r="F5">
+        <f>$A5/$G$1*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G5">
+        <f>$A5/$G$1*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>83.428571428571402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'gpu3'!A24</f>
+        <v>Beef</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(results!B6:C6)</f>
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(results!O6:S6)</f>
+        <v>49.333333333333321</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.2162162162162165</v>
+      </c>
+      <c r="F6">
+        <f>$A6/$G$1*100</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G6">
+        <f>$A6/$G$1*100</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'gpu3'!A30</f>
+        <v>BeetleFly</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(results!B7:C7)</f>
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(results!O7:S7)</f>
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="F7">
+        <f>$A7/$G$1*100</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="G7">
+        <f>$A7/$G$1*100</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'gpu3'!A36</f>
+        <v>BirdChicken</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(results!B8:C8)</f>
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(results!O8:S8)</f>
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.139240506329114</v>
+      </c>
+      <c r="F8">
+        <f>$A8/$G$1*100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="G8">
+        <f>$A8/$G$1*100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'gpu3'!A45</f>
+        <v>Car</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(results!B9:C9)</f>
+        <v>91.6666666666666</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(results!O9:S9)</f>
+        <v>60.999999999999979</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.5027322404371579</v>
+      </c>
+      <c r="F9">
+        <f>$A9/$G$1*100</f>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="G9">
+        <f>$A9/$G$1*100</f>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>91.6666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'gpu3'!A48</f>
+        <v>CBF</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE(results!B10:C10)</f>
+        <v>99.1111111111111</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(results!O10:S10)</f>
+        <v>99.466666666666612</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.99642537980339629</v>
+      </c>
+      <c r="F10">
+        <f>$A10/$G$1*100</f>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="G10">
+        <f>$A10/$G$1*100</f>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>99.1111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'gpu3'!A57</f>
+        <v>ChlorineConcentration</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(results!B11:C11)</f>
+        <v>70.8333333333333</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(results!O11:S11)</f>
+        <v>57.546874999999957</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.230880622680786</v>
+      </c>
+      <c r="F11">
+        <f>$A11/$G$1*100</f>
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <f>$A11/$G$1*100</f>
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>70.8333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'gpu3'!A60</f>
+        <v>CinC_ECG_torso</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(results!B12:C12)</f>
+        <v>77.246376811594203</v>
+      </c>
+      <c r="D12">
+        <f>'gpu2'!E114</f>
+        <v>54.492753623188399</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.417553191489362</v>
+      </c>
+      <c r="F12">
+        <f>$A12/$G$1*100</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="G12">
+        <f>$A12/$G$1*100</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>77.246376811594203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'gpu3'!A66</f>
+        <v>Coffee</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(results!B13:C13)</f>
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <f>'gpu2'!E115</f>
+        <v>96.428571428571402</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.0370370370370374</v>
+      </c>
+      <c r="F13">
+        <f>$A13/$G$1*100</f>
+        <v>24.444444444444443</v>
+      </c>
+      <c r="G13">
+        <f>$A13/$G$1*100</f>
+        <v>24.444444444444443</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14">
+        <f>'gpu3'!E740</f>
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(results!$M14:$N14)</f>
+        <v>66.199999999999989</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.2688821752265864</v>
+      </c>
+      <c r="F14">
+        <f>$A14/$G$1*100</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G14">
+        <f>$A14/$G$1*100</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <f>'gpu3'!E741</f>
+        <v>77.435897435897402</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(results!$M15:$N15)</f>
+        <v>66.410256410256352</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.1660231660231666</v>
+      </c>
+      <c r="F15">
+        <f>$A15/$G$1*100</f>
+        <v>28.888888888888886</v>
+      </c>
+      <c r="G15">
+        <f>$A15/$G$1*100</f>
+        <v>28.888888888888886</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>77.435897435897402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <f>'gpu3'!E742</f>
+        <v>77.948717948717899</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(results!$M16:$N16)</f>
+        <v>61.923076923076898</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.2587991718426499</v>
+      </c>
+      <c r="F16">
+        <f>$A16/$G$1*100</f>
+        <v>31.111111111111111</v>
+      </c>
+      <c r="G16">
+        <f>$A16/$G$1*100</f>
+        <v>31.111111111111111</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>77.948717948717899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17">
+        <f>'gpu3'!E743</f>
+        <v>78.461538461538396</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(results!$M17:$N17)</f>
+        <v>67.692307692307651</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.1590909090909087</v>
+      </c>
+      <c r="F17">
+        <f>$A17/$G$1*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="G17">
+        <f>$A17/$G$1*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>78.461538461538396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18">
+        <f>'gpu3'!E744</f>
+        <v>91.176470588235205</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(results!$M18:$N18)</f>
+        <v>66.6666666666666</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.3676470588235294</v>
+      </c>
+      <c r="F18">
+        <f>$A18/$G$1*100</f>
+        <v>35.555555555555557</v>
+      </c>
+      <c r="G18">
+        <f>$A18/$G$1*100</f>
+        <v>35.555555555555557</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>91.176470588235205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19">
+        <f>'gpu3'!E745</f>
+        <v>84.75</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(results!$M19:$N19)</f>
+        <v>79.75</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.0626959247648904</v>
+      </c>
+      <c r="F19">
+        <f>$A19/$G$1*100</f>
+        <v>37.777777777777779</v>
+      </c>
+      <c r="G19">
+        <f>$A19/$G$1*100</f>
+        <v>37.777777777777779</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20">
+        <f>'gpu3'!E746</f>
+        <v>81.1666666666666</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(results!$M20:$N20)</f>
+        <v>75.3333333333333</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.0774336283185837</v>
+      </c>
+      <c r="F20">
+        <f>$A20/$G$1*100</f>
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <f>$A20/$G$1*100</f>
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>81.1666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <f>'gpu3'!E747</f>
+        <v>79.5</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(results!$M21:$N21)</f>
+        <v>74.25</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.0707070707070707</v>
+      </c>
+      <c r="F21">
+        <f>$A21/$G$1*100</f>
+        <v>42.222222222222221</v>
+      </c>
+      <c r="G21">
+        <f>$A21/$G$1*100</f>
+        <v>42.222222222222221</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22">
+        <f>'gpu3'!E748</f>
+        <v>77.950310559006198</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(results!$M22:$N22)</f>
+        <v>75.776397515527904</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.0286885245901645</v>
+      </c>
+      <c r="F22">
+        <f>$A22/$G$1*100</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="G22">
+        <f>$A22/$G$1*100</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>77.950310559006198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23">
+        <f>'gpu3'!E749</f>
+        <v>88</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(results!$M23:$N23)</f>
+        <v>88</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f>$A23/$G$1*100</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="G23">
+        <f>$A23/$G$1*100</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24">
+        <f>'gpu3'!E750</f>
+        <v>93.911111111111097</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(results!$M24:$N24)</f>
+        <v>94.288888888888806</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.99599340089559352</v>
+      </c>
+      <c r="F24">
+        <f>$A24/$G$1*100</f>
+        <v>48.888888888888886</v>
+      </c>
+      <c r="G24">
+        <f>$A24/$G$1*100</f>
+        <v>48.888888888888886</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>93.911111111111097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25">
+        <f>'gpu3'!E751</f>
+        <v>97.677119628339099</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(results!$M25:$N25)</f>
+        <v>98.7224157955865</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.98941176470588221</v>
+      </c>
+      <c r="F25">
+        <f>$A25/$G$1*100</f>
+        <v>51.111111111111107</v>
+      </c>
+      <c r="G25">
+        <f>$A25/$G$1*100</f>
+        <v>51.111111111111107</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>97.677119628339099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26">
+        <f>'gpu3'!E752</f>
+        <v>75.204253663597399</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(results!$M26:$N26)</f>
+        <v>65.049928673323805</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.1561004784688989</v>
+      </c>
+      <c r="F26">
+        <f>$A26/$G$1*100</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="G26">
+        <f>$A26/$G$1*100</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>75.204253663597399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27">
+        <f>'gpu3'!E753</f>
+        <v>92.899408284023593</v>
+      </c>
+      <c r="D27">
+        <f>AVERAGE(results!$M27:$N27)</f>
+        <v>77.869822485207095</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.1930091185410325</v>
+      </c>
+      <c r="F27">
+        <f>$A27/$G$1*100</f>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="G27">
+        <f>$A27/$G$1*100</f>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>92.899408284023593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28">
+        <f>'gpu3'!E384</f>
+        <v>92.045454545454504</v>
+      </c>
+      <c r="D28">
+        <f>'gpu2'!E156</f>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.0124999999999995</v>
+      </c>
+      <c r="F28">
+        <f>$A28/$G$1*100</f>
+        <v>57.777777777777771</v>
+      </c>
+      <c r="G28">
+        <f>$A28/$G$1*100</f>
+        <v>57.777777777777771</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>92.045454545454504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29">
+        <f>'gpu3'!E385</f>
+        <v>92.390243902438996</v>
+      </c>
+      <c r="D29">
+        <f>'gpu2'!E157</f>
+        <v>92.975609756097498</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.99370409233997936</v>
+      </c>
+      <c r="F29">
+        <f>$A29/$G$1*100</f>
+        <v>60</v>
+      </c>
+      <c r="G29">
+        <f>$A29/$G$1*100</f>
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>92.390243902438996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30">
+        <f>'gpu3'!E386</f>
+        <v>96.571428571428498</v>
+      </c>
+      <c r="D30">
+        <f>'gpu2'!E158</f>
+        <v>59.428571428571402</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.6249999999999996</v>
+      </c>
+      <c r="F30">
+        <f>$A30/$G$1*100</f>
+        <v>62.222222222222221</v>
+      </c>
+      <c r="G30">
+        <f>$A30/$G$1*100</f>
+        <v>62.222222222222221</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>96.571428571428498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31">
+        <f>'gpu3'!E387</f>
+        <v>91.113579561232996</v>
+      </c>
+      <c r="D31">
+        <f>'gpu2'!E159</f>
+        <v>84.587614551513397</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1.0771503611293509</v>
+      </c>
+      <c r="F31">
+        <f>$A31/$G$1*100</f>
+        <v>64.444444444444443</v>
+      </c>
+      <c r="G31">
+        <f>$A31/$G$1*100</f>
+        <v>64.444444444444443</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>91.113579561232996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32">
+        <f>'skr-compute1'!E108</f>
+        <v>95.918367346938695</v>
+      </c>
+      <c r="D32">
+        <f>'skr-compute1'!E91</f>
+        <v>94.557823129251702</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.0143884892086321</v>
+      </c>
+      <c r="F32">
+        <f>$A32/$G$1*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G32">
+        <f>$A32/$G$1*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>95.918367346938695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33">
+        <f>'skr-compute1'!E109</f>
+        <v>89.066666666666606</v>
+      </c>
+      <c r="D33">
+        <f>'skr-compute1'!E92</f>
+        <v>85.3333333333333</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.0437499999999997</v>
+      </c>
+      <c r="F33">
+        <f>$A33/$G$1*100</f>
+        <v>68.888888888888886</v>
+      </c>
+      <c r="G33">
+        <f>$A33/$G$1*100</f>
+        <v>68.888888888888886</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>89.066666666666606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34">
+        <f>'skr-compute1'!E110</f>
+        <v>70.491803278688494</v>
+      </c>
+      <c r="D34">
+        <f>'skr-compute1'!E93</f>
+        <v>75.4098360655737</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.93478260869565266</v>
+      </c>
+      <c r="F34">
+        <f>$A34/$G$1*100</f>
+        <v>71.111111111111114</v>
+      </c>
+      <c r="G34">
+        <f>$A34/$G$1*100</f>
+        <v>71.111111111111114</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>70.491803278688494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35">
+        <f>'skr-compute1'!E111</f>
+        <v>80.821917808219098</v>
+      </c>
+      <c r="D35">
+        <f>'skr-compute1'!E94</f>
+        <v>79.452054794520507</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.0172413793103443</v>
+      </c>
+      <c r="F35">
+        <f>$A35/$G$1*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G35">
+        <f>$A35/$G$1*100</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>80.821917808219098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36">
+        <f>'skr-compute1'!E112</f>
+        <v>90.149253731343194</v>
+      </c>
+      <c r="D36">
+        <f>'skr-compute1'!E95</f>
+        <v>92.537313432835802</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0.97419354838709604</v>
+      </c>
+      <c r="F36">
+        <f>$A36/$G$1*100</f>
+        <v>75.555555555555557</v>
+      </c>
+      <c r="G36">
+        <f>$A36/$G$1*100</f>
+        <v>75.555555555555557</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>90.149253731343194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37">
+        <f>'skr-compute1'!E113</f>
+        <v>65</v>
+      </c>
+      <c r="D37">
+        <f>'skr-compute1'!E96</f>
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F37">
+        <f>$A37/$G$1*100</f>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="G37">
+        <f>$A37/$G$1*100</f>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38">
+        <f>'skr-compute1'!E114</f>
+        <v>78.157894736842096</v>
+      </c>
+      <c r="D38">
+        <f>'skr-compute1'!E97</f>
+        <v>73.552631578947299</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.0626118067978543</v>
+      </c>
+      <c r="F38">
+        <f>$A38/$G$1*100</f>
+        <v>80</v>
+      </c>
+      <c r="G38">
+        <f>$A38/$G$1*100</f>
+        <v>80</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>78.157894736842096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39">
+        <f>'skr-compute1'!E115</f>
+        <v>77.75</v>
+      </c>
+      <c r="D39">
+        <f>'skr-compute1'!E98</f>
+        <v>72.5</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.0724137931034483</v>
+      </c>
+      <c r="F39">
+        <f>$A39/$G$1*100</f>
+        <v>82.222222222222214</v>
+      </c>
+      <c r="G39">
+        <f>$A39/$G$1*100</f>
+        <v>82.222222222222214</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>77.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40">
+        <f>'skr-compute1'!E116</f>
+        <v>58.6666666666666</v>
+      </c>
+      <c r="D40">
+        <f>'skr-compute1'!E99</f>
+        <v>51</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.1503267973856197</v>
+      </c>
+      <c r="F40">
+        <f>$A40/$G$1*100</f>
+        <v>84.444444444444443</v>
+      </c>
+      <c r="G40">
+        <f>$A40/$G$1*100</f>
+        <v>84.444444444444443</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>58.6666666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41">
+        <f>'skr-compute1'!E117</f>
+        <v>62.907268170426001</v>
+      </c>
+      <c r="D41">
+        <f>'skr-compute1'!E100</f>
+        <v>64.661654135338296</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0.9728682170542633</v>
+      </c>
+      <c r="F41">
+        <f>$A41/$G$1*100</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="G41">
+        <f>$A41/$G$1*100</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>62.907268170426001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42">
+        <f>'skr-compute1'!E118</f>
+        <v>92.971246006389705</v>
+      </c>
+      <c r="D42">
+        <f>'skr-compute1'!E101</f>
+        <v>89.776357827476005</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.0355871886120993</v>
+      </c>
+      <c r="F42">
+        <f>$A42/$G$1*100</f>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="G42">
+        <f>$A42/$G$1*100</f>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>92.971246006389705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43">
+        <f>'gpu3'!G847</f>
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <f>athena!E14</f>
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f>$A43/$G$1*100</f>
+        <v>91.111111111111114</v>
+      </c>
+      <c r="G43">
+        <f>$A43/$G$1*100</f>
+        <v>91.111111111111114</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="D44">
+        <v>94.298245614034997</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.99534883720930312</v>
+      </c>
+      <c r="F44">
+        <f>$A44/$G$1*100</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="G44">
+        <f>$A44/$G$1*100</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>93.859649122806999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45">
+        <v>91.538461538461505</v>
+      </c>
+      <c r="D45">
+        <v>75.384615384615302</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1.2142857142857151</v>
+      </c>
+      <c r="F45">
+        <f>$A45/$G$1*100</f>
+        <v>95.555555555555557</v>
+      </c>
+      <c r="G45">
+        <f>$A45/$G$1*100</f>
+        <v>95.555555555555557</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>91.538461538461505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'gpu3'!A84</f>
+        <v>Wine</v>
+      </c>
+      <c r="C46">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="D46">
+        <v>79.629629629629605</v>
+      </c>
+      <c r="E46">
+        <f>$C46/$D46</f>
+        <v>0.83720930232558077</v>
+      </c>
+      <c r="F46">
+        <f>$A46/$G$1*100</f>
+        <v>97.777777777777771</v>
+      </c>
+      <c r="G46">
+        <f>$A46/$G$1*100</f>
+        <v>97.777777777777771</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>66.6666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'gpu3'!A85</f>
+        <v>WordsSynonyms</v>
+      </c>
+      <c r="C47">
+        <v>52.351097178683297</v>
+      </c>
+      <c r="D47">
+        <v>52.5078369905956</v>
+      </c>
+      <c r="E47">
+        <f>$C47/$D47</f>
+        <v>0.99701492537313285</v>
+      </c>
+      <c r="F47">
+        <f>$A47/$G$1*100</f>
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <f>$A47/$G$1*100</f>
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>52.351097178683297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B88DE2-C050-4555-8254-CCDB84255E3C}">
   <dimension ref="A1:U87"/>
   <sheetViews>
@@ -9021,12 +15488,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC8A15-5897-4C81-BEB9-7876A1902672}">
-  <dimension ref="A1:CE840"/>
+  <dimension ref="A1:CE855"/>
   <sheetViews>
-    <sheetView topLeftCell="A824" workbookViewId="0">
-      <selection activeCell="A844" sqref="A844"/>
+    <sheetView topLeftCell="A839" workbookViewId="0">
+      <selection activeCell="G854" sqref="G854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22971,6 +29438,679 @@
         <v>2437.5520927906</v>
       </c>
     </row>
+    <row r="843" spans="1:83">
+      <c r="A843" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="844" spans="1:83">
+      <c r="A844" t="s">
+        <v>17</v>
+      </c>
+      <c r="B844" t="s">
+        <v>18</v>
+      </c>
+      <c r="C844" t="s">
+        <v>19</v>
+      </c>
+      <c r="D844" t="s">
+        <v>20</v>
+      </c>
+      <c r="E844" t="s">
+        <v>21</v>
+      </c>
+      <c r="F844" t="s">
+        <v>696</v>
+      </c>
+      <c r="G844" t="s">
+        <v>23</v>
+      </c>
+      <c r="H844" t="s">
+        <v>24</v>
+      </c>
+      <c r="I844" t="s">
+        <v>25</v>
+      </c>
+      <c r="J844" t="s">
+        <v>672</v>
+      </c>
+      <c r="K844" t="s">
+        <v>673</v>
+      </c>
+      <c r="L844" t="s">
+        <v>81</v>
+      </c>
+      <c r="M844" t="s">
+        <v>257</v>
+      </c>
+      <c r="N844" t="s">
+        <v>29</v>
+      </c>
+      <c r="O844" t="s">
+        <v>30</v>
+      </c>
+      <c r="P844" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q844" t="s">
+        <v>259</v>
+      </c>
+      <c r="R844" t="s">
+        <v>611</v>
+      </c>
+      <c r="S844" t="s">
+        <v>674</v>
+      </c>
+      <c r="T844" t="s">
+        <v>262</v>
+      </c>
+      <c r="U844" t="s">
+        <v>675</v>
+      </c>
+      <c r="V844" t="s">
+        <v>35</v>
+      </c>
+      <c r="W844" t="s">
+        <v>697</v>
+      </c>
+      <c r="X844" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y844" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z844" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA844" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB844" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC844" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD844" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE844" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF844" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG844" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH844" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI844" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ844" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK844" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL844" t="s">
+        <v>618</v>
+      </c>
+      <c r="AM844" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN844" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO844" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP844" t="s">
+        <v>678</v>
+      </c>
+      <c r="AQ844" t="s">
+        <v>679</v>
+      </c>
+      <c r="AR844" t="s">
+        <v>680</v>
+      </c>
+      <c r="AS844" t="s">
+        <v>681</v>
+      </c>
+      <c r="AT844" t="s">
+        <v>682</v>
+      </c>
+      <c r="AU844" t="s">
+        <v>683</v>
+      </c>
+      <c r="AV844" t="s">
+        <v>277</v>
+      </c>
+      <c r="AW844" t="s">
+        <v>698</v>
+      </c>
+      <c r="AX844" t="s">
+        <v>684</v>
+      </c>
+      <c r="AY844" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ844" t="s">
+        <v>280</v>
+      </c>
+      <c r="BA844" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB844" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC844" t="s">
+        <v>283</v>
+      </c>
+      <c r="BD844" t="s">
+        <v>627</v>
+      </c>
+      <c r="BE844" t="s">
+        <v>284</v>
+      </c>
+      <c r="BF844" t="s">
+        <v>686</v>
+      </c>
+      <c r="BG844" t="s">
+        <v>285</v>
+      </c>
+      <c r="BH844" t="s">
+        <v>687</v>
+      </c>
+      <c r="BI844" t="s">
+        <v>630</v>
+      </c>
+      <c r="BJ844" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK844" t="s">
+        <v>631</v>
+      </c>
+      <c r="BL844" t="s">
+        <v>291</v>
+      </c>
+      <c r="BM844" t="s">
+        <v>292</v>
+      </c>
+      <c r="BN844" t="s">
+        <v>293</v>
+      </c>
+      <c r="BO844" t="s">
+        <v>294</v>
+      </c>
+      <c r="BP844" t="s">
+        <v>295</v>
+      </c>
+      <c r="BQ844" t="s">
+        <v>296</v>
+      </c>
+      <c r="BR844" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS844" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT844" t="s">
+        <v>299</v>
+      </c>
+      <c r="BU844" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV844" t="s">
+        <v>301</v>
+      </c>
+      <c r="BW844" t="s">
+        <v>302</v>
+      </c>
+      <c r="BX844" t="s">
+        <v>303</v>
+      </c>
+      <c r="BY844" t="s">
+        <v>304</v>
+      </c>
+      <c r="BZ844" t="s">
+        <v>305</v>
+      </c>
+      <c r="CA844" t="s">
+        <v>306</v>
+      </c>
+      <c r="CB844" t="s">
+        <v>307</v>
+      </c>
+      <c r="CC844" t="s">
+        <v>688</v>
+      </c>
+      <c r="CD844" t="s">
+        <v>689</v>
+      </c>
+      <c r="CE844" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="845" spans="1:83">
+      <c r="A845" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="846" spans="1:83">
+      <c r="A846" t="s">
+        <v>73</v>
+      </c>
+      <c r="B846" t="s">
+        <v>52</v>
+      </c>
+      <c r="C846" t="s">
+        <v>53</v>
+      </c>
+      <c r="D846" t="s">
+        <v>636</v>
+      </c>
+      <c r="E846" t="s">
+        <v>637</v>
+      </c>
+      <c r="F846" t="s">
+        <v>54</v>
+      </c>
+      <c r="G846" t="s">
+        <v>55</v>
+      </c>
+      <c r="H846" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="847" spans="1:83">
+      <c r="A847" t="s">
+        <v>132</v>
+      </c>
+      <c r="B847">
+        <v>8.4161686897277793E-2</v>
+      </c>
+      <c r="C847">
+        <v>43.3333333333333</v>
+      </c>
+      <c r="D847" t="s">
+        <v>638</v>
+      </c>
+      <c r="E847" t="s">
+        <v>638</v>
+      </c>
+      <c r="F847">
+        <v>8.5696323712666805E-2</v>
+      </c>
+      <c r="G847">
+        <v>40</v>
+      </c>
+      <c r="H847">
+        <v>1584.2926902770901</v>
+      </c>
+    </row>
+    <row r="848" spans="1:83">
+      <c r="A848" t="s">
+        <v>133</v>
+      </c>
+      <c r="B848">
+        <v>2.8895821329206202E-3</v>
+      </c>
+      <c r="C848">
+        <v>100</v>
+      </c>
+      <c r="D848" t="s">
+        <v>638</v>
+      </c>
+      <c r="E848" t="s">
+        <v>638</v>
+      </c>
+      <c r="F848">
+        <v>8.66498526432051E-3</v>
+      </c>
+      <c r="G848">
+        <v>97.107438016528903</v>
+      </c>
+      <c r="H848">
+        <v>5761.3101956844303</v>
+      </c>
+    </row>
+    <row r="851" spans="1:83">
+      <c r="A851" t="s">
+        <v>17</v>
+      </c>
+      <c r="B851" t="s">
+        <v>18</v>
+      </c>
+      <c r="C851" t="s">
+        <v>19</v>
+      </c>
+      <c r="D851" t="s">
+        <v>20</v>
+      </c>
+      <c r="E851" t="s">
+        <v>21</v>
+      </c>
+      <c r="F851" t="s">
+        <v>699</v>
+      </c>
+      <c r="G851" t="s">
+        <v>23</v>
+      </c>
+      <c r="H851" t="s">
+        <v>24</v>
+      </c>
+      <c r="I851" t="s">
+        <v>671</v>
+      </c>
+      <c r="J851" t="s">
+        <v>672</v>
+      </c>
+      <c r="K851" t="s">
+        <v>673</v>
+      </c>
+      <c r="L851" t="s">
+        <v>81</v>
+      </c>
+      <c r="M851" t="s">
+        <v>257</v>
+      </c>
+      <c r="N851" t="s">
+        <v>29</v>
+      </c>
+      <c r="O851" t="s">
+        <v>30</v>
+      </c>
+      <c r="P851" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q851" t="s">
+        <v>259</v>
+      </c>
+      <c r="R851" t="s">
+        <v>611</v>
+      </c>
+      <c r="S851" t="s">
+        <v>674</v>
+      </c>
+      <c r="T851" t="s">
+        <v>262</v>
+      </c>
+      <c r="U851" t="s">
+        <v>675</v>
+      </c>
+      <c r="V851" t="s">
+        <v>35</v>
+      </c>
+      <c r="W851" t="s">
+        <v>700</v>
+      </c>
+      <c r="X851" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y851" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z851" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA851" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB851" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC851" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD851" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE851" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF851" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG851" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH851" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI851" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ851" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK851" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL851" t="s">
+        <v>618</v>
+      </c>
+      <c r="AM851" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN851" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO851" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP851" t="s">
+        <v>678</v>
+      </c>
+      <c r="AQ851" t="s">
+        <v>679</v>
+      </c>
+      <c r="AR851" t="s">
+        <v>680</v>
+      </c>
+      <c r="AS851" t="s">
+        <v>681</v>
+      </c>
+      <c r="AT851" t="s">
+        <v>682</v>
+      </c>
+      <c r="AU851" t="s">
+        <v>683</v>
+      </c>
+      <c r="AV851" t="s">
+        <v>622</v>
+      </c>
+      <c r="AW851" t="s">
+        <v>701</v>
+      </c>
+      <c r="AX851" t="s">
+        <v>684</v>
+      </c>
+      <c r="AY851" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ851" t="s">
+        <v>685</v>
+      </c>
+      <c r="BA851" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB851" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC851" t="s">
+        <v>283</v>
+      </c>
+      <c r="BD851" t="s">
+        <v>627</v>
+      </c>
+      <c r="BE851" t="s">
+        <v>284</v>
+      </c>
+      <c r="BF851" t="s">
+        <v>686</v>
+      </c>
+      <c r="BG851" t="s">
+        <v>285</v>
+      </c>
+      <c r="BH851" t="s">
+        <v>687</v>
+      </c>
+      <c r="BI851" t="s">
+        <v>630</v>
+      </c>
+      <c r="BJ851" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK851" t="s">
+        <v>631</v>
+      </c>
+      <c r="BL851" t="s">
+        <v>291</v>
+      </c>
+      <c r="BM851" t="s">
+        <v>292</v>
+      </c>
+      <c r="BN851" t="s">
+        <v>293</v>
+      </c>
+      <c r="BO851" t="s">
+        <v>294</v>
+      </c>
+      <c r="BP851" t="s">
+        <v>295</v>
+      </c>
+      <c r="BQ851" t="s">
+        <v>296</v>
+      </c>
+      <c r="BR851" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS851" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT851" t="s">
+        <v>299</v>
+      </c>
+      <c r="BU851" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV851" t="s">
+        <v>301</v>
+      </c>
+      <c r="BW851" t="s">
+        <v>302</v>
+      </c>
+      <c r="BX851" t="s">
+        <v>303</v>
+      </c>
+      <c r="BY851" t="s">
+        <v>304</v>
+      </c>
+      <c r="BZ851" t="s">
+        <v>305</v>
+      </c>
+      <c r="CA851" t="s">
+        <v>306</v>
+      </c>
+      <c r="CB851" t="s">
+        <v>307</v>
+      </c>
+      <c r="CC851" t="s">
+        <v>688</v>
+      </c>
+      <c r="CD851" t="s">
+        <v>689</v>
+      </c>
+      <c r="CE851" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="852" spans="1:83">
+      <c r="A852" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="853" spans="1:83">
+      <c r="A853" t="s">
+        <v>73</v>
+      </c>
+      <c r="B853" t="s">
+        <v>52</v>
+      </c>
+      <c r="C853" t="s">
+        <v>53</v>
+      </c>
+      <c r="D853" t="s">
+        <v>636</v>
+      </c>
+      <c r="E853" t="s">
+        <v>637</v>
+      </c>
+      <c r="F853" t="s">
+        <v>54</v>
+      </c>
+      <c r="G853" t="s">
+        <v>55</v>
+      </c>
+      <c r="H853" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="854" spans="1:83">
+      <c r="A854" t="s">
+        <v>85</v>
+      </c>
+      <c r="B854">
+        <v>2.3579034022986802E-3</v>
+      </c>
+      <c r="C854">
+        <v>100</v>
+      </c>
+      <c r="D854" t="s">
+        <v>638</v>
+      </c>
+      <c r="E854" t="s">
+        <v>638</v>
+      </c>
+      <c r="F854">
+        <v>8.0237680425246493E-3</v>
+      </c>
+      <c r="G854">
+        <v>93.859649122806999</v>
+      </c>
+      <c r="H854">
+        <v>2952.6870746612499</v>
+      </c>
+    </row>
+    <row r="855" spans="1:83">
+      <c r="A855" t="s">
+        <v>84</v>
+      </c>
+      <c r="B855">
+        <v>2.78958448001907E-3</v>
+      </c>
+      <c r="C855">
+        <v>100</v>
+      </c>
+      <c r="D855" t="s">
+        <v>638</v>
+      </c>
+      <c r="E855" t="s">
+        <v>638</v>
+      </c>
+      <c r="F855">
+        <v>1.5482366543549699E-2</v>
+      </c>
+      <c r="G855">
+        <v>91.538461538461505</v>
+      </c>
+      <c r="H855">
+        <v>3705.4492890834799</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A135:F141">
     <sortCondition ref="A135"/>
@@ -22984,7 +30124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0AF622-F6C7-45D4-996E-3629BDDDC8CE}">
   <dimension ref="A1:L87"/>
   <sheetViews>
@@ -26212,7 +33352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25687B4-1C09-4D48-801C-19E8B4A30896}">
   <dimension ref="A1:K450"/>
   <sheetViews>
@@ -35209,7 +42349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95BE316-36BD-47EC-961C-DEF7A408A4C5}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -35533,188 +42673,6 @@
       </c>
       <c r="F14">
         <v>83496.685634374604</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D571190-9540-45BF-981E-76340F9D56B5}">
-  <dimension ref="A1:AN4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>243</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>244</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>245</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2">
-        <v>98</v>
-      </c>
-      <c r="W2">
-        <v>99</v>
-      </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3">
-        <v>9.6285463710625904E-3</v>
-      </c>
-      <c r="C3">
-        <v>99.688333333333304</v>
-      </c>
-      <c r="D3">
-        <v>3.3287582468986499E-2</v>
-      </c>
-      <c r="E3">
-        <v>99.06</v>
-      </c>
-      <c r="F3">
-        <v>69582.514134883793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4">
-        <v>9.2769006848335191E-3</v>
-      </c>
-      <c r="C4">
-        <v>99.71</v>
-      </c>
-      <c r="D4">
-        <v>2.8842801833152701E-2</v>
-      </c>
-      <c r="E4">
-        <v>99.25</v>
-      </c>
-      <c r="F4">
-        <v>62563.647188186602</v>
       </c>
     </row>
   </sheetData>
@@ -37945,10 +44903,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB4BAC0-5711-4815-AA2C-74B11E670551}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:CE124"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -39452,7 +46410,7 @@
         <v>28117.696531772599</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:75">
       <c r="A81" t="s">
         <v>121</v>
       </c>
@@ -39472,7 +46430,7 @@
         <v>4814.0373995304099</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:75">
       <c r="A82" t="s">
         <v>122</v>
       </c>
@@ -39492,7 +46450,7 @@
         <v>4267.4638450145703</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:75">
       <c r="A83" t="s">
         <v>123</v>
       </c>
@@ -39512,7 +46470,7 @@
         <v>71498.6205353736</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:75">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -39530,6 +46488,1268 @@
       </c>
       <c r="F84">
         <v>5941.5437765121396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:75">
+      <c r="A87" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="88" spans="1:75">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" t="s">
+        <v>315</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>316</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" t="s">
+        <v>26</v>
+      </c>
+      <c r="K88" t="s">
+        <v>256</v>
+      </c>
+      <c r="L88" t="s">
+        <v>81</v>
+      </c>
+      <c r="M88" t="s">
+        <v>257</v>
+      </c>
+      <c r="N88" t="s">
+        <v>29</v>
+      </c>
+      <c r="O88" t="s">
+        <v>30</v>
+      </c>
+      <c r="P88" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>259</v>
+      </c>
+      <c r="R88" t="s">
+        <v>260</v>
+      </c>
+      <c r="S88" t="s">
+        <v>261</v>
+      </c>
+      <c r="T88" t="s">
+        <v>262</v>
+      </c>
+      <c r="U88" t="s">
+        <v>33</v>
+      </c>
+      <c r="V88" t="s">
+        <v>35</v>
+      </c>
+      <c r="W88" t="s">
+        <v>691</v>
+      </c>
+      <c r="X88" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN88" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP88" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>326</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>279</v>
+      </c>
+      <c r="AS88" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT88" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU88" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV88" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW88" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX88" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY88" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ88" t="s">
+        <v>287</v>
+      </c>
+      <c r="BA88" t="s">
+        <v>288</v>
+      </c>
+      <c r="BB88" t="s">
+        <v>289</v>
+      </c>
+      <c r="BC88" t="s">
+        <v>290</v>
+      </c>
+      <c r="BD88" t="s">
+        <v>291</v>
+      </c>
+      <c r="BE88" t="s">
+        <v>292</v>
+      </c>
+      <c r="BF88" t="s">
+        <v>293</v>
+      </c>
+      <c r="BG88" t="s">
+        <v>294</v>
+      </c>
+      <c r="BH88" t="s">
+        <v>295</v>
+      </c>
+      <c r="BI88" t="s">
+        <v>296</v>
+      </c>
+      <c r="BJ88" t="s">
+        <v>297</v>
+      </c>
+      <c r="BK88" t="s">
+        <v>330</v>
+      </c>
+      <c r="BL88" t="s">
+        <v>299</v>
+      </c>
+      <c r="BM88" t="s">
+        <v>300</v>
+      </c>
+      <c r="BN88" t="s">
+        <v>301</v>
+      </c>
+      <c r="BO88" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP88" t="s">
+        <v>303</v>
+      </c>
+      <c r="BQ88" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR88" t="s">
+        <v>305</v>
+      </c>
+      <c r="BS88" t="s">
+        <v>306</v>
+      </c>
+      <c r="BT88" t="s">
+        <v>307</v>
+      </c>
+      <c r="BU88" t="s">
+        <v>308</v>
+      </c>
+      <c r="BV88" t="s">
+        <v>309</v>
+      </c>
+      <c r="BW88" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="89" spans="1:75">
+      <c r="A89" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:75">
+      <c r="A90" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:75">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91">
+        <v>3.9761442746689003E-2</v>
+      </c>
+      <c r="C91">
+        <v>98.507462686567095</v>
+      </c>
+      <c r="D91">
+        <v>0.15565164322060601</v>
+      </c>
+      <c r="E91">
+        <v>94.557823129251702</v>
+      </c>
+      <c r="F91">
+        <v>6116.3665866851798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:75">
+      <c r="A92" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92">
+        <v>0.27755719407399398</v>
+      </c>
+      <c r="C92">
+        <v>92.533333333333303</v>
+      </c>
+      <c r="D92">
+        <v>0.42822000885009698</v>
+      </c>
+      <c r="E92">
+        <v>85.3333333333333</v>
+      </c>
+      <c r="F92">
+        <v>35191.678550004901</v>
+      </c>
+    </row>
+    <row r="93" spans="1:75">
+      <c r="A93" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93">
+        <v>0.170057128866513</v>
+      </c>
+      <c r="C93">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="D93">
+        <v>0.491844661900254</v>
+      </c>
+      <c r="E93">
+        <v>75.4098360655737</v>
+      </c>
+      <c r="F93">
+        <v>17221.068518877</v>
+      </c>
+    </row>
+    <row r="94" spans="1:75">
+      <c r="A94" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94">
+        <v>6.52388981410435E-2</v>
+      </c>
+      <c r="C94">
+        <v>100</v>
+      </c>
+      <c r="D94">
+        <v>0.51959508085904005</v>
+      </c>
+      <c r="E94">
+        <v>79.452054794520507</v>
+      </c>
+      <c r="F94">
+        <v>20201.283951520902</v>
+      </c>
+    </row>
+    <row r="95" spans="1:75">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95">
+        <v>5.8173327012495502E-2</v>
+      </c>
+      <c r="C95">
+        <v>100</v>
+      </c>
+      <c r="D95">
+        <v>0.23898354756044099</v>
+      </c>
+      <c r="E95">
+        <v>92.537313432835802</v>
+      </c>
+      <c r="F95">
+        <v>50380.643836736599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:75">
+      <c r="A96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96">
+        <v>0.46347763538360598</v>
+      </c>
+      <c r="C96">
+        <v>76.6666666666666</v>
+      </c>
+      <c r="D96">
+        <v>0.78129863739013605</v>
+      </c>
+      <c r="E96">
+        <v>60</v>
+      </c>
+      <c r="F96">
+        <v>2615.2434394359502</v>
+      </c>
+    </row>
+    <row r="97" spans="1:75">
+      <c r="A97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97">
+        <v>0.30407344074699799</v>
+      </c>
+      <c r="C97">
+        <v>90.288713910761103</v>
+      </c>
+      <c r="D97">
+        <v>0.749811859507309</v>
+      </c>
+      <c r="E97">
+        <v>73.552631578947299</v>
+      </c>
+      <c r="F97">
+        <v>13952.648047208701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:75">
+      <c r="A98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98">
+        <v>0.81794615534992898</v>
+      </c>
+      <c r="C98">
+        <v>64.935064935064901</v>
+      </c>
+      <c r="D98">
+        <v>0.60632925271987903</v>
+      </c>
+      <c r="E98">
+        <v>72.5</v>
+      </c>
+      <c r="F98">
+        <v>6140.0450296401896</v>
+      </c>
+    </row>
+    <row r="99" spans="1:75">
+      <c r="A99" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99">
+        <v>0.49562939868350198</v>
+      </c>
+      <c r="C99">
+        <v>79.381443298969003</v>
+      </c>
+      <c r="D99">
+        <v>0.98887360572814897</v>
+      </c>
+      <c r="E99">
+        <v>51</v>
+      </c>
+      <c r="F99">
+        <v>12740.593295335701</v>
+      </c>
+    </row>
+    <row r="100" spans="1:75">
+      <c r="A100" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100">
+        <v>0.97934933451863004</v>
+      </c>
+      <c r="C100">
+        <v>59.090909090909001</v>
+      </c>
+      <c r="D100">
+        <v>1.02174017722146</v>
+      </c>
+      <c r="E100">
+        <v>64.661654135338296</v>
+      </c>
+      <c r="F100">
+        <v>12155.221692085201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:75">
+      <c r="A101" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>8.1266403198242097E-3</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <v>0.26192677835115602</v>
+      </c>
+      <c r="E101">
+        <v>89.776357827476005</v>
+      </c>
+      <c r="F101">
+        <v>10349.499054431901</v>
+      </c>
+    </row>
+    <row r="104" spans="1:75">
+      <c r="A104" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="105" spans="1:75">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" t="s">
+        <v>315</v>
+      </c>
+      <c r="E105" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" t="s">
+        <v>334</v>
+      </c>
+      <c r="G105" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I105" t="s">
+        <v>25</v>
+      </c>
+      <c r="J105" t="s">
+        <v>26</v>
+      </c>
+      <c r="K105" t="s">
+        <v>256</v>
+      </c>
+      <c r="L105" t="s">
+        <v>81</v>
+      </c>
+      <c r="M105" t="s">
+        <v>257</v>
+      </c>
+      <c r="N105" t="s">
+        <v>29</v>
+      </c>
+      <c r="O105" t="s">
+        <v>30</v>
+      </c>
+      <c r="P105" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>259</v>
+      </c>
+      <c r="R105" t="s">
+        <v>260</v>
+      </c>
+      <c r="S105" t="s">
+        <v>261</v>
+      </c>
+      <c r="T105" t="s">
+        <v>262</v>
+      </c>
+      <c r="U105" t="s">
+        <v>33</v>
+      </c>
+      <c r="V105" t="s">
+        <v>35</v>
+      </c>
+      <c r="W105" t="s">
+        <v>691</v>
+      </c>
+      <c r="X105" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK105" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN105" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP105" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ105" t="s">
+        <v>326</v>
+      </c>
+      <c r="AR105" t="s">
+        <v>279</v>
+      </c>
+      <c r="AS105" t="s">
+        <v>280</v>
+      </c>
+      <c r="AT105" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU105" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV105" t="s">
+        <v>283</v>
+      </c>
+      <c r="AW105" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX105" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY105" t="s">
+        <v>286</v>
+      </c>
+      <c r="AZ105" t="s">
+        <v>287</v>
+      </c>
+      <c r="BA105" t="s">
+        <v>288</v>
+      </c>
+      <c r="BB105" t="s">
+        <v>289</v>
+      </c>
+      <c r="BC105" t="s">
+        <v>290</v>
+      </c>
+      <c r="BD105" t="s">
+        <v>291</v>
+      </c>
+      <c r="BE105" t="s">
+        <v>292</v>
+      </c>
+      <c r="BF105" t="s">
+        <v>293</v>
+      </c>
+      <c r="BG105" t="s">
+        <v>294</v>
+      </c>
+      <c r="BH105" t="s">
+        <v>295</v>
+      </c>
+      <c r="BI105" t="s">
+        <v>296</v>
+      </c>
+      <c r="BJ105" t="s">
+        <v>297</v>
+      </c>
+      <c r="BK105" t="s">
+        <v>298</v>
+      </c>
+      <c r="BL105" t="s">
+        <v>299</v>
+      </c>
+      <c r="BM105" t="s">
+        <v>300</v>
+      </c>
+      <c r="BN105" t="s">
+        <v>301</v>
+      </c>
+      <c r="BO105" t="s">
+        <v>302</v>
+      </c>
+      <c r="BP105" t="s">
+        <v>303</v>
+      </c>
+      <c r="BQ105" t="s">
+        <v>304</v>
+      </c>
+      <c r="BR105" t="s">
+        <v>305</v>
+      </c>
+      <c r="BS105" t="s">
+        <v>306</v>
+      </c>
+      <c r="BT105" t="s">
+        <v>307</v>
+      </c>
+      <c r="BU105" t="s">
+        <v>308</v>
+      </c>
+      <c r="BV105" t="s">
+        <v>309</v>
+      </c>
+      <c r="BW105" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:75">
+      <c r="A106" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:75">
+      <c r="A107" t="s">
+        <v>73</v>
+      </c>
+      <c r="B107" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" t="s">
+        <v>53</v>
+      </c>
+      <c r="D107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E107" t="s">
+        <v>55</v>
+      </c>
+      <c r="F107" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:75">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108">
+        <v>4.4163981480384897E-3</v>
+      </c>
+      <c r="C108">
+        <v>100</v>
+      </c>
+      <c r="D108">
+        <v>0.13384296039103</v>
+      </c>
+      <c r="E108">
+        <v>95.918367346938695</v>
+      </c>
+      <c r="F108">
+        <v>4280.9576525688099</v>
+      </c>
+    </row>
+    <row r="109" spans="1:75">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109">
+        <v>5.4362257798512698E-2</v>
+      </c>
+      <c r="C109">
+        <v>100</v>
+      </c>
+      <c r="D109">
+        <v>0.43035120312372799</v>
+      </c>
+      <c r="E109">
+        <v>89.066666666666606</v>
+      </c>
+      <c r="F109">
+        <v>28117.696531772599</v>
+      </c>
+    </row>
+    <row r="110" spans="1:75">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110">
+        <v>4.3596070011456801E-2</v>
+      </c>
+      <c r="C110">
+        <v>100</v>
+      </c>
+      <c r="D110">
+        <v>0.68265456840640204</v>
+      </c>
+      <c r="E110">
+        <v>70.491803278688494</v>
+      </c>
+      <c r="F110">
+        <v>4814.0373995304099</v>
+      </c>
+    </row>
+    <row r="111" spans="1:75">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111">
+        <v>7.9881526742662703E-2</v>
+      </c>
+      <c r="C111">
+        <v>100</v>
+      </c>
+      <c r="D111">
+        <v>0.62935330116585497</v>
+      </c>
+      <c r="E111">
+        <v>80.821917808219098</v>
+      </c>
+      <c r="F111">
+        <v>4267.4638450145703</v>
+      </c>
+    </row>
+    <row r="112" spans="1:75">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112">
+        <v>0.17161466858603699</v>
+      </c>
+      <c r="C112">
+        <v>98.181818181818102</v>
+      </c>
+      <c r="D112">
+        <v>0.37079796709739798</v>
+      </c>
+      <c r="E112">
+        <v>90.149253731343194</v>
+      </c>
+      <c r="F112">
+        <v>71498.6205353736</v>
+      </c>
+    </row>
+    <row r="113" spans="1:83">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113">
+        <v>0.54094808101654002</v>
+      </c>
+      <c r="C113">
+        <v>76.6666666666666</v>
+      </c>
+      <c r="D113">
+        <v>0.63414417902628495</v>
+      </c>
+      <c r="E113">
+        <v>65</v>
+      </c>
+      <c r="F113">
+        <v>5941.5437765121396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:83">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114">
+        <v>0.18553056648084101</v>
+      </c>
+      <c r="C114">
+        <v>93.438320209973696</v>
+      </c>
+      <c r="D114">
+        <v>0.60182897856360895</v>
+      </c>
+      <c r="E114">
+        <v>78.157894736842096</v>
+      </c>
+      <c r="F114">
+        <v>18557.406904459</v>
+      </c>
+    </row>
+    <row r="115" spans="1:83">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115">
+        <v>0.695022152615832</v>
+      </c>
+      <c r="C115">
+        <v>69.480519480519405</v>
+      </c>
+      <c r="D115">
+        <v>0.54506578445434495</v>
+      </c>
+      <c r="E115">
+        <v>77.75</v>
+      </c>
+      <c r="F115">
+        <v>5526.3659553527796</v>
+      </c>
+    </row>
+    <row r="116" spans="1:83">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116">
+        <v>0.27271056195714599</v>
+      </c>
+      <c r="C116">
+        <v>89.003436426116807</v>
+      </c>
+      <c r="D116">
+        <v>0.65990680575370697</v>
+      </c>
+      <c r="E116">
+        <v>58.6666666666666</v>
+      </c>
+      <c r="F116">
+        <v>9559.0809633731806</v>
+      </c>
+    </row>
+    <row r="117" spans="1:83">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117">
+        <v>0.82682612035181602</v>
+      </c>
+      <c r="C117">
+        <v>70.129870129870099</v>
+      </c>
+      <c r="D117">
+        <v>0.98171739649951895</v>
+      </c>
+      <c r="E117">
+        <v>62.907268170426001</v>
+      </c>
+      <c r="F117">
+        <v>5327.0241799354499</v>
+      </c>
+    </row>
+    <row r="118" spans="1:83">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118">
+        <v>5.4808497428893996E-3</v>
+      </c>
+      <c r="C118">
+        <v>100</v>
+      </c>
+      <c r="D118">
+        <v>0.207972602436717</v>
+      </c>
+      <c r="E118">
+        <v>92.971246006389705</v>
+      </c>
+      <c r="F118">
+        <v>4633.3820850849097</v>
+      </c>
+    </row>
+    <row r="121" spans="1:83">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" t="s">
+        <v>693</v>
+      </c>
+      <c r="G121" t="s">
+        <v>23</v>
+      </c>
+      <c r="H121" t="s">
+        <v>24</v>
+      </c>
+      <c r="I121" t="s">
+        <v>671</v>
+      </c>
+      <c r="J121" t="s">
+        <v>672</v>
+      </c>
+      <c r="K121" t="s">
+        <v>673</v>
+      </c>
+      <c r="L121" t="s">
+        <v>81</v>
+      </c>
+      <c r="M121" t="s">
+        <v>257</v>
+      </c>
+      <c r="N121" t="s">
+        <v>29</v>
+      </c>
+      <c r="O121" t="s">
+        <v>30</v>
+      </c>
+      <c r="P121" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>259</v>
+      </c>
+      <c r="R121" t="s">
+        <v>611</v>
+      </c>
+      <c r="S121" t="s">
+        <v>674</v>
+      </c>
+      <c r="T121" t="s">
+        <v>262</v>
+      </c>
+      <c r="U121" t="s">
+        <v>675</v>
+      </c>
+      <c r="V121" t="s">
+        <v>35</v>
+      </c>
+      <c r="W121" t="s">
+        <v>691</v>
+      </c>
+      <c r="X121" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF121" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH121" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>618</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN121" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO121" t="s">
+        <v>677</v>
+      </c>
+      <c r="AP121" t="s">
+        <v>678</v>
+      </c>
+      <c r="AQ121" t="s">
+        <v>679</v>
+      </c>
+      <c r="AR121" t="s">
+        <v>680</v>
+      </c>
+      <c r="AS121" t="s">
+        <v>681</v>
+      </c>
+      <c r="AT121" t="s">
+        <v>682</v>
+      </c>
+      <c r="AU121" t="s">
+        <v>683</v>
+      </c>
+      <c r="AV121" t="s">
+        <v>622</v>
+      </c>
+      <c r="AW121" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX121" t="s">
+        <v>684</v>
+      </c>
+      <c r="AY121" t="s">
+        <v>279</v>
+      </c>
+      <c r="AZ121" t="s">
+        <v>685</v>
+      </c>
+      <c r="BA121" t="s">
+        <v>281</v>
+      </c>
+      <c r="BB121" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC121" t="s">
+        <v>283</v>
+      </c>
+      <c r="BD121" t="s">
+        <v>627</v>
+      </c>
+      <c r="BE121" t="s">
+        <v>284</v>
+      </c>
+      <c r="BF121" t="s">
+        <v>686</v>
+      </c>
+      <c r="BG121" t="s">
+        <v>285</v>
+      </c>
+      <c r="BH121" t="s">
+        <v>687</v>
+      </c>
+      <c r="BI121" t="s">
+        <v>630</v>
+      </c>
+      <c r="BJ121" t="s">
+        <v>290</v>
+      </c>
+      <c r="BK121" t="s">
+        <v>631</v>
+      </c>
+      <c r="BL121" t="s">
+        <v>291</v>
+      </c>
+      <c r="BM121" t="s">
+        <v>292</v>
+      </c>
+      <c r="BN121" t="s">
+        <v>293</v>
+      </c>
+      <c r="BO121" t="s">
+        <v>294</v>
+      </c>
+      <c r="BP121" t="s">
+        <v>295</v>
+      </c>
+      <c r="BQ121" t="s">
+        <v>296</v>
+      </c>
+      <c r="BR121" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS121" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT121" t="s">
+        <v>299</v>
+      </c>
+      <c r="BU121" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV121" t="s">
+        <v>301</v>
+      </c>
+      <c r="BW121" t="s">
+        <v>302</v>
+      </c>
+      <c r="BX121" t="s">
+        <v>303</v>
+      </c>
+      <c r="BY121" t="s">
+        <v>304</v>
+      </c>
+      <c r="BZ121" t="s">
+        <v>305</v>
+      </c>
+      <c r="CA121" t="s">
+        <v>306</v>
+      </c>
+      <c r="CB121" t="s">
+        <v>307</v>
+      </c>
+      <c r="CC121" t="s">
+        <v>688</v>
+      </c>
+      <c r="CD121" t="s">
+        <v>689</v>
+      </c>
+      <c r="CE121" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:83">
+      <c r="A122" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:83">
+      <c r="A123" t="s">
+        <v>73</v>
+      </c>
+      <c r="B123" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" t="s">
+        <v>53</v>
+      </c>
+      <c r="D123" t="s">
+        <v>636</v>
+      </c>
+      <c r="E123" t="s">
+        <v>637</v>
+      </c>
+      <c r="F123" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" t="s">
+        <v>55</v>
+      </c>
+      <c r="H123" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="1:83">
+      <c r="A124" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124">
+        <v>1.9546427916902198E-3</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+      <c r="D124" t="s">
+        <v>638</v>
+      </c>
+      <c r="E124" t="s">
+        <v>638</v>
+      </c>
+      <c r="F124">
+        <v>8.0550271950741697E-3</v>
+      </c>
+      <c r="G124">
+        <v>94.752186588921205</v>
+      </c>
+      <c r="H124">
+        <v>7678.2304823398499</v>
       </c>
     </row>
   </sheetData>

--- a/results/time-series-100-99-percent-energy-preserved.xlsx
+++ b/results/time-series-100-99-percent-energy-preserved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\time-series-machine-leaning\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3AA84D-14D4-468B-A9DD-30905447CAD4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C55BC5-D2B8-4D0D-817C-94031143DED6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8412" activeTab="1" xr2:uid="{99A84B33-02FC-4241-9637-4ED1B9116C8D}"/>
   </bookViews>
@@ -3271,7 +3271,6 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name/>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -4549,7 +4548,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>graph!$C$1:$C$47</c15:sqref>
@@ -4704,7 +4703,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>graph!$G$1:$G$47</c15:sqref>
@@ -4856,7 +4855,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-D313-4F00-92F8-3B836D7DF97A}"/>
                   </c:ext>
@@ -8438,15 +8437,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>36194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12379,7 +12378,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12466,15 +12465,15 @@
         <v>3.1090373280943058</v>
       </c>
       <c r="F4">
-        <f>$A4/$G$1*100</f>
+        <f t="shared" ref="F4:G23" si="1">$A4/$G$1*100</f>
         <v>4.4444444444444446</v>
       </c>
       <c r="G4">
-        <f>$A4/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H47" si="1">$C4</f>
+        <f t="shared" ref="H4:H47" si="2">$C4</f>
         <v>80.946291560102253</v>
       </c>
     </row>
@@ -12499,15 +12498,15 @@
         <v>1.1550632911392411</v>
       </c>
       <c r="F5">
-        <f>$A5/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
       <c r="G5">
-        <f>$A5/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.428571428571402</v>
       </c>
     </row>
@@ -12532,15 +12531,15 @@
         <v>1.2162162162162165</v>
       </c>
       <c r="F6">
-        <f>$A6/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="G6">
-        <f>$A6/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
@@ -12565,15 +12564,15 @@
         <v>0.85106382978723405</v>
       </c>
       <c r="F7">
-        <f>$A7/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
       <c r="G7">
-        <f>$A7/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -12598,15 +12597,15 @@
         <v>1.139240506329114</v>
       </c>
       <c r="F8">
-        <f>$A8/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>13.333333333333334</v>
       </c>
       <c r="G8">
-        <f>$A8/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>13.333333333333334</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
@@ -12631,15 +12630,15 @@
         <v>1.5027322404371579</v>
       </c>
       <c r="F9">
-        <f>$A9/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>15.555555555555555</v>
       </c>
       <c r="G9">
-        <f>$A9/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>15.555555555555555</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91.6666666666666</v>
       </c>
     </row>
@@ -12664,15 +12663,15 @@
         <v>0.99642537980339629</v>
       </c>
       <c r="F10">
-        <f>$A10/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>17.777777777777779</v>
       </c>
       <c r="G10">
-        <f>$A10/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>17.777777777777779</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.1111111111111</v>
       </c>
     </row>
@@ -12697,15 +12696,15 @@
         <v>1.230880622680786</v>
       </c>
       <c r="F11">
-        <f>$A11/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G11">
-        <f>$A11/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70.8333333333333</v>
       </c>
     </row>
@@ -12730,15 +12729,15 @@
         <v>1.417553191489362</v>
       </c>
       <c r="F12">
-        <f>$A12/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>22.222222222222221</v>
       </c>
       <c r="G12">
-        <f>$A12/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>22.222222222222221</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.246376811594203</v>
       </c>
     </row>
@@ -12763,15 +12762,15 @@
         <v>1.0370370370370374</v>
       </c>
       <c r="F13">
-        <f>$A13/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>24.444444444444443</v>
       </c>
       <c r="G13">
-        <f>$A13/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>24.444444444444443</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -12795,15 +12794,15 @@
         <v>1.2688821752265864</v>
       </c>
       <c r="F14">
-        <f>$A14/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>26.666666666666668</v>
       </c>
       <c r="G14">
-        <f>$A14/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>26.666666666666668</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
     </row>
@@ -12827,15 +12826,15 @@
         <v>1.1660231660231666</v>
       </c>
       <c r="F15">
-        <f>$A15/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>28.888888888888886</v>
       </c>
       <c r="G15">
-        <f>$A15/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>28.888888888888886</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.435897435897402</v>
       </c>
     </row>
@@ -12859,15 +12858,15 @@
         <v>1.2587991718426499</v>
       </c>
       <c r="F16">
-        <f>$A16/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>31.111111111111111</v>
       </c>
       <c r="G16">
-        <f>$A16/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>31.111111111111111</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.948717948717899</v>
       </c>
     </row>
@@ -12891,15 +12890,15 @@
         <v>1.1590909090909087</v>
       </c>
       <c r="F17">
-        <f>$A17/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
       <c r="G17">
-        <f>$A17/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333329</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78.461538461538396</v>
       </c>
     </row>
@@ -12923,15 +12922,15 @@
         <v>1.3676470588235294</v>
       </c>
       <c r="F18">
-        <f>$A18/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>35.555555555555557</v>
       </c>
       <c r="G18">
-        <f>$A18/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>35.555555555555557</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91.176470588235205</v>
       </c>
     </row>
@@ -12955,15 +12954,15 @@
         <v>1.0626959247648904</v>
       </c>
       <c r="F19">
-        <f>$A19/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>37.777777777777779</v>
       </c>
       <c r="G19">
-        <f>$A19/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>37.777777777777779</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84.75</v>
       </c>
     </row>
@@ -12987,15 +12986,15 @@
         <v>1.0774336283185837</v>
       </c>
       <c r="F20">
-        <f>$A20/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G20">
-        <f>$A20/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81.1666666666666</v>
       </c>
     </row>
@@ -13019,15 +13018,15 @@
         <v>1.0707070707070707</v>
       </c>
       <c r="F21">
-        <f>$A21/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>42.222222222222221</v>
       </c>
       <c r="G21">
-        <f>$A21/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>42.222222222222221</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.5</v>
       </c>
     </row>
@@ -13051,15 +13050,15 @@
         <v>1.0286885245901645</v>
       </c>
       <c r="F22">
-        <f>$A22/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>44.444444444444443</v>
       </c>
       <c r="G22">
-        <f>$A22/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>44.444444444444443</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.950310559006198</v>
       </c>
     </row>
@@ -13083,15 +13082,15 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <f>$A23/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>46.666666666666664</v>
       </c>
       <c r="G23">
-        <f>$A23/$G$1*100</f>
+        <f t="shared" si="1"/>
         <v>46.666666666666664</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
     </row>
@@ -13115,15 +13114,15 @@
         <v>0.99599340089559352</v>
       </c>
       <c r="F24">
-        <f>$A24/$G$1*100</f>
+        <f t="shared" ref="F24:G47" si="3">$A24/$G$1*100</f>
         <v>48.888888888888886</v>
       </c>
       <c r="G24">
-        <f>$A24/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>48.888888888888886</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93.911111111111097</v>
       </c>
     </row>
@@ -13147,15 +13146,15 @@
         <v>0.98941176470588221</v>
       </c>
       <c r="F25">
-        <f>$A25/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>51.111111111111107</v>
       </c>
       <c r="G25">
-        <f>$A25/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>51.111111111111107</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97.677119628339099</v>
       </c>
     </row>
@@ -13179,15 +13178,15 @@
         <v>1.1561004784688989</v>
       </c>
       <c r="F26">
-        <f>$A26/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>53.333333333333336</v>
       </c>
       <c r="G26">
-        <f>$A26/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>53.333333333333336</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75.204253663597399</v>
       </c>
     </row>
@@ -13211,15 +13210,15 @@
         <v>1.1930091185410325</v>
       </c>
       <c r="F27">
-        <f>$A27/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>55.555555555555557</v>
       </c>
       <c r="G27">
-        <f>$A27/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>55.555555555555557</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92.899408284023593</v>
       </c>
     </row>
@@ -13243,15 +13242,15 @@
         <v>1.0124999999999995</v>
       </c>
       <c r="F28">
-        <f>$A28/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>57.777777777777771</v>
       </c>
       <c r="G28">
-        <f>$A28/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>57.777777777777771</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92.045454545454504</v>
       </c>
     </row>
@@ -13275,15 +13274,15 @@
         <v>0.99370409233997936</v>
       </c>
       <c r="F29">
-        <f>$A29/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="G29">
-        <f>$A29/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92.390243902438996</v>
       </c>
     </row>
@@ -13307,15 +13306,15 @@
         <v>1.6249999999999996</v>
       </c>
       <c r="F30">
-        <f>$A30/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>62.222222222222221</v>
       </c>
       <c r="G30">
-        <f>$A30/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>62.222222222222221</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96.571428571428498</v>
       </c>
     </row>
@@ -13339,15 +13338,15 @@
         <v>1.0771503611293509</v>
       </c>
       <c r="F31">
-        <f>$A31/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>64.444444444444443</v>
       </c>
       <c r="G31">
-        <f>$A31/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>64.444444444444443</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91.113579561232996</v>
       </c>
     </row>
@@ -13371,15 +13370,15 @@
         <v>1.0143884892086321</v>
       </c>
       <c r="F32">
-        <f>$A32/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>66.666666666666657</v>
       </c>
       <c r="G32">
-        <f>$A32/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>66.666666666666657</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95.918367346938695</v>
       </c>
     </row>
@@ -13403,15 +13402,15 @@
         <v>1.0437499999999997</v>
       </c>
       <c r="F33">
-        <f>$A33/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>68.888888888888886</v>
       </c>
       <c r="G33">
-        <f>$A33/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>68.888888888888886</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.066666666666606</v>
       </c>
     </row>
@@ -13435,15 +13434,15 @@
         <v>0.93478260869565266</v>
       </c>
       <c r="F34">
-        <f>$A34/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>71.111111111111114</v>
       </c>
       <c r="G34">
-        <f>$A34/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>71.111111111111114</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70.491803278688494</v>
       </c>
     </row>
@@ -13467,15 +13466,15 @@
         <v>1.0172413793103443</v>
       </c>
       <c r="F35">
-        <f>$A35/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>73.333333333333329</v>
       </c>
       <c r="G35">
-        <f>$A35/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>73.333333333333329</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.821917808219098</v>
       </c>
     </row>
@@ -13499,15 +13498,15 @@
         <v>0.97419354838709604</v>
       </c>
       <c r="F36">
-        <f>$A36/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>75.555555555555557</v>
       </c>
       <c r="G36">
-        <f>$A36/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>75.555555555555557</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.149253731343194</v>
       </c>
     </row>
@@ -13531,15 +13530,15 @@
         <v>1.0833333333333333</v>
       </c>
       <c r="F37">
-        <f>$A37/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>77.777777777777786</v>
       </c>
       <c r="G37">
-        <f>$A37/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>77.777777777777786</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
     </row>
@@ -13563,15 +13562,15 @@
         <v>1.0626118067978543</v>
       </c>
       <c r="F38">
-        <f>$A38/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="G38">
-        <f>$A38/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78.157894736842096</v>
       </c>
     </row>
@@ -13595,15 +13594,15 @@
         <v>1.0724137931034483</v>
       </c>
       <c r="F39">
-        <f>$A39/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>82.222222222222214</v>
       </c>
       <c r="G39">
-        <f>$A39/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>82.222222222222214</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.75</v>
       </c>
     </row>
@@ -13627,15 +13626,15 @@
         <v>1.1503267973856197</v>
       </c>
       <c r="F40">
-        <f>$A40/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>84.444444444444443</v>
       </c>
       <c r="G40">
-        <f>$A40/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>84.444444444444443</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.6666666666666</v>
       </c>
     </row>
@@ -13659,15 +13658,15 @@
         <v>0.9728682170542633</v>
       </c>
       <c r="F41">
-        <f>$A41/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>86.666666666666671</v>
       </c>
       <c r="G41">
-        <f>$A41/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>86.666666666666671</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62.907268170426001</v>
       </c>
     </row>
@@ -13691,15 +13690,15 @@
         <v>1.0355871886120993</v>
       </c>
       <c r="F42">
-        <f>$A42/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>88.888888888888886</v>
       </c>
       <c r="G42">
-        <f>$A42/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>88.888888888888886</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92.971246006389705</v>
       </c>
     </row>
@@ -13723,15 +13722,15 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <f>$A43/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>91.111111111111114</v>
       </c>
       <c r="G43">
-        <f>$A43/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>91.111111111111114</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -13753,15 +13752,15 @@
         <v>0.99534883720930312</v>
       </c>
       <c r="F44">
-        <f>$A44/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>93.333333333333329</v>
       </c>
       <c r="G44">
-        <f>$A44/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>93.333333333333329</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93.859649122806999</v>
       </c>
     </row>
@@ -13783,15 +13782,15 @@
         <v>1.2142857142857151</v>
       </c>
       <c r="F45">
-        <f>$A45/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>95.555555555555557</v>
       </c>
       <c r="G45">
-        <f>$A45/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>95.555555555555557</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91.538461538461505</v>
       </c>
     </row>
@@ -13814,15 +13813,15 @@
         <v>0.83720930232558077</v>
       </c>
       <c r="F46">
-        <f>$A46/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>97.777777777777771</v>
       </c>
       <c r="G46">
-        <f>$A46/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>97.777777777777771</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.6666666666666</v>
       </c>
     </row>
@@ -13845,15 +13844,15 @@
         <v>0.99701492537313285</v>
       </c>
       <c r="F47">
-        <f>$A47/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G47">
-        <f>$A47/$G$1*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.351097178683297</v>
       </c>
     </row>
